--- a/04.基本設計/〇×ゲーム_インターフェース定義書.xlsx
+++ b/04.基本設計/〇×ゲーム_インターフェース定義書.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="795"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
     <sheet name="クライアントとサーバー間通信" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">クライアントとサーバー間通信!$A$1:$DY$164</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">クライアントとサーバー間通信!$A$1:$DY$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$K$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">クライアントとサーバー間通信!$5:$5</definedName>
     <definedName name="Print_Titles_0" localSheetId="1">クライアントとサーバー間通信!$5:$5</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -1647,26 +1647,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">テキストメッセージ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>イベント情報</t>
-    </r>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2027,12 +2007,99 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">テキストメッセージ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>イベント情報</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0.12</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【シーケンス図】
+・クライアントに番号を付加
+・違うタイミングで各通信を行うように修正
+・手番通知機能が情報送信機能よりも前に通信が行われるように修正</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2084,14 +2151,6 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2483,7 +2542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2500,314 +2559,311 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2953,8 +3009,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>クライアント</a:t>
+            <a:t>クライアント１</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3134,7 +3195,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3191,7 +3252,7 @@
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3342,15 +3403,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3360,7 +3421,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1609725" y="19802475"/>
+          <a:off x="1600200" y="22631400"/>
           <a:ext cx="2486025" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3466,13 +3527,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3517,13 +3578,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3598,13 +3659,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3648,13 +3709,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3698,13 +3759,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3863,15 +3924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3880,7 +3941,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="21688425"/>
+          <a:off x="1666875" y="23002875"/>
           <a:ext cx="2524125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3915,13 +3976,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4017,7 +4078,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>クライアント</a:t>
+            <a:t>クライアント２</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4084,7 +4145,7 @@
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4141,7 +4202,7 @@
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4198,13 +4259,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4246,16 +4307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4264,7 +4325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="22078950"/>
+          <a:off x="4667250" y="25498425"/>
           <a:ext cx="2581275" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4297,16 +4358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4315,7 +4376,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4686302" y="22459952"/>
+          <a:off x="4695827" y="25822277"/>
           <a:ext cx="2609848" cy="19048"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4351,14 +4412,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4367,8 +4428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4667251" y="22383751"/>
-          <a:ext cx="3457574" cy="47624"/>
+          <a:off x="4667251" y="24155401"/>
+          <a:ext cx="2657474" cy="47624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4401,15 +4462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4418,7 +4479,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="24174450"/>
+          <a:off x="4714875" y="24450675"/>
           <a:ext cx="2600325" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4453,15 +4514,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4470,8 +4531,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4629150" y="17726025"/>
-          <a:ext cx="3533775" cy="9525"/>
+          <a:off x="4667250" y="18583275"/>
+          <a:ext cx="2733675" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4502,16 +4563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4520,8 +4581,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4695827" y="18068926"/>
-          <a:ext cx="3428998" cy="28574"/>
+          <a:off x="4686302" y="19050001"/>
+          <a:ext cx="2628898" cy="28574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4562,8 +4623,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4573,7 +4634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1133475" y="20440651"/>
-          <a:ext cx="3228975" cy="2924174"/>
+          <a:ext cx="3228975" cy="2819399"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -4703,16 +4764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4721,8 +4782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="21107400"/>
-          <a:ext cx="3228975" cy="3448049"/>
+          <a:off x="4410075" y="23298150"/>
+          <a:ext cx="3228975" cy="3038474"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -4771,16 +4832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4789,7 +4850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="21145500"/>
+          <a:off x="4457700" y="23364825"/>
           <a:ext cx="1247775" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -4853,15 +4914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4870,7 +4931,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="26231850"/>
+          <a:off x="4676775" y="28470225"/>
           <a:ext cx="2686050" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4906,13 +4967,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4972,16 +5033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4990,7 +5051,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4705350" y="26584275"/>
+          <a:off x="4667250" y="28841700"/>
           <a:ext cx="2647949" cy="38099"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5326,383 +5387,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39" style="10" customWidth="1"/>
-    <col min="8" max="8" width="34" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="5.5" style="10"/>
+    <col min="1" max="2" width="4.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="39" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="5.5" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="17">
+    <row r="5" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>0.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>42937</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="17">
+    <row r="6" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>42937</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="17">
+    <row r="7" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="14">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>42940</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>42940</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.15">
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>42941</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <v>42941</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="75" x14ac:dyDescent="0.15">
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>42942</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="120" x14ac:dyDescent="0.15">
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>42942</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>42943</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="345" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="27">
+      <c r="C15" s="32">
         <v>11</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="G15" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="33"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="3:10" ht="135" x14ac:dyDescent="0.15">
+      <c r="C17" s="20">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="27" t="s">
+      <c r="E17" s="22">
+        <v>42940</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="28"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="3:10" ht="135" x14ac:dyDescent="0.15">
-      <c r="C17" s="23">
-        <v>12</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="25">
-        <v>42940</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="22" t="s">
+    <row r="18" spans="3:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="C18" s="20">
+        <v>13</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="22">
+        <v>42955</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J18" s="19" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5719,15 +5806,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DY164"/>
+  <dimension ref="A1:DY177"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BB127" sqref="BB127"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="26" customWidth="1"/>
     <col min="2" max="84" width="2" style="2"/>
     <col min="85" max="97" width="2" style="2" customWidth="1"/>
     <col min="98" max="1037" width="2" style="2"/>
@@ -5735,464 +5822,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="89"/>
-      <c r="BN1" s="89"/>
-      <c r="BO1" s="89"/>
-      <c r="BP1" s="89"/>
-      <c r="BQ1" s="89"/>
-      <c r="BR1" s="89"/>
-      <c r="BS1" s="89"/>
-      <c r="BT1" s="89"/>
-      <c r="BU1" s="89"/>
-      <c r="BV1" s="89" t="s">
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="62"/>
+      <c r="BU1" s="62"/>
+      <c r="BV1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="BW1" s="89"/>
-      <c r="BX1" s="89"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CG1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="89"/>
-      <c r="CL1" s="89"/>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CO1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
-      <c r="CW1" s="89"/>
-      <c r="CX1" s="89"/>
-      <c r="CY1" s="89"/>
-      <c r="CZ1" s="89"/>
-      <c r="DA1" s="89"/>
-      <c r="DB1" s="89"/>
-      <c r="DC1" s="89"/>
-      <c r="DD1" s="91"/>
-      <c r="DY1" s="104"/>
+      <c r="BW1" s="62"/>
+      <c r="BX1" s="62"/>
+      <c r="BY1" s="62"/>
+      <c r="BZ1" s="62"/>
+      <c r="CA1" s="62"/>
+      <c r="CB1" s="62"/>
+      <c r="CC1" s="62"/>
+      <c r="CD1" s="62"/>
+      <c r="CE1" s="62"/>
+      <c r="CF1" s="62"/>
+      <c r="CG1" s="62"/>
+      <c r="CH1" s="62"/>
+      <c r="CI1" s="62"/>
+      <c r="CJ1" s="62"/>
+      <c r="CK1" s="62"/>
+      <c r="CL1" s="62"/>
+      <c r="CM1" s="62"/>
+      <c r="CN1" s="62"/>
+      <c r="CO1" s="62"/>
+      <c r="CP1" s="62"/>
+      <c r="CQ1" s="62"/>
+      <c r="CR1" s="62"/>
+      <c r="CS1" s="62"/>
+      <c r="CT1" s="62"/>
+      <c r="CU1" s="62"/>
+      <c r="CV1" s="62"/>
+      <c r="CW1" s="62"/>
+      <c r="CX1" s="62"/>
+      <c r="CY1" s="62"/>
+      <c r="CZ1" s="62"/>
+      <c r="DA1" s="62"/>
+      <c r="DB1" s="62"/>
+      <c r="DC1" s="62"/>
+      <c r="DD1" s="66"/>
+      <c r="DY1" s="25"/>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="56"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="56"/>
-      <c r="CG2" s="56"/>
-      <c r="CH2" s="56"/>
-      <c r="CI2" s="56"/>
-      <c r="CJ2" s="56"/>
-      <c r="CK2" s="56"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="56"/>
-      <c r="CN2" s="56"/>
-      <c r="CO2" s="56"/>
-      <c r="CP2" s="56"/>
-      <c r="CQ2" s="56"/>
-      <c r="CR2" s="56"/>
-      <c r="CS2" s="56"/>
-      <c r="CT2" s="56"/>
-      <c r="CU2" s="56"/>
-      <c r="CV2" s="56"/>
-      <c r="CW2" s="56"/>
-      <c r="CX2" s="56"/>
-      <c r="CY2" s="56"/>
-      <c r="CZ2" s="56"/>
-      <c r="DA2" s="56"/>
-      <c r="DB2" s="56"/>
-      <c r="DC2" s="56"/>
-      <c r="DD2" s="92"/>
-      <c r="DY2" s="104"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="64"/>
+      <c r="BX2" s="64"/>
+      <c r="BY2" s="64"/>
+      <c r="BZ2" s="64"/>
+      <c r="CA2" s="64"/>
+      <c r="CB2" s="64"/>
+      <c r="CC2" s="64"/>
+      <c r="CD2" s="64"/>
+      <c r="CE2" s="64"/>
+      <c r="CF2" s="64"/>
+      <c r="CG2" s="64"/>
+      <c r="CH2" s="64"/>
+      <c r="CI2" s="64"/>
+      <c r="CJ2" s="64"/>
+      <c r="CK2" s="64"/>
+      <c r="CL2" s="64"/>
+      <c r="CM2" s="64"/>
+      <c r="CN2" s="64"/>
+      <c r="CO2" s="64"/>
+      <c r="CP2" s="64"/>
+      <c r="CQ2" s="64"/>
+      <c r="CR2" s="64"/>
+      <c r="CS2" s="64"/>
+      <c r="CT2" s="64"/>
+      <c r="CU2" s="64"/>
+      <c r="CV2" s="64"/>
+      <c r="CW2" s="64"/>
+      <c r="CX2" s="64"/>
+      <c r="CY2" s="64"/>
+      <c r="CZ2" s="64"/>
+      <c r="DA2" s="64"/>
+      <c r="DB2" s="64"/>
+      <c r="DC2" s="64"/>
+      <c r="DD2" s="67"/>
+      <c r="DY2" s="25"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="97" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="97"/>
-      <c r="BC3" s="97"/>
-      <c r="BD3" s="97"/>
-      <c r="BE3" s="97"/>
-      <c r="BF3" s="97"/>
-      <c r="BG3" s="97"/>
-      <c r="BH3" s="97"/>
-      <c r="BI3" s="97"/>
-      <c r="BJ3" s="97"/>
-      <c r="BK3" s="97"/>
-      <c r="BL3" s="97"/>
-      <c r="BM3" s="97"/>
-      <c r="BN3" s="97"/>
-      <c r="BO3" s="97"/>
-      <c r="BP3" s="97"/>
-      <c r="BQ3" s="97"/>
-      <c r="BR3" s="97"/>
-      <c r="BS3" s="97"/>
-      <c r="BT3" s="97"/>
-      <c r="BU3" s="97"/>
-      <c r="BV3" s="97" t="s">
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="BW3" s="97"/>
-      <c r="BX3" s="97"/>
-      <c r="BY3" s="97"/>
-      <c r="BZ3" s="97"/>
-      <c r="CA3" s="97"/>
-      <c r="CB3" s="97"/>
-      <c r="CC3" s="97"/>
-      <c r="CD3" s="97"/>
-      <c r="CE3" s="97"/>
-      <c r="CF3" s="97"/>
-      <c r="CG3" s="97"/>
-      <c r="CH3" s="97"/>
-      <c r="CI3" s="97"/>
-      <c r="CJ3" s="97"/>
-      <c r="CK3" s="97"/>
-      <c r="CL3" s="97"/>
-      <c r="CM3" s="97"/>
-      <c r="CN3" s="97"/>
-      <c r="CO3" s="97"/>
-      <c r="CP3" s="97"/>
-      <c r="CQ3" s="97"/>
-      <c r="CR3" s="97"/>
-      <c r="CS3" s="97"/>
-      <c r="CT3" s="97"/>
-      <c r="CU3" s="97"/>
-      <c r="CV3" s="97"/>
-      <c r="CW3" s="97"/>
-      <c r="CX3" s="97"/>
-      <c r="CY3" s="97"/>
-      <c r="CZ3" s="97"/>
-      <c r="DA3" s="97"/>
-      <c r="DB3" s="97"/>
-      <c r="DC3" s="97"/>
-      <c r="DD3" s="99"/>
-      <c r="DY3" s="104"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="72"/>
+      <c r="CD3" s="72"/>
+      <c r="CE3" s="72"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="72"/>
+      <c r="CH3" s="72"/>
+      <c r="CI3" s="72"/>
+      <c r="CJ3" s="72"/>
+      <c r="CK3" s="72"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="72"/>
+      <c r="CP3" s="72"/>
+      <c r="CQ3" s="72"/>
+      <c r="CR3" s="72"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
+      <c r="CY3" s="72"/>
+      <c r="CZ3" s="72"/>
+      <c r="DA3" s="72"/>
+      <c r="DB3" s="72"/>
+      <c r="DC3" s="72"/>
+      <c r="DD3" s="74"/>
+      <c r="DY3" s="25"/>
     </row>
     <row r="4" spans="1:129" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="98"/>
-      <c r="BO4" s="98"/>
-      <c r="BP4" s="98"/>
-      <c r="BQ4" s="98"/>
-      <c r="BR4" s="98"/>
-      <c r="BS4" s="98"/>
-      <c r="BT4" s="98"/>
-      <c r="BU4" s="98"/>
-      <c r="BV4" s="98"/>
-      <c r="BW4" s="98"/>
-      <c r="BX4" s="98"/>
-      <c r="BY4" s="98"/>
-      <c r="BZ4" s="98"/>
-      <c r="CA4" s="98"/>
-      <c r="CB4" s="98"/>
-      <c r="CC4" s="98"/>
-      <c r="CD4" s="98"/>
-      <c r="CE4" s="98"/>
-      <c r="CF4" s="98"/>
-      <c r="CG4" s="98"/>
-      <c r="CH4" s="98"/>
-      <c r="CI4" s="98"/>
-      <c r="CJ4" s="98"/>
-      <c r="CK4" s="98"/>
-      <c r="CL4" s="98"/>
-      <c r="CM4" s="98"/>
-      <c r="CN4" s="98"/>
-      <c r="CO4" s="98"/>
-      <c r="CP4" s="98"/>
-      <c r="CQ4" s="98"/>
-      <c r="CR4" s="98"/>
-      <c r="CS4" s="98"/>
-      <c r="CT4" s="98"/>
-      <c r="CU4" s="98"/>
-      <c r="CV4" s="98"/>
-      <c r="CW4" s="98"/>
-      <c r="CX4" s="98"/>
-      <c r="CY4" s="98"/>
-      <c r="CZ4" s="98"/>
-      <c r="DA4" s="98"/>
-      <c r="DB4" s="98"/>
-      <c r="DC4" s="98"/>
-      <c r="DD4" s="100"/>
-      <c r="DY4" s="104"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="73"/>
+      <c r="BO4" s="73"/>
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="73"/>
+      <c r="BU4" s="73"/>
+      <c r="BV4" s="73"/>
+      <c r="BW4" s="73"/>
+      <c r="BX4" s="73"/>
+      <c r="BY4" s="73"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="73"/>
+      <c r="CC4" s="73"/>
+      <c r="CD4" s="73"/>
+      <c r="CE4" s="73"/>
+      <c r="CF4" s="73"/>
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CI4" s="73"/>
+      <c r="CJ4" s="73"/>
+      <c r="CK4" s="73"/>
+      <c r="CL4" s="73"/>
+      <c r="CM4" s="73"/>
+      <c r="CN4" s="73"/>
+      <c r="CO4" s="73"/>
+      <c r="CP4" s="73"/>
+      <c r="CQ4" s="73"/>
+      <c r="CR4" s="73"/>
+      <c r="CS4" s="73"/>
+      <c r="CT4" s="73"/>
+      <c r="CU4" s="73"/>
+      <c r="CV4" s="73"/>
+      <c r="CW4" s="73"/>
+      <c r="CX4" s="73"/>
+      <c r="CY4" s="73"/>
+      <c r="CZ4" s="73"/>
+      <c r="DA4" s="73"/>
+      <c r="DB4" s="73"/>
+      <c r="DC4" s="73"/>
+      <c r="DD4" s="75"/>
+      <c r="DY4" s="25"/>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
@@ -6302,25 +6389,25 @@
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
       <c r="DD5" s="1"/>
-      <c r="DY5" s="104"/>
+      <c r="DY5" s="25"/>
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DY6" s="104"/>
+      <c r="DY6" s="25"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="DY7" s="104"/>
+      <c r="DY7" s="25"/>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.15">
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="DY8" s="104"/>
+      <c r="DY8" s="25"/>
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="DY9" s="104"/>
+      <c r="DY9" s="25"/>
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.15">
       <c r="E10" s="2" t="s">
@@ -6329,258 +6416,258 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="DY10" s="104"/>
+      <c r="DY10" s="25"/>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.15">
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="DY11" s="104"/>
+      <c r="DY11" s="25"/>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.15">
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="DY12" s="104"/>
+      <c r="DY12" s="25"/>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.15">
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="DY13" s="104"/>
+      <c r="DY13" s="25"/>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.15">
       <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="DY14" s="104"/>
+      <c r="DY14" s="25"/>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="DY15" s="104"/>
+      <c r="DY15" s="25"/>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DY16" s="104"/>
+      <c r="DY16" s="25"/>
     </row>
     <row r="17" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DY17" s="104"/>
+      <c r="DY17" s="25"/>
     </row>
     <row r="18" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DY18" s="104"/>
+      <c r="DY18" s="25"/>
     </row>
     <row r="19" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY19" s="104"/>
+      <c r="DY19" s="25"/>
     </row>
     <row r="20" spans="4:129" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DY20" s="104"/>
+      <c r="DY20" s="25"/>
     </row>
     <row r="21" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DY21" s="104"/>
+      <c r="DY21" s="25"/>
     </row>
     <row r="22" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY22" s="104"/>
+      <c r="DY22" s="25"/>
     </row>
     <row r="23" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="DY23" s="104"/>
+      <c r="DY23" s="25"/>
     </row>
     <row r="24" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D24" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DY24" s="104"/>
+      <c r="D24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY24" s="25"/>
     </row>
     <row r="25" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY25" s="104"/>
+      <c r="DY25" s="25"/>
     </row>
     <row r="26" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="DY26" s="104"/>
+      <c r="DY26" s="25"/>
     </row>
     <row r="27" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="DY27" s="104"/>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY27" s="25"/>
     </row>
     <row r="28" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY28" s="104"/>
+      <c r="DY28" s="25"/>
     </row>
     <row r="29" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="DY29" s="104"/>
+      <c r="DY29" s="25"/>
     </row>
     <row r="30" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="40" t="s">
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="40" t="s">
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="41"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="41"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="40" t="s">
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="BD30" s="41"/>
-      <c r="BE30" s="41"/>
-      <c r="BF30" s="41"/>
-      <c r="BG30" s="41"/>
-      <c r="BH30" s="41"/>
-      <c r="BI30" s="41"/>
-      <c r="BJ30" s="41"/>
-      <c r="BK30" s="41"/>
-      <c r="BL30" s="41"/>
-      <c r="BM30" s="41"/>
-      <c r="BN30" s="41"/>
-      <c r="BO30" s="41"/>
-      <c r="BP30" s="41"/>
-      <c r="BQ30" s="41"/>
-      <c r="BR30" s="41"/>
-      <c r="BS30" s="41"/>
-      <c r="BT30" s="41"/>
-      <c r="BU30" s="42"/>
-      <c r="BV30" s="40" t="s">
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
+      <c r="BP30" s="53"/>
+      <c r="BQ30" s="53"/>
+      <c r="BR30" s="53"/>
+      <c r="BS30" s="53"/>
+      <c r="BT30" s="53"/>
+      <c r="BU30" s="54"/>
+      <c r="BV30" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="BW30" s="41"/>
-      <c r="BX30" s="41"/>
-      <c r="BY30" s="41"/>
-      <c r="BZ30" s="41"/>
-      <c r="CA30" s="41"/>
-      <c r="CB30" s="41"/>
-      <c r="CC30" s="41"/>
-      <c r="CD30" s="41"/>
-      <c r="CE30" s="41"/>
-      <c r="CF30" s="42"/>
-      <c r="CG30" s="40" t="s">
+      <c r="BW30" s="53"/>
+      <c r="BX30" s="53"/>
+      <c r="BY30" s="53"/>
+      <c r="BZ30" s="53"/>
+      <c r="CA30" s="53"/>
+      <c r="CB30" s="53"/>
+      <c r="CC30" s="53"/>
+      <c r="CD30" s="53"/>
+      <c r="CE30" s="53"/>
+      <c r="CF30" s="54"/>
+      <c r="CG30" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH30" s="41"/>
-      <c r="CI30" s="41"/>
-      <c r="CJ30" s="41"/>
-      <c r="CK30" s="41"/>
-      <c r="CL30" s="41"/>
-      <c r="CM30" s="41"/>
-      <c r="CN30" s="41"/>
-      <c r="CO30" s="41"/>
-      <c r="CP30" s="41"/>
-      <c r="CQ30" s="41"/>
-      <c r="CR30" s="41"/>
-      <c r="CS30" s="42"/>
-      <c r="CT30" s="40" t="s">
+      <c r="CH30" s="53"/>
+      <c r="CI30" s="53"/>
+      <c r="CJ30" s="53"/>
+      <c r="CK30" s="53"/>
+      <c r="CL30" s="53"/>
+      <c r="CM30" s="53"/>
+      <c r="CN30" s="53"/>
+      <c r="CO30" s="53"/>
+      <c r="CP30" s="53"/>
+      <c r="CQ30" s="53"/>
+      <c r="CR30" s="53"/>
+      <c r="CS30" s="54"/>
+      <c r="CT30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="CU30" s="41"/>
-      <c r="CV30" s="41"/>
-      <c r="CW30" s="41"/>
-      <c r="CX30" s="41"/>
-      <c r="CY30" s="41"/>
-      <c r="CZ30" s="41"/>
-      <c r="DA30" s="41"/>
-      <c r="DB30" s="41"/>
-      <c r="DC30" s="41"/>
-      <c r="DD30" s="41"/>
-      <c r="DE30" s="41"/>
-      <c r="DF30" s="41"/>
-      <c r="DG30" s="41"/>
-      <c r="DH30" s="41"/>
-      <c r="DI30" s="41"/>
-      <c r="DJ30" s="41"/>
-      <c r="DK30" s="41"/>
-      <c r="DL30" s="41"/>
-      <c r="DM30" s="41"/>
-      <c r="DN30" s="41"/>
-      <c r="DO30" s="41"/>
-      <c r="DP30" s="41"/>
-      <c r="DQ30" s="41"/>
-      <c r="DR30" s="41"/>
-      <c r="DS30" s="41"/>
-      <c r="DT30" s="41"/>
-      <c r="DU30" s="42"/>
-      <c r="DY30" s="104"/>
+      <c r="CU30" s="53"/>
+      <c r="CV30" s="53"/>
+      <c r="CW30" s="53"/>
+      <c r="CX30" s="53"/>
+      <c r="CY30" s="53"/>
+      <c r="CZ30" s="53"/>
+      <c r="DA30" s="53"/>
+      <c r="DB30" s="53"/>
+      <c r="DC30" s="53"/>
+      <c r="DD30" s="53"/>
+      <c r="DE30" s="53"/>
+      <c r="DF30" s="53"/>
+      <c r="DG30" s="53"/>
+      <c r="DH30" s="53"/>
+      <c r="DI30" s="53"/>
+      <c r="DJ30" s="53"/>
+      <c r="DK30" s="53"/>
+      <c r="DL30" s="53"/>
+      <c r="DM30" s="53"/>
+      <c r="DN30" s="53"/>
+      <c r="DO30" s="53"/>
+      <c r="DP30" s="53"/>
+      <c r="DQ30" s="53"/>
+      <c r="DR30" s="53"/>
+      <c r="DS30" s="53"/>
+      <c r="DT30" s="53"/>
+      <c r="DU30" s="54"/>
+      <c r="DY30" s="25"/>
     </row>
     <row r="31" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="43" t="s">
         <v>47</v>
       </c>
@@ -6607,43 +6694,43 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="45"/>
-      <c r="AO31" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="102"/>
-      <c r="AT31" s="102"/>
-      <c r="AU31" s="102"/>
-      <c r="AV31" s="102"/>
-      <c r="AW31" s="102"/>
-      <c r="AX31" s="102"/>
-      <c r="AY31" s="102"/>
-      <c r="AZ31" s="102"/>
-      <c r="BA31" s="102"/>
-      <c r="BB31" s="103"/>
-      <c r="BC31" s="73" t="s">
+      <c r="AO31" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="BD31" s="74"/>
-      <c r="BE31" s="74"/>
-      <c r="BF31" s="74"/>
-      <c r="BG31" s="74"/>
-      <c r="BH31" s="74"/>
-      <c r="BI31" s="74"/>
-      <c r="BJ31" s="74"/>
-      <c r="BK31" s="74"/>
-      <c r="BL31" s="74"/>
-      <c r="BM31" s="74"/>
-      <c r="BN31" s="74"/>
-      <c r="BO31" s="74"/>
-      <c r="BP31" s="74"/>
-      <c r="BQ31" s="74"/>
-      <c r="BR31" s="74"/>
-      <c r="BS31" s="74"/>
-      <c r="BT31" s="74"/>
-      <c r="BU31" s="75"/>
+      <c r="BD31" s="59"/>
+      <c r="BE31" s="59"/>
+      <c r="BF31" s="59"/>
+      <c r="BG31" s="59"/>
+      <c r="BH31" s="59"/>
+      <c r="BI31" s="59"/>
+      <c r="BJ31" s="59"/>
+      <c r="BK31" s="59"/>
+      <c r="BL31" s="59"/>
+      <c r="BM31" s="59"/>
+      <c r="BN31" s="59"/>
+      <c r="BO31" s="59"/>
+      <c r="BP31" s="59"/>
+      <c r="BQ31" s="59"/>
+      <c r="BR31" s="59"/>
+      <c r="BS31" s="59"/>
+      <c r="BT31" s="59"/>
+      <c r="BU31" s="60"/>
       <c r="BV31" s="43" t="s">
         <v>122</v>
       </c>
@@ -6702,20 +6789,20 @@
       <c r="DS31" s="44"/>
       <c r="DT31" s="44"/>
       <c r="DU31" s="45"/>
-      <c r="DY31" s="104"/>
+      <c r="DY31" s="25"/>
     </row>
     <row r="32" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
       <c r="Q32" s="43" t="s">
         <v>50</v>
       </c>
@@ -6837,7 +6924,7 @@
       <c r="DS32" s="44"/>
       <c r="DT32" s="44"/>
       <c r="DU32" s="45"/>
-      <c r="DY32" s="104"/>
+      <c r="DY32" s="25"/>
     </row>
     <row r="33" spans="5:129" x14ac:dyDescent="0.15">
       <c r="E33" s="3"/>
@@ -6928,18 +7015,18 @@
       <c r="DJ33" s="3"/>
       <c r="DK33" s="3"/>
       <c r="DL33" s="3"/>
-      <c r="DY33" s="104"/>
+      <c r="DY33" s="25"/>
     </row>
     <row r="34" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="DY34" s="104"/>
+      <c r="DY34" s="25"/>
     </row>
     <row r="35" spans="5:129" x14ac:dyDescent="0.15">
       <c r="F35" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
@@ -6951,219 +7038,219 @@
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
       <c r="P35" s="64"/>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56" t="s">
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56" t="s">
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
-      <c r="BP35" s="56"/>
-      <c r="BQ35" s="56"/>
-      <c r="BR35" s="56"/>
-      <c r="BS35" s="56"/>
-      <c r="BT35" s="56"/>
-      <c r="BU35" s="56"/>
-      <c r="BV35" s="56" t="s">
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="64"/>
+      <c r="BO35" s="64"/>
+      <c r="BP35" s="64"/>
+      <c r="BQ35" s="64"/>
+      <c r="BR35" s="64"/>
+      <c r="BS35" s="64"/>
+      <c r="BT35" s="64"/>
+      <c r="BU35" s="64"/>
+      <c r="BV35" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BW35" s="56"/>
-      <c r="BX35" s="56"/>
-      <c r="BY35" s="56"/>
-      <c r="BZ35" s="56"/>
-      <c r="CA35" s="56"/>
-      <c r="CB35" s="56"/>
-      <c r="CC35" s="56"/>
-      <c r="CD35" s="56"/>
-      <c r="CE35" s="56"/>
-      <c r="CF35" s="56"/>
-      <c r="CG35" s="40" t="s">
+      <c r="BW35" s="64"/>
+      <c r="BX35" s="64"/>
+      <c r="BY35" s="64"/>
+      <c r="BZ35" s="64"/>
+      <c r="CA35" s="64"/>
+      <c r="CB35" s="64"/>
+      <c r="CC35" s="64"/>
+      <c r="CD35" s="64"/>
+      <c r="CE35" s="64"/>
+      <c r="CF35" s="64"/>
+      <c r="CG35" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH35" s="41"/>
-      <c r="CI35" s="41"/>
-      <c r="CJ35" s="41"/>
-      <c r="CK35" s="41"/>
-      <c r="CL35" s="41"/>
-      <c r="CM35" s="41"/>
-      <c r="CN35" s="41"/>
-      <c r="CO35" s="41"/>
-      <c r="CP35" s="41"/>
-      <c r="CQ35" s="41"/>
-      <c r="CR35" s="41"/>
-      <c r="CS35" s="42"/>
-      <c r="CT35" s="56" t="s">
+      <c r="CH35" s="53"/>
+      <c r="CI35" s="53"/>
+      <c r="CJ35" s="53"/>
+      <c r="CK35" s="53"/>
+      <c r="CL35" s="53"/>
+      <c r="CM35" s="53"/>
+      <c r="CN35" s="53"/>
+      <c r="CO35" s="53"/>
+      <c r="CP35" s="53"/>
+      <c r="CQ35" s="53"/>
+      <c r="CR35" s="53"/>
+      <c r="CS35" s="54"/>
+      <c r="CT35" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="CU35" s="56"/>
-      <c r="CV35" s="56"/>
-      <c r="CW35" s="56"/>
-      <c r="CX35" s="56"/>
-      <c r="CY35" s="56"/>
-      <c r="CZ35" s="56"/>
-      <c r="DA35" s="56"/>
-      <c r="DB35" s="56"/>
-      <c r="DC35" s="56"/>
-      <c r="DD35" s="56"/>
-      <c r="DE35" s="56"/>
-      <c r="DF35" s="56"/>
-      <c r="DG35" s="56"/>
-      <c r="DH35" s="56"/>
-      <c r="DI35" s="56"/>
-      <c r="DJ35" s="56"/>
-      <c r="DK35" s="56"/>
-      <c r="DL35" s="56"/>
-      <c r="DM35" s="56"/>
-      <c r="DN35" s="56"/>
-      <c r="DO35" s="56"/>
-      <c r="DP35" s="56"/>
-      <c r="DQ35" s="56"/>
-      <c r="DR35" s="56"/>
-      <c r="DS35" s="56"/>
-      <c r="DT35" s="56"/>
-      <c r="DU35" s="56"/>
-      <c r="DY35" s="104"/>
+      <c r="CU35" s="64"/>
+      <c r="CV35" s="64"/>
+      <c r="CW35" s="64"/>
+      <c r="CX35" s="64"/>
+      <c r="CY35" s="64"/>
+      <c r="CZ35" s="64"/>
+      <c r="DA35" s="64"/>
+      <c r="DB35" s="64"/>
+      <c r="DC35" s="64"/>
+      <c r="DD35" s="64"/>
+      <c r="DE35" s="64"/>
+      <c r="DF35" s="64"/>
+      <c r="DG35" s="64"/>
+      <c r="DH35" s="64"/>
+      <c r="DI35" s="64"/>
+      <c r="DJ35" s="64"/>
+      <c r="DK35" s="64"/>
+      <c r="DL35" s="64"/>
+      <c r="DM35" s="64"/>
+      <c r="DN35" s="64"/>
+      <c r="DO35" s="64"/>
+      <c r="DP35" s="64"/>
+      <c r="DQ35" s="64"/>
+      <c r="DR35" s="64"/>
+      <c r="DS35" s="64"/>
+      <c r="DT35" s="64"/>
+      <c r="DU35" s="64"/>
+      <c r="DY35" s="25"/>
     </row>
     <row r="36" spans="5:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="57" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="62"/>
-      <c r="BB36" s="62"/>
-      <c r="BC36" s="62" t="s">
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP36" s="89"/>
+      <c r="AQ36" s="89"/>
+      <c r="AR36" s="89"/>
+      <c r="AS36" s="89"/>
+      <c r="AT36" s="89"/>
+      <c r="AU36" s="89"/>
+      <c r="AV36" s="89"/>
+      <c r="AW36" s="89"/>
+      <c r="AX36" s="89"/>
+      <c r="AY36" s="89"/>
+      <c r="AZ36" s="89"/>
+      <c r="BA36" s="89"/>
+      <c r="BB36" s="89"/>
+      <c r="BC36" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="BD36" s="62"/>
-      <c r="BE36" s="62"/>
-      <c r="BF36" s="62"/>
-      <c r="BG36" s="62"/>
-      <c r="BH36" s="62"/>
-      <c r="BI36" s="62"/>
-      <c r="BJ36" s="62"/>
-      <c r="BK36" s="62"/>
-      <c r="BL36" s="62"/>
-      <c r="BM36" s="62"/>
-      <c r="BN36" s="62"/>
-      <c r="BO36" s="62"/>
-      <c r="BP36" s="62"/>
-      <c r="BQ36" s="62"/>
-      <c r="BR36" s="62"/>
-      <c r="BS36" s="62"/>
-      <c r="BT36" s="62"/>
-      <c r="BU36" s="62"/>
-      <c r="BV36" s="57" t="s">
+      <c r="BD36" s="89"/>
+      <c r="BE36" s="89"/>
+      <c r="BF36" s="89"/>
+      <c r="BG36" s="89"/>
+      <c r="BH36" s="89"/>
+      <c r="BI36" s="89"/>
+      <c r="BJ36" s="89"/>
+      <c r="BK36" s="89"/>
+      <c r="BL36" s="89"/>
+      <c r="BM36" s="89"/>
+      <c r="BN36" s="89"/>
+      <c r="BO36" s="89"/>
+      <c r="BP36" s="89"/>
+      <c r="BQ36" s="89"/>
+      <c r="BR36" s="89"/>
+      <c r="BS36" s="89"/>
+      <c r="BT36" s="89"/>
+      <c r="BU36" s="89"/>
+      <c r="BV36" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW36" s="57"/>
-      <c r="BX36" s="57"/>
-      <c r="BY36" s="57"/>
-      <c r="BZ36" s="57"/>
-      <c r="CA36" s="57"/>
-      <c r="CB36" s="57"/>
-      <c r="CC36" s="57"/>
-      <c r="CD36" s="57"/>
-      <c r="CE36" s="57"/>
-      <c r="CF36" s="57"/>
+      <c r="BW36" s="65"/>
+      <c r="BX36" s="65"/>
+      <c r="BY36" s="65"/>
+      <c r="BZ36" s="65"/>
+      <c r="CA36" s="65"/>
+      <c r="CB36" s="65"/>
+      <c r="CC36" s="65"/>
+      <c r="CD36" s="65"/>
+      <c r="CE36" s="65"/>
+      <c r="CF36" s="65"/>
       <c r="CG36" s="43" t="s">
         <v>133</v>
       </c>
@@ -7209,96 +7296,96 @@
       <c r="DS36" s="44"/>
       <c r="DT36" s="44"/>
       <c r="DU36" s="45"/>
-      <c r="DY36" s="104"/>
+      <c r="DY36" s="25"/>
     </row>
     <row r="37" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="57" t="s">
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="57"/>
-      <c r="AN37" s="57"/>
-      <c r="AO37" s="57" t="s">
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="57"/>
-      <c r="AV37" s="57"/>
-      <c r="AW37" s="57"/>
-      <c r="AX37" s="57"/>
-      <c r="AY37" s="57"/>
-      <c r="AZ37" s="57"/>
-      <c r="BA37" s="57"/>
-      <c r="BB37" s="57"/>
-      <c r="BC37" s="57" t="s">
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="65"/>
+      <c r="BC37" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="BD37" s="57"/>
-      <c r="BE37" s="57"/>
-      <c r="BF37" s="57"/>
-      <c r="BG37" s="57"/>
-      <c r="BH37" s="57"/>
-      <c r="BI37" s="57"/>
-      <c r="BJ37" s="57"/>
-      <c r="BK37" s="57"/>
-      <c r="BL37" s="57"/>
-      <c r="BM37" s="57"/>
-      <c r="BN37" s="57"/>
-      <c r="BO37" s="57"/>
-      <c r="BP37" s="57"/>
-      <c r="BQ37" s="57"/>
-      <c r="BR37" s="57"/>
-      <c r="BS37" s="57"/>
-      <c r="BT37" s="57"/>
-      <c r="BU37" s="57"/>
-      <c r="BV37" s="57" t="s">
+      <c r="BD37" s="65"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="65"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="65"/>
+      <c r="BI37" s="65"/>
+      <c r="BJ37" s="65"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="65"/>
+      <c r="BP37" s="65"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
+      <c r="BS37" s="65"/>
+      <c r="BT37" s="65"/>
+      <c r="BU37" s="65"/>
+      <c r="BV37" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="BW37" s="57"/>
-      <c r="BX37" s="57"/>
-      <c r="BY37" s="57"/>
-      <c r="BZ37" s="57"/>
-      <c r="CA37" s="57"/>
-      <c r="CB37" s="57"/>
-      <c r="CC37" s="57"/>
-      <c r="CD37" s="57"/>
-      <c r="CE37" s="57"/>
-      <c r="CF37" s="57"/>
+      <c r="BW37" s="65"/>
+      <c r="BX37" s="65"/>
+      <c r="BY37" s="65"/>
+      <c r="BZ37" s="65"/>
+      <c r="CA37" s="65"/>
+      <c r="CB37" s="65"/>
+      <c r="CC37" s="65"/>
+      <c r="CD37" s="65"/>
+      <c r="CE37" s="65"/>
+      <c r="CF37" s="65"/>
       <c r="CG37" s="43" t="s">
         <v>133</v>
       </c>
@@ -7314,51 +7401,50 @@
       <c r="CQ37" s="44"/>
       <c r="CR37" s="44"/>
       <c r="CS37" s="45"/>
-      <c r="CT37" s="57" t="s">
+      <c r="CT37" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="CU37" s="57"/>
-      <c r="CV37" s="57"/>
-      <c r="CW37" s="57"/>
-      <c r="CX37" s="57"/>
-      <c r="CY37" s="57"/>
-      <c r="CZ37" s="57"/>
-      <c r="DA37" s="57"/>
-      <c r="DB37" s="57"/>
-      <c r="DC37" s="57"/>
-      <c r="DD37" s="57"/>
-      <c r="DE37" s="57"/>
-      <c r="DF37" s="57"/>
-      <c r="DG37" s="57"/>
-      <c r="DH37" s="57"/>
-      <c r="DI37" s="57"/>
-      <c r="DJ37" s="57"/>
-      <c r="DK37" s="57"/>
-      <c r="DL37" s="57"/>
-      <c r="DM37" s="57"/>
-      <c r="DN37" s="57"/>
-      <c r="DO37" s="57"/>
-      <c r="DP37" s="57"/>
-      <c r="DQ37" s="57"/>
-      <c r="DR37" s="57"/>
-      <c r="DS37" s="57"/>
-      <c r="DT37" s="57"/>
-      <c r="DU37" s="57"/>
-      <c r="DY37" s="104"/>
+      <c r="CU37" s="65"/>
+      <c r="CV37" s="65"/>
+      <c r="CW37" s="65"/>
+      <c r="CX37" s="65"/>
+      <c r="CY37" s="65"/>
+      <c r="CZ37" s="65"/>
+      <c r="DA37" s="65"/>
+      <c r="DB37" s="65"/>
+      <c r="DC37" s="65"/>
+      <c r="DD37" s="65"/>
+      <c r="DE37" s="65"/>
+      <c r="DF37" s="65"/>
+      <c r="DG37" s="65"/>
+      <c r="DH37" s="65"/>
+      <c r="DI37" s="65"/>
+      <c r="DJ37" s="65"/>
+      <c r="DK37" s="65"/>
+      <c r="DL37" s="65"/>
+      <c r="DM37" s="65"/>
+      <c r="DN37" s="65"/>
+      <c r="DO37" s="65"/>
+      <c r="DP37" s="65"/>
+      <c r="DQ37" s="65"/>
+      <c r="DR37" s="65"/>
+      <c r="DS37" s="65"/>
+      <c r="DT37" s="65"/>
+      <c r="DU37" s="65"/>
+      <c r="DY37" s="25"/>
     </row>
     <row r="38" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY38" s="104"/>
+      <c r="DY38" s="25"/>
     </row>
     <row r="39" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="DY39" s="104"/>
+      <c r="DY39" s="25"/>
     </row>
     <row r="40" spans="5:129" x14ac:dyDescent="0.15">
       <c r="F40" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
@@ -7370,219 +7456,219 @@
       <c r="N40" s="64"/>
       <c r="O40" s="64"/>
       <c r="P40" s="64"/>
-      <c r="Q40" s="56" t="s">
+      <c r="Q40" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="56"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="56"/>
-      <c r="AO40" s="56" t="s">
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="64"/>
+      <c r="AK40" s="64"/>
+      <c r="AL40" s="64"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AP40" s="56"/>
-      <c r="AQ40" s="56"/>
-      <c r="AR40" s="56"/>
-      <c r="AS40" s="56"/>
-      <c r="AT40" s="56"/>
-      <c r="AU40" s="56"/>
-      <c r="AV40" s="56"/>
-      <c r="AW40" s="56"/>
-      <c r="AX40" s="56"/>
-      <c r="AY40" s="56"/>
-      <c r="AZ40" s="56"/>
-      <c r="BA40" s="56"/>
-      <c r="BB40" s="56"/>
-      <c r="BC40" s="56" t="s">
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="64"/>
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="64"/>
+      <c r="AV40" s="64"/>
+      <c r="AW40" s="64"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="64"/>
+      <c r="AZ40" s="64"/>
+      <c r="BA40" s="64"/>
+      <c r="BB40" s="64"/>
+      <c r="BC40" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BD40" s="56"/>
-      <c r="BE40" s="56"/>
-      <c r="BF40" s="56"/>
-      <c r="BG40" s="56"/>
-      <c r="BH40" s="56"/>
-      <c r="BI40" s="56"/>
-      <c r="BJ40" s="56"/>
-      <c r="BK40" s="56"/>
-      <c r="BL40" s="56"/>
-      <c r="BM40" s="56"/>
-      <c r="BN40" s="56"/>
-      <c r="BO40" s="56"/>
-      <c r="BP40" s="56"/>
-      <c r="BQ40" s="56"/>
-      <c r="BR40" s="56"/>
-      <c r="BS40" s="56"/>
-      <c r="BT40" s="56"/>
-      <c r="BU40" s="56"/>
-      <c r="BV40" s="56" t="s">
+      <c r="BD40" s="64"/>
+      <c r="BE40" s="64"/>
+      <c r="BF40" s="64"/>
+      <c r="BG40" s="64"/>
+      <c r="BH40" s="64"/>
+      <c r="BI40" s="64"/>
+      <c r="BJ40" s="64"/>
+      <c r="BK40" s="64"/>
+      <c r="BL40" s="64"/>
+      <c r="BM40" s="64"/>
+      <c r="BN40" s="64"/>
+      <c r="BO40" s="64"/>
+      <c r="BP40" s="64"/>
+      <c r="BQ40" s="64"/>
+      <c r="BR40" s="64"/>
+      <c r="BS40" s="64"/>
+      <c r="BT40" s="64"/>
+      <c r="BU40" s="64"/>
+      <c r="BV40" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BW40" s="56"/>
-      <c r="BX40" s="56"/>
-      <c r="BY40" s="56"/>
-      <c r="BZ40" s="56"/>
-      <c r="CA40" s="56"/>
-      <c r="CB40" s="56"/>
-      <c r="CC40" s="56"/>
-      <c r="CD40" s="56"/>
-      <c r="CE40" s="56"/>
-      <c r="CF40" s="56"/>
-      <c r="CG40" s="40" t="s">
+      <c r="BW40" s="64"/>
+      <c r="BX40" s="64"/>
+      <c r="BY40" s="64"/>
+      <c r="BZ40" s="64"/>
+      <c r="CA40" s="64"/>
+      <c r="CB40" s="64"/>
+      <c r="CC40" s="64"/>
+      <c r="CD40" s="64"/>
+      <c r="CE40" s="64"/>
+      <c r="CF40" s="64"/>
+      <c r="CG40" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH40" s="41"/>
-      <c r="CI40" s="41"/>
-      <c r="CJ40" s="41"/>
-      <c r="CK40" s="41"/>
-      <c r="CL40" s="41"/>
-      <c r="CM40" s="41"/>
-      <c r="CN40" s="41"/>
-      <c r="CO40" s="41"/>
-      <c r="CP40" s="41"/>
-      <c r="CQ40" s="41"/>
-      <c r="CR40" s="41"/>
-      <c r="CS40" s="42"/>
-      <c r="CT40" s="56" t="s">
+      <c r="CH40" s="53"/>
+      <c r="CI40" s="53"/>
+      <c r="CJ40" s="53"/>
+      <c r="CK40" s="53"/>
+      <c r="CL40" s="53"/>
+      <c r="CM40" s="53"/>
+      <c r="CN40" s="53"/>
+      <c r="CO40" s="53"/>
+      <c r="CP40" s="53"/>
+      <c r="CQ40" s="53"/>
+      <c r="CR40" s="53"/>
+      <c r="CS40" s="54"/>
+      <c r="CT40" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="CU40" s="56"/>
-      <c r="CV40" s="56"/>
-      <c r="CW40" s="56"/>
-      <c r="CX40" s="56"/>
-      <c r="CY40" s="56"/>
-      <c r="CZ40" s="56"/>
-      <c r="DA40" s="56"/>
-      <c r="DB40" s="56"/>
-      <c r="DC40" s="56"/>
-      <c r="DD40" s="56"/>
-      <c r="DE40" s="56"/>
-      <c r="DF40" s="56"/>
-      <c r="DG40" s="56"/>
-      <c r="DH40" s="56"/>
-      <c r="DI40" s="56"/>
-      <c r="DJ40" s="56"/>
-      <c r="DK40" s="56"/>
-      <c r="DL40" s="56"/>
-      <c r="DM40" s="56"/>
-      <c r="DN40" s="56"/>
-      <c r="DO40" s="56"/>
-      <c r="DP40" s="56"/>
-      <c r="DQ40" s="56"/>
-      <c r="DR40" s="56"/>
-      <c r="DS40" s="56"/>
-      <c r="DT40" s="56"/>
-      <c r="DU40" s="56"/>
-      <c r="DY40" s="104"/>
+      <c r="CU40" s="64"/>
+      <c r="CV40" s="64"/>
+      <c r="CW40" s="64"/>
+      <c r="CX40" s="64"/>
+      <c r="CY40" s="64"/>
+      <c r="CZ40" s="64"/>
+      <c r="DA40" s="64"/>
+      <c r="DB40" s="64"/>
+      <c r="DC40" s="64"/>
+      <c r="DD40" s="64"/>
+      <c r="DE40" s="64"/>
+      <c r="DF40" s="64"/>
+      <c r="DG40" s="64"/>
+      <c r="DH40" s="64"/>
+      <c r="DI40" s="64"/>
+      <c r="DJ40" s="64"/>
+      <c r="DK40" s="64"/>
+      <c r="DL40" s="64"/>
+      <c r="DM40" s="64"/>
+      <c r="DN40" s="64"/>
+      <c r="DO40" s="64"/>
+      <c r="DP40" s="64"/>
+      <c r="DQ40" s="64"/>
+      <c r="DR40" s="64"/>
+      <c r="DS40" s="64"/>
+      <c r="DT40" s="64"/>
+      <c r="DU40" s="64"/>
+      <c r="DY40" s="25"/>
     </row>
     <row r="41" spans="5:129" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="57" t="s">
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="57"/>
-      <c r="AI41" s="57"/>
-      <c r="AJ41" s="57"/>
-      <c r="AK41" s="57"/>
-      <c r="AL41" s="57"/>
-      <c r="AM41" s="57"/>
-      <c r="AN41" s="57"/>
-      <c r="AO41" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP41" s="62"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="62"/>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="62"/>
-      <c r="BA41" s="62"/>
-      <c r="BB41" s="62"/>
-      <c r="BC41" s="57" t="s">
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP41" s="89"/>
+      <c r="AQ41" s="89"/>
+      <c r="AR41" s="89"/>
+      <c r="AS41" s="89"/>
+      <c r="AT41" s="89"/>
+      <c r="AU41" s="89"/>
+      <c r="AV41" s="89"/>
+      <c r="AW41" s="89"/>
+      <c r="AX41" s="89"/>
+      <c r="AY41" s="89"/>
+      <c r="AZ41" s="89"/>
+      <c r="BA41" s="89"/>
+      <c r="BB41" s="89"/>
+      <c r="BC41" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="BD41" s="57"/>
-      <c r="BE41" s="57"/>
-      <c r="BF41" s="57"/>
-      <c r="BG41" s="57"/>
-      <c r="BH41" s="57"/>
-      <c r="BI41" s="57"/>
-      <c r="BJ41" s="57"/>
-      <c r="BK41" s="57"/>
-      <c r="BL41" s="57"/>
-      <c r="BM41" s="57"/>
-      <c r="BN41" s="57"/>
-      <c r="BO41" s="57"/>
-      <c r="BP41" s="57"/>
-      <c r="BQ41" s="57"/>
-      <c r="BR41" s="57"/>
-      <c r="BS41" s="57"/>
-      <c r="BT41" s="57"/>
-      <c r="BU41" s="57"/>
-      <c r="BV41" s="57" t="s">
+      <c r="BD41" s="65"/>
+      <c r="BE41" s="65"/>
+      <c r="BF41" s="65"/>
+      <c r="BG41" s="65"/>
+      <c r="BH41" s="65"/>
+      <c r="BI41" s="65"/>
+      <c r="BJ41" s="65"/>
+      <c r="BK41" s="65"/>
+      <c r="BL41" s="65"/>
+      <c r="BM41" s="65"/>
+      <c r="BN41" s="65"/>
+      <c r="BO41" s="65"/>
+      <c r="BP41" s="65"/>
+      <c r="BQ41" s="65"/>
+      <c r="BR41" s="65"/>
+      <c r="BS41" s="65"/>
+      <c r="BT41" s="65"/>
+      <c r="BU41" s="65"/>
+      <c r="BV41" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW41" s="57"/>
-      <c r="BX41" s="57"/>
-      <c r="BY41" s="57"/>
-      <c r="BZ41" s="57"/>
-      <c r="CA41" s="57"/>
-      <c r="CB41" s="57"/>
-      <c r="CC41" s="57"/>
-      <c r="CD41" s="57"/>
-      <c r="CE41" s="57"/>
-      <c r="CF41" s="57"/>
+      <c r="BW41" s="65"/>
+      <c r="BX41" s="65"/>
+      <c r="BY41" s="65"/>
+      <c r="BZ41" s="65"/>
+      <c r="CA41" s="65"/>
+      <c r="CB41" s="65"/>
+      <c r="CC41" s="65"/>
+      <c r="CD41" s="65"/>
+      <c r="CE41" s="65"/>
+      <c r="CF41" s="65"/>
       <c r="CG41" s="43" t="s">
         <v>133</v>
       </c>
@@ -7598,37 +7684,37 @@
       <c r="CQ41" s="44"/>
       <c r="CR41" s="44"/>
       <c r="CS41" s="45"/>
-      <c r="CT41" s="57" t="s">
+      <c r="CT41" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="CU41" s="57"/>
-      <c r="CV41" s="57"/>
-      <c r="CW41" s="57"/>
-      <c r="CX41" s="57"/>
-      <c r="CY41" s="57"/>
-      <c r="CZ41" s="57"/>
-      <c r="DA41" s="57"/>
-      <c r="DB41" s="57"/>
-      <c r="DC41" s="57"/>
-      <c r="DD41" s="57"/>
-      <c r="DE41" s="57"/>
-      <c r="DF41" s="57"/>
-      <c r="DG41" s="57"/>
-      <c r="DH41" s="57"/>
-      <c r="DI41" s="57"/>
-      <c r="DJ41" s="57"/>
-      <c r="DK41" s="57"/>
-      <c r="DL41" s="57"/>
-      <c r="DM41" s="57"/>
-      <c r="DN41" s="57"/>
-      <c r="DO41" s="57"/>
-      <c r="DP41" s="57"/>
-      <c r="DQ41" s="57"/>
-      <c r="DR41" s="57"/>
-      <c r="DS41" s="57"/>
-      <c r="DT41" s="57"/>
-      <c r="DU41" s="57"/>
-      <c r="DY41" s="104"/>
+      <c r="CU41" s="65"/>
+      <c r="CV41" s="65"/>
+      <c r="CW41" s="65"/>
+      <c r="CX41" s="65"/>
+      <c r="CY41" s="65"/>
+      <c r="CZ41" s="65"/>
+      <c r="DA41" s="65"/>
+      <c r="DB41" s="65"/>
+      <c r="DC41" s="65"/>
+      <c r="DD41" s="65"/>
+      <c r="DE41" s="65"/>
+      <c r="DF41" s="65"/>
+      <c r="DG41" s="65"/>
+      <c r="DH41" s="65"/>
+      <c r="DI41" s="65"/>
+      <c r="DJ41" s="65"/>
+      <c r="DK41" s="65"/>
+      <c r="DL41" s="65"/>
+      <c r="DM41" s="65"/>
+      <c r="DN41" s="65"/>
+      <c r="DO41" s="65"/>
+      <c r="DP41" s="65"/>
+      <c r="DQ41" s="65"/>
+      <c r="DR41" s="65"/>
+      <c r="DS41" s="65"/>
+      <c r="DT41" s="65"/>
+      <c r="DU41" s="65"/>
+      <c r="DY41" s="25"/>
     </row>
     <row r="42" spans="5:129" x14ac:dyDescent="0.15">
       <c r="E42" s="4"/>
@@ -7695,13 +7781,13 @@
       <c r="DJ42" s="4"/>
       <c r="DK42" s="4"/>
       <c r="DL42" s="4"/>
-      <c r="DY42" s="104"/>
+      <c r="DY42" s="25"/>
     </row>
     <row r="43" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -7788,11 +7874,11 @@
       <c r="DJ43" s="4"/>
       <c r="DK43" s="4"/>
       <c r="DL43" s="4"/>
-      <c r="DY43" s="104"/>
+      <c r="DY43" s="25"/>
     </row>
     <row r="44" spans="5:129" x14ac:dyDescent="0.15">
       <c r="F44" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
@@ -7804,219 +7890,219 @@
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
       <c r="P44" s="64"/>
-      <c r="Q44" s="56" t="s">
+      <c r="Q44" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="56"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="56"/>
-      <c r="AL44" s="56"/>
-      <c r="AM44" s="56"/>
-      <c r="AN44" s="56"/>
-      <c r="AO44" s="56" t="s">
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="64"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="64"/>
+      <c r="AK44" s="64"/>
+      <c r="AL44" s="64"/>
+      <c r="AM44" s="64"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AP44" s="56"/>
-      <c r="AQ44" s="56"/>
-      <c r="AR44" s="56"/>
-      <c r="AS44" s="56"/>
-      <c r="AT44" s="56"/>
-      <c r="AU44" s="56"/>
-      <c r="AV44" s="56"/>
-      <c r="AW44" s="56"/>
-      <c r="AX44" s="56"/>
-      <c r="AY44" s="56"/>
-      <c r="AZ44" s="56"/>
-      <c r="BA44" s="56"/>
-      <c r="BB44" s="56"/>
-      <c r="BC44" s="56" t="s">
+      <c r="AP44" s="64"/>
+      <c r="AQ44" s="64"/>
+      <c r="AR44" s="64"/>
+      <c r="AS44" s="64"/>
+      <c r="AT44" s="64"/>
+      <c r="AU44" s="64"/>
+      <c r="AV44" s="64"/>
+      <c r="AW44" s="64"/>
+      <c r="AX44" s="64"/>
+      <c r="AY44" s="64"/>
+      <c r="AZ44" s="64"/>
+      <c r="BA44" s="64"/>
+      <c r="BB44" s="64"/>
+      <c r="BC44" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BD44" s="56"/>
-      <c r="BE44" s="56"/>
-      <c r="BF44" s="56"/>
-      <c r="BG44" s="56"/>
-      <c r="BH44" s="56"/>
-      <c r="BI44" s="56"/>
-      <c r="BJ44" s="56"/>
-      <c r="BK44" s="56"/>
-      <c r="BL44" s="56"/>
-      <c r="BM44" s="56"/>
-      <c r="BN44" s="56"/>
-      <c r="BO44" s="56"/>
-      <c r="BP44" s="56"/>
-      <c r="BQ44" s="56"/>
-      <c r="BR44" s="56"/>
-      <c r="BS44" s="56"/>
-      <c r="BT44" s="56"/>
-      <c r="BU44" s="56"/>
-      <c r="BV44" s="56" t="s">
+      <c r="BD44" s="64"/>
+      <c r="BE44" s="64"/>
+      <c r="BF44" s="64"/>
+      <c r="BG44" s="64"/>
+      <c r="BH44" s="64"/>
+      <c r="BI44" s="64"/>
+      <c r="BJ44" s="64"/>
+      <c r="BK44" s="64"/>
+      <c r="BL44" s="64"/>
+      <c r="BM44" s="64"/>
+      <c r="BN44" s="64"/>
+      <c r="BO44" s="64"/>
+      <c r="BP44" s="64"/>
+      <c r="BQ44" s="64"/>
+      <c r="BR44" s="64"/>
+      <c r="BS44" s="64"/>
+      <c r="BT44" s="64"/>
+      <c r="BU44" s="64"/>
+      <c r="BV44" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BW44" s="56"/>
-      <c r="BX44" s="56"/>
-      <c r="BY44" s="56"/>
-      <c r="BZ44" s="56"/>
-      <c r="CA44" s="56"/>
-      <c r="CB44" s="56"/>
-      <c r="CC44" s="56"/>
-      <c r="CD44" s="56"/>
-      <c r="CE44" s="56"/>
-      <c r="CF44" s="56"/>
-      <c r="CG44" s="40" t="s">
+      <c r="BW44" s="64"/>
+      <c r="BX44" s="64"/>
+      <c r="BY44" s="64"/>
+      <c r="BZ44" s="64"/>
+      <c r="CA44" s="64"/>
+      <c r="CB44" s="64"/>
+      <c r="CC44" s="64"/>
+      <c r="CD44" s="64"/>
+      <c r="CE44" s="64"/>
+      <c r="CF44" s="64"/>
+      <c r="CG44" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH44" s="41"/>
-      <c r="CI44" s="41"/>
-      <c r="CJ44" s="41"/>
-      <c r="CK44" s="41"/>
-      <c r="CL44" s="41"/>
-      <c r="CM44" s="41"/>
-      <c r="CN44" s="41"/>
-      <c r="CO44" s="41"/>
-      <c r="CP44" s="41"/>
-      <c r="CQ44" s="41"/>
-      <c r="CR44" s="41"/>
-      <c r="CS44" s="42"/>
-      <c r="CT44" s="56" t="s">
+      <c r="CH44" s="53"/>
+      <c r="CI44" s="53"/>
+      <c r="CJ44" s="53"/>
+      <c r="CK44" s="53"/>
+      <c r="CL44" s="53"/>
+      <c r="CM44" s="53"/>
+      <c r="CN44" s="53"/>
+      <c r="CO44" s="53"/>
+      <c r="CP44" s="53"/>
+      <c r="CQ44" s="53"/>
+      <c r="CR44" s="53"/>
+      <c r="CS44" s="54"/>
+      <c r="CT44" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="CU44" s="56"/>
-      <c r="CV44" s="56"/>
-      <c r="CW44" s="56"/>
-      <c r="CX44" s="56"/>
-      <c r="CY44" s="56"/>
-      <c r="CZ44" s="56"/>
-      <c r="DA44" s="56"/>
-      <c r="DB44" s="56"/>
-      <c r="DC44" s="56"/>
-      <c r="DD44" s="56"/>
-      <c r="DE44" s="56"/>
-      <c r="DF44" s="56"/>
-      <c r="DG44" s="56"/>
-      <c r="DH44" s="56"/>
-      <c r="DI44" s="56"/>
-      <c r="DJ44" s="56"/>
-      <c r="DK44" s="56"/>
-      <c r="DL44" s="56"/>
-      <c r="DM44" s="56"/>
-      <c r="DN44" s="56"/>
-      <c r="DO44" s="56"/>
-      <c r="DP44" s="56"/>
-      <c r="DQ44" s="56"/>
-      <c r="DR44" s="56"/>
-      <c r="DS44" s="56"/>
-      <c r="DT44" s="56"/>
-      <c r="DU44" s="56"/>
-      <c r="DY44" s="104"/>
+      <c r="CU44" s="64"/>
+      <c r="CV44" s="64"/>
+      <c r="CW44" s="64"/>
+      <c r="CX44" s="64"/>
+      <c r="CY44" s="64"/>
+      <c r="CZ44" s="64"/>
+      <c r="DA44" s="64"/>
+      <c r="DB44" s="64"/>
+      <c r="DC44" s="64"/>
+      <c r="DD44" s="64"/>
+      <c r="DE44" s="64"/>
+      <c r="DF44" s="64"/>
+      <c r="DG44" s="64"/>
+      <c r="DH44" s="64"/>
+      <c r="DI44" s="64"/>
+      <c r="DJ44" s="64"/>
+      <c r="DK44" s="64"/>
+      <c r="DL44" s="64"/>
+      <c r="DM44" s="64"/>
+      <c r="DN44" s="64"/>
+      <c r="DO44" s="64"/>
+      <c r="DP44" s="64"/>
+      <c r="DQ44" s="64"/>
+      <c r="DR44" s="64"/>
+      <c r="DS44" s="64"/>
+      <c r="DT44" s="64"/>
+      <c r="DU44" s="64"/>
+      <c r="DY44" s="25"/>
     </row>
     <row r="45" spans="5:129" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="62" t="s">
+      <c r="F45" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="57" t="s">
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-      <c r="AC45" s="57"/>
-      <c r="AD45" s="57"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
-      <c r="AG45" s="57"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="57"/>
-      <c r="AK45" s="57"/>
-      <c r="AL45" s="57"/>
-      <c r="AM45" s="57"/>
-      <c r="AN45" s="57"/>
-      <c r="AO45" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
-      <c r="BA45" s="62"/>
-      <c r="BB45" s="62"/>
-      <c r="BC45" s="46" t="s">
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP45" s="89"/>
+      <c r="AQ45" s="89"/>
+      <c r="AR45" s="89"/>
+      <c r="AS45" s="89"/>
+      <c r="AT45" s="89"/>
+      <c r="AU45" s="89"/>
+      <c r="AV45" s="89"/>
+      <c r="AW45" s="89"/>
+      <c r="AX45" s="89"/>
+      <c r="AY45" s="89"/>
+      <c r="AZ45" s="89"/>
+      <c r="BA45" s="89"/>
+      <c r="BB45" s="89"/>
+      <c r="BC45" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="BD45" s="57"/>
-      <c r="BE45" s="57"/>
-      <c r="BF45" s="57"/>
-      <c r="BG45" s="57"/>
-      <c r="BH45" s="57"/>
-      <c r="BI45" s="57"/>
-      <c r="BJ45" s="57"/>
-      <c r="BK45" s="57"/>
-      <c r="BL45" s="57"/>
-      <c r="BM45" s="57"/>
-      <c r="BN45" s="57"/>
-      <c r="BO45" s="57"/>
-      <c r="BP45" s="57"/>
-      <c r="BQ45" s="57"/>
-      <c r="BR45" s="57"/>
-      <c r="BS45" s="57"/>
-      <c r="BT45" s="57"/>
-      <c r="BU45" s="57"/>
-      <c r="BV45" s="57" t="s">
+      <c r="BD45" s="65"/>
+      <c r="BE45" s="65"/>
+      <c r="BF45" s="65"/>
+      <c r="BG45" s="65"/>
+      <c r="BH45" s="65"/>
+      <c r="BI45" s="65"/>
+      <c r="BJ45" s="65"/>
+      <c r="BK45" s="65"/>
+      <c r="BL45" s="65"/>
+      <c r="BM45" s="65"/>
+      <c r="BN45" s="65"/>
+      <c r="BO45" s="65"/>
+      <c r="BP45" s="65"/>
+      <c r="BQ45" s="65"/>
+      <c r="BR45" s="65"/>
+      <c r="BS45" s="65"/>
+      <c r="BT45" s="65"/>
+      <c r="BU45" s="65"/>
+      <c r="BV45" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="BW45" s="57"/>
-      <c r="BX45" s="57"/>
-      <c r="BY45" s="57"/>
-      <c r="BZ45" s="57"/>
-      <c r="CA45" s="57"/>
-      <c r="CB45" s="57"/>
-      <c r="CC45" s="57"/>
-      <c r="CD45" s="57"/>
-      <c r="CE45" s="57"/>
-      <c r="CF45" s="57"/>
+      <c r="BW45" s="65"/>
+      <c r="BX45" s="65"/>
+      <c r="BY45" s="65"/>
+      <c r="BZ45" s="65"/>
+      <c r="CA45" s="65"/>
+      <c r="CB45" s="65"/>
+      <c r="CC45" s="65"/>
+      <c r="CD45" s="65"/>
+      <c r="CE45" s="65"/>
+      <c r="CF45" s="65"/>
       <c r="CG45" s="43" t="s">
         <v>133</v>
       </c>
@@ -8032,65 +8118,65 @@
       <c r="CQ45" s="44"/>
       <c r="CR45" s="44"/>
       <c r="CS45" s="45"/>
-      <c r="CT45" s="46" t="s">
+      <c r="CT45" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="CU45" s="46"/>
-      <c r="CV45" s="46"/>
-      <c r="CW45" s="46"/>
-      <c r="CX45" s="46"/>
-      <c r="CY45" s="46"/>
-      <c r="CZ45" s="46"/>
-      <c r="DA45" s="46"/>
-      <c r="DB45" s="46"/>
-      <c r="DC45" s="46"/>
-      <c r="DD45" s="46"/>
-      <c r="DE45" s="46"/>
-      <c r="DF45" s="46"/>
-      <c r="DG45" s="46"/>
-      <c r="DH45" s="46"/>
-      <c r="DI45" s="46"/>
-      <c r="DJ45" s="46"/>
-      <c r="DK45" s="46"/>
-      <c r="DL45" s="46"/>
-      <c r="DM45" s="46"/>
-      <c r="DN45" s="46"/>
-      <c r="DO45" s="46"/>
-      <c r="DP45" s="46"/>
-      <c r="DQ45" s="46"/>
-      <c r="DR45" s="46"/>
-      <c r="DS45" s="46"/>
-      <c r="DT45" s="46"/>
-      <c r="DU45" s="46"/>
-      <c r="DY45" s="104"/>
+      <c r="CU45" s="90"/>
+      <c r="CV45" s="90"/>
+      <c r="CW45" s="90"/>
+      <c r="CX45" s="90"/>
+      <c r="CY45" s="90"/>
+      <c r="CZ45" s="90"/>
+      <c r="DA45" s="90"/>
+      <c r="DB45" s="90"/>
+      <c r="DC45" s="90"/>
+      <c r="DD45" s="90"/>
+      <c r="DE45" s="90"/>
+      <c r="DF45" s="90"/>
+      <c r="DG45" s="90"/>
+      <c r="DH45" s="90"/>
+      <c r="DI45" s="90"/>
+      <c r="DJ45" s="90"/>
+      <c r="DK45" s="90"/>
+      <c r="DL45" s="90"/>
+      <c r="DM45" s="90"/>
+      <c r="DN45" s="90"/>
+      <c r="DO45" s="90"/>
+      <c r="DP45" s="90"/>
+      <c r="DQ45" s="90"/>
+      <c r="DR45" s="90"/>
+      <c r="DS45" s="90"/>
+      <c r="DT45" s="90"/>
+      <c r="DU45" s="90"/>
+      <c r="DY45" s="25"/>
     </row>
     <row r="46" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY46" s="104"/>
+      <c r="DY46" s="25"/>
     </row>
     <row r="47" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="DY47" s="104"/>
+      <c r="DY47" s="25"/>
     </row>
     <row r="48" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E48" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="DY48" s="104"/>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DY48" s="25"/>
     </row>
     <row r="49" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY49" s="104"/>
+      <c r="DY49" s="25"/>
     </row>
     <row r="50" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="DY50" s="104"/>
+      <c r="DY50" s="25"/>
     </row>
     <row r="51" spans="5:129" x14ac:dyDescent="0.15">
       <c r="F51" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="64"/>
       <c r="H51" s="64"/>
@@ -8102,219 +8188,219 @@
       <c r="N51" s="64"/>
       <c r="O51" s="64"/>
       <c r="P51" s="64"/>
-      <c r="Q51" s="56" t="s">
+      <c r="Q51" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-      <c r="AH51" s="56"/>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="56"/>
-      <c r="AM51" s="56"/>
-      <c r="AN51" s="56"/>
-      <c r="AO51" s="56" t="s">
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="64"/>
+      <c r="AL51" s="64"/>
+      <c r="AM51" s="64"/>
+      <c r="AN51" s="64"/>
+      <c r="AO51" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AP51" s="56"/>
-      <c r="AQ51" s="56"/>
-      <c r="AR51" s="56"/>
-      <c r="AS51" s="56"/>
-      <c r="AT51" s="56"/>
-      <c r="AU51" s="56"/>
-      <c r="AV51" s="56"/>
-      <c r="AW51" s="56"/>
-      <c r="AX51" s="56"/>
-      <c r="AY51" s="56"/>
-      <c r="AZ51" s="56"/>
-      <c r="BA51" s="56"/>
-      <c r="BB51" s="56"/>
-      <c r="BC51" s="56" t="s">
+      <c r="AP51" s="64"/>
+      <c r="AQ51" s="64"/>
+      <c r="AR51" s="64"/>
+      <c r="AS51" s="64"/>
+      <c r="AT51" s="64"/>
+      <c r="AU51" s="64"/>
+      <c r="AV51" s="64"/>
+      <c r="AW51" s="64"/>
+      <c r="AX51" s="64"/>
+      <c r="AY51" s="64"/>
+      <c r="AZ51" s="64"/>
+      <c r="BA51" s="64"/>
+      <c r="BB51" s="64"/>
+      <c r="BC51" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BD51" s="56"/>
-      <c r="BE51" s="56"/>
-      <c r="BF51" s="56"/>
-      <c r="BG51" s="56"/>
-      <c r="BH51" s="56"/>
-      <c r="BI51" s="56"/>
-      <c r="BJ51" s="56"/>
-      <c r="BK51" s="56"/>
-      <c r="BL51" s="56"/>
-      <c r="BM51" s="56"/>
-      <c r="BN51" s="56"/>
-      <c r="BO51" s="56"/>
-      <c r="BP51" s="56"/>
-      <c r="BQ51" s="56"/>
-      <c r="BR51" s="56"/>
-      <c r="BS51" s="56"/>
-      <c r="BT51" s="56"/>
-      <c r="BU51" s="56"/>
-      <c r="BV51" s="56" t="s">
+      <c r="BD51" s="64"/>
+      <c r="BE51" s="64"/>
+      <c r="BF51" s="64"/>
+      <c r="BG51" s="64"/>
+      <c r="BH51" s="64"/>
+      <c r="BI51" s="64"/>
+      <c r="BJ51" s="64"/>
+      <c r="BK51" s="64"/>
+      <c r="BL51" s="64"/>
+      <c r="BM51" s="64"/>
+      <c r="BN51" s="64"/>
+      <c r="BO51" s="64"/>
+      <c r="BP51" s="64"/>
+      <c r="BQ51" s="64"/>
+      <c r="BR51" s="64"/>
+      <c r="BS51" s="64"/>
+      <c r="BT51" s="64"/>
+      <c r="BU51" s="64"/>
+      <c r="BV51" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BW51" s="56"/>
-      <c r="BX51" s="56"/>
-      <c r="BY51" s="56"/>
-      <c r="BZ51" s="56"/>
-      <c r="CA51" s="56"/>
-      <c r="CB51" s="56"/>
-      <c r="CC51" s="56"/>
-      <c r="CD51" s="56"/>
-      <c r="CE51" s="56"/>
-      <c r="CF51" s="56"/>
-      <c r="CG51" s="40" t="s">
+      <c r="BW51" s="64"/>
+      <c r="BX51" s="64"/>
+      <c r="BY51" s="64"/>
+      <c r="BZ51" s="64"/>
+      <c r="CA51" s="64"/>
+      <c r="CB51" s="64"/>
+      <c r="CC51" s="64"/>
+      <c r="CD51" s="64"/>
+      <c r="CE51" s="64"/>
+      <c r="CF51" s="64"/>
+      <c r="CG51" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH51" s="41"/>
-      <c r="CI51" s="41"/>
-      <c r="CJ51" s="41"/>
-      <c r="CK51" s="41"/>
-      <c r="CL51" s="41"/>
-      <c r="CM51" s="41"/>
-      <c r="CN51" s="41"/>
-      <c r="CO51" s="41"/>
-      <c r="CP51" s="41"/>
-      <c r="CQ51" s="41"/>
-      <c r="CR51" s="41"/>
-      <c r="CS51" s="42"/>
-      <c r="CT51" s="56" t="s">
+      <c r="CH51" s="53"/>
+      <c r="CI51" s="53"/>
+      <c r="CJ51" s="53"/>
+      <c r="CK51" s="53"/>
+      <c r="CL51" s="53"/>
+      <c r="CM51" s="53"/>
+      <c r="CN51" s="53"/>
+      <c r="CO51" s="53"/>
+      <c r="CP51" s="53"/>
+      <c r="CQ51" s="53"/>
+      <c r="CR51" s="53"/>
+      <c r="CS51" s="54"/>
+      <c r="CT51" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="CU51" s="56"/>
-      <c r="CV51" s="56"/>
-      <c r="CW51" s="56"/>
-      <c r="CX51" s="56"/>
-      <c r="CY51" s="56"/>
-      <c r="CZ51" s="56"/>
-      <c r="DA51" s="56"/>
-      <c r="DB51" s="56"/>
-      <c r="DC51" s="56"/>
-      <c r="DD51" s="56"/>
-      <c r="DE51" s="56"/>
-      <c r="DF51" s="56"/>
-      <c r="DG51" s="56"/>
-      <c r="DH51" s="56"/>
-      <c r="DI51" s="56"/>
-      <c r="DJ51" s="56"/>
-      <c r="DK51" s="56"/>
-      <c r="DL51" s="56"/>
-      <c r="DM51" s="56"/>
-      <c r="DN51" s="56"/>
-      <c r="DO51" s="56"/>
-      <c r="DP51" s="56"/>
-      <c r="DQ51" s="56"/>
-      <c r="DR51" s="56"/>
-      <c r="DS51" s="56"/>
-      <c r="DT51" s="56"/>
-      <c r="DU51" s="56"/>
-      <c r="DY51" s="104"/>
+      <c r="CU51" s="64"/>
+      <c r="CV51" s="64"/>
+      <c r="CW51" s="64"/>
+      <c r="CX51" s="64"/>
+      <c r="CY51" s="64"/>
+      <c r="CZ51" s="64"/>
+      <c r="DA51" s="64"/>
+      <c r="DB51" s="64"/>
+      <c r="DC51" s="64"/>
+      <c r="DD51" s="64"/>
+      <c r="DE51" s="64"/>
+      <c r="DF51" s="64"/>
+      <c r="DG51" s="64"/>
+      <c r="DH51" s="64"/>
+      <c r="DI51" s="64"/>
+      <c r="DJ51" s="64"/>
+      <c r="DK51" s="64"/>
+      <c r="DL51" s="64"/>
+      <c r="DM51" s="64"/>
+      <c r="DN51" s="64"/>
+      <c r="DO51" s="64"/>
+      <c r="DP51" s="64"/>
+      <c r="DQ51" s="64"/>
+      <c r="DR51" s="64"/>
+      <c r="DS51" s="64"/>
+      <c r="DT51" s="64"/>
+      <c r="DU51" s="64"/>
+      <c r="DY51" s="25"/>
     </row>
     <row r="52" spans="5:129" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57" t="s">
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP52" s="62"/>
-      <c r="AQ52" s="62"/>
-      <c r="AR52" s="62"/>
-      <c r="AS52" s="62"/>
-      <c r="AT52" s="62"/>
-      <c r="AU52" s="62"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="62"/>
-      <c r="AX52" s="62"/>
-      <c r="AY52" s="62"/>
-      <c r="AZ52" s="62"/>
-      <c r="BA52" s="62"/>
-      <c r="BB52" s="62"/>
-      <c r="BC52" s="62" t="s">
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="65"/>
+      <c r="AC52" s="65"/>
+      <c r="AD52" s="65"/>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="65"/>
+      <c r="AG52" s="65"/>
+      <c r="AH52" s="65"/>
+      <c r="AI52" s="65"/>
+      <c r="AJ52" s="65"/>
+      <c r="AK52" s="65"/>
+      <c r="AL52" s="65"/>
+      <c r="AM52" s="65"/>
+      <c r="AN52" s="65"/>
+      <c r="AO52" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP52" s="89"/>
+      <c r="AQ52" s="89"/>
+      <c r="AR52" s="89"/>
+      <c r="AS52" s="89"/>
+      <c r="AT52" s="89"/>
+      <c r="AU52" s="89"/>
+      <c r="AV52" s="89"/>
+      <c r="AW52" s="89"/>
+      <c r="AX52" s="89"/>
+      <c r="AY52" s="89"/>
+      <c r="AZ52" s="89"/>
+      <c r="BA52" s="89"/>
+      <c r="BB52" s="89"/>
+      <c r="BC52" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="BD52" s="62"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="62"/>
-      <c r="BG52" s="62"/>
-      <c r="BH52" s="62"/>
-      <c r="BI52" s="62"/>
-      <c r="BJ52" s="62"/>
-      <c r="BK52" s="62"/>
-      <c r="BL52" s="62"/>
-      <c r="BM52" s="62"/>
-      <c r="BN52" s="62"/>
-      <c r="BO52" s="62"/>
-      <c r="BP52" s="62"/>
-      <c r="BQ52" s="62"/>
-      <c r="BR52" s="62"/>
-      <c r="BS52" s="62"/>
-      <c r="BT52" s="62"/>
-      <c r="BU52" s="62"/>
-      <c r="BV52" s="57" t="s">
+      <c r="BD52" s="89"/>
+      <c r="BE52" s="89"/>
+      <c r="BF52" s="89"/>
+      <c r="BG52" s="89"/>
+      <c r="BH52" s="89"/>
+      <c r="BI52" s="89"/>
+      <c r="BJ52" s="89"/>
+      <c r="BK52" s="89"/>
+      <c r="BL52" s="89"/>
+      <c r="BM52" s="89"/>
+      <c r="BN52" s="89"/>
+      <c r="BO52" s="89"/>
+      <c r="BP52" s="89"/>
+      <c r="BQ52" s="89"/>
+      <c r="BR52" s="89"/>
+      <c r="BS52" s="89"/>
+      <c r="BT52" s="89"/>
+      <c r="BU52" s="89"/>
+      <c r="BV52" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW52" s="57"/>
-      <c r="BX52" s="57"/>
-      <c r="BY52" s="57"/>
-      <c r="BZ52" s="57"/>
-      <c r="CA52" s="57"/>
-      <c r="CB52" s="57"/>
-      <c r="CC52" s="57"/>
-      <c r="CD52" s="57"/>
-      <c r="CE52" s="57"/>
-      <c r="CF52" s="57"/>
+      <c r="BW52" s="65"/>
+      <c r="BX52" s="65"/>
+      <c r="BY52" s="65"/>
+      <c r="BZ52" s="65"/>
+      <c r="CA52" s="65"/>
+      <c r="CB52" s="65"/>
+      <c r="CC52" s="65"/>
+      <c r="CD52" s="65"/>
+      <c r="CE52" s="65"/>
+      <c r="CF52" s="65"/>
       <c r="CG52" s="43" t="s">
         <v>133</v>
       </c>
@@ -8330,92 +8416,92 @@
       <c r="CQ52" s="44"/>
       <c r="CR52" s="44"/>
       <c r="CS52" s="45"/>
-      <c r="CT52" s="57" t="s">
+      <c r="CT52" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="CU52" s="57"/>
-      <c r="CV52" s="57"/>
-      <c r="CW52" s="57"/>
-      <c r="CX52" s="57"/>
-      <c r="CY52" s="57"/>
-      <c r="CZ52" s="57"/>
-      <c r="DA52" s="57"/>
-      <c r="DB52" s="57"/>
-      <c r="DC52" s="57"/>
-      <c r="DD52" s="57"/>
-      <c r="DE52" s="57"/>
-      <c r="DF52" s="57"/>
-      <c r="DG52" s="57"/>
-      <c r="DH52" s="57"/>
-      <c r="DI52" s="57"/>
-      <c r="DJ52" s="57"/>
-      <c r="DK52" s="57"/>
-      <c r="DL52" s="57"/>
-      <c r="DM52" s="57"/>
-      <c r="DN52" s="57"/>
-      <c r="DO52" s="57"/>
-      <c r="DP52" s="57"/>
-      <c r="DQ52" s="57"/>
-      <c r="DR52" s="57"/>
-      <c r="DS52" s="57"/>
-      <c r="DT52" s="57"/>
-      <c r="DU52" s="57"/>
-      <c r="DY52" s="104"/>
+      <c r="CU52" s="65"/>
+      <c r="CV52" s="65"/>
+      <c r="CW52" s="65"/>
+      <c r="CX52" s="65"/>
+      <c r="CY52" s="65"/>
+      <c r="CZ52" s="65"/>
+      <c r="DA52" s="65"/>
+      <c r="DB52" s="65"/>
+      <c r="DC52" s="65"/>
+      <c r="DD52" s="65"/>
+      <c r="DE52" s="65"/>
+      <c r="DF52" s="65"/>
+      <c r="DG52" s="65"/>
+      <c r="DH52" s="65"/>
+      <c r="DI52" s="65"/>
+      <c r="DJ52" s="65"/>
+      <c r="DK52" s="65"/>
+      <c r="DL52" s="65"/>
+      <c r="DM52" s="65"/>
+      <c r="DN52" s="65"/>
+      <c r="DO52" s="65"/>
+      <c r="DP52" s="65"/>
+      <c r="DQ52" s="65"/>
+      <c r="DR52" s="65"/>
+      <c r="DS52" s="65"/>
+      <c r="DT52" s="65"/>
+      <c r="DU52" s="65"/>
+      <c r="DY52" s="25"/>
     </row>
     <row r="53" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-      <c r="AD53" s="57"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="57"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="57"/>
-      <c r="AL53" s="57"/>
-      <c r="AM53" s="57"/>
-      <c r="AN53" s="57"/>
-      <c r="AO53" s="62" t="s">
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="65"/>
+      <c r="AC53" s="65"/>
+      <c r="AD53" s="65"/>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="65"/>
+      <c r="AG53" s="65"/>
+      <c r="AH53" s="65"/>
+      <c r="AI53" s="65"/>
+      <c r="AJ53" s="65"/>
+      <c r="AK53" s="65"/>
+      <c r="AL53" s="65"/>
+      <c r="AM53" s="65"/>
+      <c r="AN53" s="65"/>
+      <c r="AO53" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="AP53" s="62"/>
-      <c r="AQ53" s="62"/>
-      <c r="AR53" s="62"/>
-      <c r="AS53" s="62"/>
-      <c r="AT53" s="62"/>
-      <c r="AU53" s="62"/>
-      <c r="AV53" s="62"/>
-      <c r="AW53" s="62"/>
-      <c r="AX53" s="62"/>
-      <c r="AY53" s="62"/>
-      <c r="AZ53" s="62"/>
-      <c r="BA53" s="62"/>
-      <c r="BB53" s="62"/>
+      <c r="AP53" s="89"/>
+      <c r="AQ53" s="89"/>
+      <c r="AR53" s="89"/>
+      <c r="AS53" s="89"/>
+      <c r="AT53" s="89"/>
+      <c r="AU53" s="89"/>
+      <c r="AV53" s="89"/>
+      <c r="AW53" s="89"/>
+      <c r="AX53" s="89"/>
+      <c r="AY53" s="89"/>
+      <c r="AZ53" s="89"/>
+      <c r="BA53" s="89"/>
+      <c r="BB53" s="89"/>
       <c r="BC53" s="43" t="s">
         <v>64</v>
       </c>
@@ -8437,154 +8523,154 @@
       <c r="BS53" s="44"/>
       <c r="BT53" s="44"/>
       <c r="BU53" s="45"/>
-      <c r="BV53" s="57" t="s">
+      <c r="BV53" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW53" s="57"/>
-      <c r="BX53" s="57"/>
-      <c r="BY53" s="57"/>
-      <c r="BZ53" s="57"/>
-      <c r="CA53" s="57"/>
-      <c r="CB53" s="57"/>
-      <c r="CC53" s="57"/>
-      <c r="CD53" s="57"/>
-      <c r="CE53" s="57"/>
-      <c r="CF53" s="57"/>
-      <c r="CG53" s="73" t="s">
+      <c r="BW53" s="65"/>
+      <c r="BX53" s="65"/>
+      <c r="BY53" s="65"/>
+      <c r="BZ53" s="65"/>
+      <c r="CA53" s="65"/>
+      <c r="CB53" s="65"/>
+      <c r="CC53" s="65"/>
+      <c r="CD53" s="65"/>
+      <c r="CE53" s="65"/>
+      <c r="CF53" s="65"/>
+      <c r="CG53" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="CH53" s="74"/>
-      <c r="CI53" s="74"/>
-      <c r="CJ53" s="74"/>
-      <c r="CK53" s="74"/>
-      <c r="CL53" s="74"/>
-      <c r="CM53" s="74"/>
-      <c r="CN53" s="74"/>
-      <c r="CO53" s="74"/>
-      <c r="CP53" s="74"/>
-      <c r="CQ53" s="74"/>
-      <c r="CR53" s="74"/>
-      <c r="CS53" s="75"/>
-      <c r="CT53" s="57" t="s">
+      <c r="CH53" s="59"/>
+      <c r="CI53" s="59"/>
+      <c r="CJ53" s="59"/>
+      <c r="CK53" s="59"/>
+      <c r="CL53" s="59"/>
+      <c r="CM53" s="59"/>
+      <c r="CN53" s="59"/>
+      <c r="CO53" s="59"/>
+      <c r="CP53" s="59"/>
+      <c r="CQ53" s="59"/>
+      <c r="CR53" s="59"/>
+      <c r="CS53" s="60"/>
+      <c r="CT53" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="CU53" s="57"/>
-      <c r="CV53" s="57"/>
-      <c r="CW53" s="57"/>
-      <c r="CX53" s="57"/>
-      <c r="CY53" s="57"/>
-      <c r="CZ53" s="57"/>
-      <c r="DA53" s="57"/>
-      <c r="DB53" s="57"/>
-      <c r="DC53" s="57"/>
-      <c r="DD53" s="57"/>
-      <c r="DE53" s="57"/>
-      <c r="DF53" s="57"/>
-      <c r="DG53" s="57"/>
-      <c r="DH53" s="57"/>
-      <c r="DI53" s="57"/>
-      <c r="DJ53" s="57"/>
-      <c r="DK53" s="57"/>
-      <c r="DL53" s="57"/>
-      <c r="DM53" s="57"/>
-      <c r="DN53" s="57"/>
-      <c r="DO53" s="57"/>
-      <c r="DP53" s="57"/>
-      <c r="DQ53" s="57"/>
-      <c r="DR53" s="57"/>
-      <c r="DS53" s="57"/>
-      <c r="DT53" s="57"/>
-      <c r="DU53" s="57"/>
-      <c r="DY53" s="104"/>
+      <c r="CU53" s="65"/>
+      <c r="CV53" s="65"/>
+      <c r="CW53" s="65"/>
+      <c r="CX53" s="65"/>
+      <c r="CY53" s="65"/>
+      <c r="CZ53" s="65"/>
+      <c r="DA53" s="65"/>
+      <c r="DB53" s="65"/>
+      <c r="DC53" s="65"/>
+      <c r="DD53" s="65"/>
+      <c r="DE53" s="65"/>
+      <c r="DF53" s="65"/>
+      <c r="DG53" s="65"/>
+      <c r="DH53" s="65"/>
+      <c r="DI53" s="65"/>
+      <c r="DJ53" s="65"/>
+      <c r="DK53" s="65"/>
+      <c r="DL53" s="65"/>
+      <c r="DM53" s="65"/>
+      <c r="DN53" s="65"/>
+      <c r="DO53" s="65"/>
+      <c r="DP53" s="65"/>
+      <c r="DQ53" s="65"/>
+      <c r="DR53" s="65"/>
+      <c r="DS53" s="65"/>
+      <c r="DT53" s="65"/>
+      <c r="DU53" s="65"/>
+      <c r="DY53" s="25"/>
     </row>
     <row r="54" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="57"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="57"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="57"/>
-      <c r="AI54" s="57"/>
-      <c r="AJ54" s="57"/>
-      <c r="AK54" s="57"/>
-      <c r="AL54" s="57"/>
-      <c r="AM54" s="57"/>
-      <c r="AN54" s="57"/>
-      <c r="AO54" s="62" t="s">
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
+      <c r="AB54" s="65"/>
+      <c r="AC54" s="65"/>
+      <c r="AD54" s="65"/>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="65"/>
+      <c r="AG54" s="65"/>
+      <c r="AH54" s="65"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="65"/>
+      <c r="AK54" s="65"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="65"/>
+      <c r="AN54" s="65"/>
+      <c r="AO54" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="62"/>
-      <c r="AQ54" s="62"/>
-      <c r="AR54" s="62"/>
-      <c r="AS54" s="62"/>
-      <c r="AT54" s="62"/>
-      <c r="AU54" s="62"/>
-      <c r="AV54" s="62"/>
-      <c r="AW54" s="62"/>
-      <c r="AX54" s="62"/>
-      <c r="AY54" s="62"/>
-      <c r="AZ54" s="62"/>
-      <c r="BA54" s="62"/>
-      <c r="BB54" s="62"/>
-      <c r="BC54" s="57" t="s">
+      <c r="AP54" s="89"/>
+      <c r="AQ54" s="89"/>
+      <c r="AR54" s="89"/>
+      <c r="AS54" s="89"/>
+      <c r="AT54" s="89"/>
+      <c r="AU54" s="89"/>
+      <c r="AV54" s="89"/>
+      <c r="AW54" s="89"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="89"/>
+      <c r="AZ54" s="89"/>
+      <c r="BA54" s="89"/>
+      <c r="BB54" s="89"/>
+      <c r="BC54" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="BD54" s="57"/>
-      <c r="BE54" s="57"/>
-      <c r="BF54" s="57"/>
-      <c r="BG54" s="57"/>
-      <c r="BH54" s="57"/>
-      <c r="BI54" s="57"/>
-      <c r="BJ54" s="57"/>
-      <c r="BK54" s="57"/>
-      <c r="BL54" s="57"/>
-      <c r="BM54" s="57"/>
-      <c r="BN54" s="57"/>
-      <c r="BO54" s="57"/>
-      <c r="BP54" s="57"/>
-      <c r="BQ54" s="57"/>
-      <c r="BR54" s="57"/>
-      <c r="BS54" s="57"/>
-      <c r="BT54" s="57"/>
-      <c r="BU54" s="57"/>
-      <c r="BV54" s="57" t="s">
+      <c r="BD54" s="65"/>
+      <c r="BE54" s="65"/>
+      <c r="BF54" s="65"/>
+      <c r="BG54" s="65"/>
+      <c r="BH54" s="65"/>
+      <c r="BI54" s="65"/>
+      <c r="BJ54" s="65"/>
+      <c r="BK54" s="65"/>
+      <c r="BL54" s="65"/>
+      <c r="BM54" s="65"/>
+      <c r="BN54" s="65"/>
+      <c r="BO54" s="65"/>
+      <c r="BP54" s="65"/>
+      <c r="BQ54" s="65"/>
+      <c r="BR54" s="65"/>
+      <c r="BS54" s="65"/>
+      <c r="BT54" s="65"/>
+      <c r="BU54" s="65"/>
+      <c r="BV54" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW54" s="57"/>
-      <c r="BX54" s="57"/>
-      <c r="BY54" s="57"/>
-      <c r="BZ54" s="57"/>
-      <c r="CA54" s="57"/>
-      <c r="CB54" s="57"/>
-      <c r="CC54" s="57"/>
-      <c r="CD54" s="57"/>
-      <c r="CE54" s="57"/>
-      <c r="CF54" s="57"/>
+      <c r="BW54" s="65"/>
+      <c r="BX54" s="65"/>
+      <c r="BY54" s="65"/>
+      <c r="BZ54" s="65"/>
+      <c r="CA54" s="65"/>
+      <c r="CB54" s="65"/>
+      <c r="CC54" s="65"/>
+      <c r="CD54" s="65"/>
+      <c r="CE54" s="65"/>
+      <c r="CF54" s="65"/>
       <c r="CG54" s="43" t="s">
         <v>160</v>
       </c>
@@ -8600,126 +8686,126 @@
       <c r="CQ54" s="44"/>
       <c r="CR54" s="44"/>
       <c r="CS54" s="45"/>
-      <c r="CT54" s="57" t="s">
+      <c r="CT54" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="CU54" s="57"/>
-      <c r="CV54" s="57"/>
-      <c r="CW54" s="57"/>
-      <c r="CX54" s="57"/>
-      <c r="CY54" s="57"/>
-      <c r="CZ54" s="57"/>
-      <c r="DA54" s="57"/>
-      <c r="DB54" s="57"/>
-      <c r="DC54" s="57"/>
-      <c r="DD54" s="57"/>
-      <c r="DE54" s="57"/>
-      <c r="DF54" s="57"/>
-      <c r="DG54" s="57"/>
-      <c r="DH54" s="57"/>
-      <c r="DI54" s="57"/>
-      <c r="DJ54" s="57"/>
-      <c r="DK54" s="57"/>
-      <c r="DL54" s="57"/>
-      <c r="DM54" s="57"/>
-      <c r="DN54" s="57"/>
-      <c r="DO54" s="57"/>
-      <c r="DP54" s="57"/>
-      <c r="DQ54" s="57"/>
-      <c r="DR54" s="57"/>
-      <c r="DS54" s="57"/>
-      <c r="DT54" s="57"/>
-      <c r="DU54" s="57"/>
-      <c r="DY54" s="104"/>
+      <c r="CU54" s="65"/>
+      <c r="CV54" s="65"/>
+      <c r="CW54" s="65"/>
+      <c r="CX54" s="65"/>
+      <c r="CY54" s="65"/>
+      <c r="CZ54" s="65"/>
+      <c r="DA54" s="65"/>
+      <c r="DB54" s="65"/>
+      <c r="DC54" s="65"/>
+      <c r="DD54" s="65"/>
+      <c r="DE54" s="65"/>
+      <c r="DF54" s="65"/>
+      <c r="DG54" s="65"/>
+      <c r="DH54" s="65"/>
+      <c r="DI54" s="65"/>
+      <c r="DJ54" s="65"/>
+      <c r="DK54" s="65"/>
+      <c r="DL54" s="65"/>
+      <c r="DM54" s="65"/>
+      <c r="DN54" s="65"/>
+      <c r="DO54" s="65"/>
+      <c r="DP54" s="65"/>
+      <c r="DQ54" s="65"/>
+      <c r="DR54" s="65"/>
+      <c r="DS54" s="65"/>
+      <c r="DT54" s="65"/>
+      <c r="DU54" s="65"/>
+      <c r="DY54" s="25"/>
     </row>
     <row r="55" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57" t="s">
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-      <c r="AC55" s="57"/>
-      <c r="AD55" s="57"/>
-      <c r="AE55" s="57"/>
-      <c r="AF55" s="57"/>
-      <c r="AG55" s="57"/>
-      <c r="AH55" s="57"/>
-      <c r="AI55" s="57"/>
-      <c r="AJ55" s="57"/>
-      <c r="AK55" s="57"/>
-      <c r="AL55" s="57"/>
-      <c r="AM55" s="57"/>
-      <c r="AN55" s="57"/>
-      <c r="AO55" s="62" t="s">
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
+      <c r="AD55" s="65"/>
+      <c r="AE55" s="65"/>
+      <c r="AF55" s="65"/>
+      <c r="AG55" s="65"/>
+      <c r="AH55" s="65"/>
+      <c r="AI55" s="65"/>
+      <c r="AJ55" s="65"/>
+      <c r="AK55" s="65"/>
+      <c r="AL55" s="65"/>
+      <c r="AM55" s="65"/>
+      <c r="AN55" s="65"/>
+      <c r="AO55" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AP55" s="62"/>
-      <c r="AQ55" s="62"/>
-      <c r="AR55" s="62"/>
-      <c r="AS55" s="62"/>
-      <c r="AT55" s="62"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="62"/>
-      <c r="AW55" s="62"/>
-      <c r="AX55" s="62"/>
-      <c r="AY55" s="62"/>
-      <c r="AZ55" s="62"/>
-      <c r="BA55" s="62"/>
-      <c r="BB55" s="62"/>
-      <c r="BC55" s="62" t="s">
+      <c r="AP55" s="89"/>
+      <c r="AQ55" s="89"/>
+      <c r="AR55" s="89"/>
+      <c r="AS55" s="89"/>
+      <c r="AT55" s="89"/>
+      <c r="AU55" s="89"/>
+      <c r="AV55" s="89"/>
+      <c r="AW55" s="89"/>
+      <c r="AX55" s="89"/>
+      <c r="AY55" s="89"/>
+      <c r="AZ55" s="89"/>
+      <c r="BA55" s="89"/>
+      <c r="BB55" s="89"/>
+      <c r="BC55" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="BD55" s="62"/>
-      <c r="BE55" s="62"/>
-      <c r="BF55" s="62"/>
-      <c r="BG55" s="62"/>
-      <c r="BH55" s="62"/>
-      <c r="BI55" s="62"/>
-      <c r="BJ55" s="62"/>
-      <c r="BK55" s="62"/>
-      <c r="BL55" s="62"/>
-      <c r="BM55" s="62"/>
-      <c r="BN55" s="62"/>
-      <c r="BO55" s="62"/>
-      <c r="BP55" s="62"/>
-      <c r="BQ55" s="62"/>
-      <c r="BR55" s="62"/>
-      <c r="BS55" s="62"/>
-      <c r="BT55" s="62"/>
-      <c r="BU55" s="62"/>
-      <c r="BV55" s="57" t="s">
+      <c r="BD55" s="89"/>
+      <c r="BE55" s="89"/>
+      <c r="BF55" s="89"/>
+      <c r="BG55" s="89"/>
+      <c r="BH55" s="89"/>
+      <c r="BI55" s="89"/>
+      <c r="BJ55" s="89"/>
+      <c r="BK55" s="89"/>
+      <c r="BL55" s="89"/>
+      <c r="BM55" s="89"/>
+      <c r="BN55" s="89"/>
+      <c r="BO55" s="89"/>
+      <c r="BP55" s="89"/>
+      <c r="BQ55" s="89"/>
+      <c r="BR55" s="89"/>
+      <c r="BS55" s="89"/>
+      <c r="BT55" s="89"/>
+      <c r="BU55" s="89"/>
+      <c r="BV55" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW55" s="57"/>
-      <c r="BX55" s="57"/>
-      <c r="BY55" s="57"/>
-      <c r="BZ55" s="57"/>
-      <c r="CA55" s="57"/>
-      <c r="CB55" s="57"/>
-      <c r="CC55" s="57"/>
-      <c r="CD55" s="57"/>
-      <c r="CE55" s="57"/>
-      <c r="CF55" s="57"/>
+      <c r="BW55" s="65"/>
+      <c r="BX55" s="65"/>
+      <c r="BY55" s="65"/>
+      <c r="BZ55" s="65"/>
+      <c r="CA55" s="65"/>
+      <c r="CB55" s="65"/>
+      <c r="CC55" s="65"/>
+      <c r="CD55" s="65"/>
+      <c r="CE55" s="65"/>
+      <c r="CF55" s="65"/>
       <c r="CG55" s="43" t="s">
         <v>160</v>
       </c>
@@ -8735,126 +8821,126 @@
       <c r="CQ55" s="44"/>
       <c r="CR55" s="44"/>
       <c r="CS55" s="45"/>
-      <c r="CT55" s="57" t="s">
+      <c r="CT55" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="CU55" s="57"/>
-      <c r="CV55" s="57"/>
-      <c r="CW55" s="57"/>
-      <c r="CX55" s="57"/>
-      <c r="CY55" s="57"/>
-      <c r="CZ55" s="57"/>
-      <c r="DA55" s="57"/>
-      <c r="DB55" s="57"/>
-      <c r="DC55" s="57"/>
-      <c r="DD55" s="57"/>
-      <c r="DE55" s="57"/>
-      <c r="DF55" s="57"/>
-      <c r="DG55" s="57"/>
-      <c r="DH55" s="57"/>
-      <c r="DI55" s="57"/>
-      <c r="DJ55" s="57"/>
-      <c r="DK55" s="57"/>
-      <c r="DL55" s="57"/>
-      <c r="DM55" s="57"/>
-      <c r="DN55" s="57"/>
-      <c r="DO55" s="57"/>
-      <c r="DP55" s="57"/>
-      <c r="DQ55" s="57"/>
-      <c r="DR55" s="57"/>
-      <c r="DS55" s="57"/>
-      <c r="DT55" s="57"/>
-      <c r="DU55" s="57"/>
-      <c r="DY55" s="104"/>
+      <c r="CU55" s="65"/>
+      <c r="CV55" s="65"/>
+      <c r="CW55" s="65"/>
+      <c r="CX55" s="65"/>
+      <c r="CY55" s="65"/>
+      <c r="CZ55" s="65"/>
+      <c r="DA55" s="65"/>
+      <c r="DB55" s="65"/>
+      <c r="DC55" s="65"/>
+      <c r="DD55" s="65"/>
+      <c r="DE55" s="65"/>
+      <c r="DF55" s="65"/>
+      <c r="DG55" s="65"/>
+      <c r="DH55" s="65"/>
+      <c r="DI55" s="65"/>
+      <c r="DJ55" s="65"/>
+      <c r="DK55" s="65"/>
+      <c r="DL55" s="65"/>
+      <c r="DM55" s="65"/>
+      <c r="DN55" s="65"/>
+      <c r="DO55" s="65"/>
+      <c r="DP55" s="65"/>
+      <c r="DQ55" s="65"/>
+      <c r="DR55" s="65"/>
+      <c r="DS55" s="65"/>
+      <c r="DT55" s="65"/>
+      <c r="DU55" s="65"/>
+      <c r="DY55" s="25"/>
     </row>
     <row r="56" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57" t="s">
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-      <c r="AC56" s="57"/>
-      <c r="AD56" s="57"/>
-      <c r="AE56" s="57"/>
-      <c r="AF56" s="57"/>
-      <c r="AG56" s="57"/>
-      <c r="AH56" s="57"/>
-      <c r="AI56" s="57"/>
-      <c r="AJ56" s="57"/>
-      <c r="AK56" s="57"/>
-      <c r="AL56" s="57"/>
-      <c r="AM56" s="57"/>
-      <c r="AN56" s="57"/>
-      <c r="AO56" s="62" t="s">
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="65"/>
+      <c r="AD56" s="65"/>
+      <c r="AE56" s="65"/>
+      <c r="AF56" s="65"/>
+      <c r="AG56" s="65"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="65"/>
+      <c r="AK56" s="65"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="65"/>
+      <c r="AN56" s="65"/>
+      <c r="AO56" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="AP56" s="62"/>
-      <c r="AQ56" s="62"/>
-      <c r="AR56" s="62"/>
-      <c r="AS56" s="62"/>
-      <c r="AT56" s="62"/>
-      <c r="AU56" s="62"/>
-      <c r="AV56" s="62"/>
-      <c r="AW56" s="62"/>
-      <c r="AX56" s="62"/>
-      <c r="AY56" s="62"/>
-      <c r="AZ56" s="62"/>
-      <c r="BA56" s="62"/>
-      <c r="BB56" s="62"/>
-      <c r="BC56" s="62" t="s">
+      <c r="AP56" s="89"/>
+      <c r="AQ56" s="89"/>
+      <c r="AR56" s="89"/>
+      <c r="AS56" s="89"/>
+      <c r="AT56" s="89"/>
+      <c r="AU56" s="89"/>
+      <c r="AV56" s="89"/>
+      <c r="AW56" s="89"/>
+      <c r="AX56" s="89"/>
+      <c r="AY56" s="89"/>
+      <c r="AZ56" s="89"/>
+      <c r="BA56" s="89"/>
+      <c r="BB56" s="89"/>
+      <c r="BC56" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="BD56" s="62"/>
-      <c r="BE56" s="62"/>
-      <c r="BF56" s="62"/>
-      <c r="BG56" s="62"/>
-      <c r="BH56" s="62"/>
-      <c r="BI56" s="62"/>
-      <c r="BJ56" s="62"/>
-      <c r="BK56" s="62"/>
-      <c r="BL56" s="62"/>
-      <c r="BM56" s="62"/>
-      <c r="BN56" s="62"/>
-      <c r="BO56" s="62"/>
-      <c r="BP56" s="62"/>
-      <c r="BQ56" s="62"/>
-      <c r="BR56" s="62"/>
-      <c r="BS56" s="62"/>
-      <c r="BT56" s="62"/>
-      <c r="BU56" s="62"/>
-      <c r="BV56" s="57" t="s">
+      <c r="BD56" s="89"/>
+      <c r="BE56" s="89"/>
+      <c r="BF56" s="89"/>
+      <c r="BG56" s="89"/>
+      <c r="BH56" s="89"/>
+      <c r="BI56" s="89"/>
+      <c r="BJ56" s="89"/>
+      <c r="BK56" s="89"/>
+      <c r="BL56" s="89"/>
+      <c r="BM56" s="89"/>
+      <c r="BN56" s="89"/>
+      <c r="BO56" s="89"/>
+      <c r="BP56" s="89"/>
+      <c r="BQ56" s="89"/>
+      <c r="BR56" s="89"/>
+      <c r="BS56" s="89"/>
+      <c r="BT56" s="89"/>
+      <c r="BU56" s="89"/>
+      <c r="BV56" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW56" s="57"/>
-      <c r="BX56" s="57"/>
-      <c r="BY56" s="57"/>
-      <c r="BZ56" s="57"/>
-      <c r="CA56" s="57"/>
-      <c r="CB56" s="57"/>
-      <c r="CC56" s="57"/>
-      <c r="CD56" s="57"/>
-      <c r="CE56" s="57"/>
-      <c r="CF56" s="57"/>
+      <c r="BW56" s="65"/>
+      <c r="BX56" s="65"/>
+      <c r="BY56" s="65"/>
+      <c r="BZ56" s="65"/>
+      <c r="CA56" s="65"/>
+      <c r="CB56" s="65"/>
+      <c r="CC56" s="65"/>
+      <c r="CD56" s="65"/>
+      <c r="CE56" s="65"/>
+      <c r="CF56" s="65"/>
       <c r="CG56" s="43" t="s">
         <v>133</v>
       </c>
@@ -8870,50 +8956,50 @@
       <c r="CQ56" s="44"/>
       <c r="CR56" s="44"/>
       <c r="CS56" s="45"/>
-      <c r="CT56" s="57" t="s">
+      <c r="CT56" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="CU56" s="57"/>
-      <c r="CV56" s="57"/>
-      <c r="CW56" s="57"/>
-      <c r="CX56" s="57"/>
-      <c r="CY56" s="57"/>
-      <c r="CZ56" s="57"/>
-      <c r="DA56" s="57"/>
-      <c r="DB56" s="57"/>
-      <c r="DC56" s="57"/>
-      <c r="DD56" s="57"/>
-      <c r="DE56" s="57"/>
-      <c r="DF56" s="57"/>
-      <c r="DG56" s="57"/>
-      <c r="DH56" s="57"/>
-      <c r="DI56" s="57"/>
-      <c r="DJ56" s="57"/>
-      <c r="DK56" s="57"/>
-      <c r="DL56" s="57"/>
-      <c r="DM56" s="57"/>
-      <c r="DN56" s="57"/>
-      <c r="DO56" s="57"/>
-      <c r="DP56" s="57"/>
-      <c r="DQ56" s="57"/>
-      <c r="DR56" s="57"/>
-      <c r="DS56" s="57"/>
-      <c r="DT56" s="57"/>
-      <c r="DU56" s="57"/>
-      <c r="DY56" s="104"/>
+      <c r="CU56" s="65"/>
+      <c r="CV56" s="65"/>
+      <c r="CW56" s="65"/>
+      <c r="CX56" s="65"/>
+      <c r="CY56" s="65"/>
+      <c r="CZ56" s="65"/>
+      <c r="DA56" s="65"/>
+      <c r="DB56" s="65"/>
+      <c r="DC56" s="65"/>
+      <c r="DD56" s="65"/>
+      <c r="DE56" s="65"/>
+      <c r="DF56" s="65"/>
+      <c r="DG56" s="65"/>
+      <c r="DH56" s="65"/>
+      <c r="DI56" s="65"/>
+      <c r="DJ56" s="65"/>
+      <c r="DK56" s="65"/>
+      <c r="DL56" s="65"/>
+      <c r="DM56" s="65"/>
+      <c r="DN56" s="65"/>
+      <c r="DO56" s="65"/>
+      <c r="DP56" s="65"/>
+      <c r="DQ56" s="65"/>
+      <c r="DR56" s="65"/>
+      <c r="DS56" s="65"/>
+      <c r="DT56" s="65"/>
+      <c r="DU56" s="65"/>
+      <c r="DY56" s="25"/>
     </row>
     <row r="57" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="DY57" s="104"/>
+      <c r="DY57" s="25"/>
     </row>
     <row r="58" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="DY58" s="104"/>
+      <c r="DY58" s="25"/>
     </row>
     <row r="59" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F59" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
@@ -8925,219 +9011,219 @@
       <c r="N59" s="64"/>
       <c r="O59" s="64"/>
       <c r="P59" s="64"/>
-      <c r="Q59" s="56" t="s">
+      <c r="Q59" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="56"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-      <c r="AH59" s="56"/>
-      <c r="AI59" s="56"/>
-      <c r="AJ59" s="56"/>
-      <c r="AK59" s="56"/>
-      <c r="AL59" s="56"/>
-      <c r="AM59" s="56"/>
-      <c r="AN59" s="56"/>
-      <c r="AO59" s="56" t="s">
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="64"/>
+      <c r="AA59" s="64"/>
+      <c r="AB59" s="64"/>
+      <c r="AC59" s="64"/>
+      <c r="AD59" s="64"/>
+      <c r="AE59" s="64"/>
+      <c r="AF59" s="64"/>
+      <c r="AG59" s="64"/>
+      <c r="AH59" s="64"/>
+      <c r="AI59" s="64"/>
+      <c r="AJ59" s="64"/>
+      <c r="AK59" s="64"/>
+      <c r="AL59" s="64"/>
+      <c r="AM59" s="64"/>
+      <c r="AN59" s="64"/>
+      <c r="AO59" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AP59" s="56"/>
-      <c r="AQ59" s="56"/>
-      <c r="AR59" s="56"/>
-      <c r="AS59" s="56"/>
-      <c r="AT59" s="56"/>
-      <c r="AU59" s="56"/>
-      <c r="AV59" s="56"/>
-      <c r="AW59" s="56"/>
-      <c r="AX59" s="56"/>
-      <c r="AY59" s="56"/>
-      <c r="AZ59" s="56"/>
-      <c r="BA59" s="56"/>
-      <c r="BB59" s="56"/>
-      <c r="BC59" s="56" t="s">
+      <c r="AP59" s="64"/>
+      <c r="AQ59" s="64"/>
+      <c r="AR59" s="64"/>
+      <c r="AS59" s="64"/>
+      <c r="AT59" s="64"/>
+      <c r="AU59" s="64"/>
+      <c r="AV59" s="64"/>
+      <c r="AW59" s="64"/>
+      <c r="AX59" s="64"/>
+      <c r="AY59" s="64"/>
+      <c r="AZ59" s="64"/>
+      <c r="BA59" s="64"/>
+      <c r="BB59" s="64"/>
+      <c r="BC59" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BD59" s="56"/>
-      <c r="BE59" s="56"/>
-      <c r="BF59" s="56"/>
-      <c r="BG59" s="56"/>
-      <c r="BH59" s="56"/>
-      <c r="BI59" s="56"/>
-      <c r="BJ59" s="56"/>
-      <c r="BK59" s="56"/>
-      <c r="BL59" s="56"/>
-      <c r="BM59" s="56"/>
-      <c r="BN59" s="56"/>
-      <c r="BO59" s="56"/>
-      <c r="BP59" s="56"/>
-      <c r="BQ59" s="56"/>
-      <c r="BR59" s="56"/>
-      <c r="BS59" s="56"/>
-      <c r="BT59" s="56"/>
-      <c r="BU59" s="56"/>
-      <c r="BV59" s="56" t="s">
+      <c r="BD59" s="64"/>
+      <c r="BE59" s="64"/>
+      <c r="BF59" s="64"/>
+      <c r="BG59" s="64"/>
+      <c r="BH59" s="64"/>
+      <c r="BI59" s="64"/>
+      <c r="BJ59" s="64"/>
+      <c r="BK59" s="64"/>
+      <c r="BL59" s="64"/>
+      <c r="BM59" s="64"/>
+      <c r="BN59" s="64"/>
+      <c r="BO59" s="64"/>
+      <c r="BP59" s="64"/>
+      <c r="BQ59" s="64"/>
+      <c r="BR59" s="64"/>
+      <c r="BS59" s="64"/>
+      <c r="BT59" s="64"/>
+      <c r="BU59" s="64"/>
+      <c r="BV59" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="BW59" s="56"/>
-      <c r="BX59" s="56"/>
-      <c r="BY59" s="56"/>
-      <c r="BZ59" s="56"/>
-      <c r="CA59" s="56"/>
-      <c r="CB59" s="56"/>
-      <c r="CC59" s="56"/>
-      <c r="CD59" s="56"/>
-      <c r="CE59" s="56"/>
-      <c r="CF59" s="56"/>
-      <c r="CG59" s="40" t="s">
+      <c r="BW59" s="64"/>
+      <c r="BX59" s="64"/>
+      <c r="BY59" s="64"/>
+      <c r="BZ59" s="64"/>
+      <c r="CA59" s="64"/>
+      <c r="CB59" s="64"/>
+      <c r="CC59" s="64"/>
+      <c r="CD59" s="64"/>
+      <c r="CE59" s="64"/>
+      <c r="CF59" s="64"/>
+      <c r="CG59" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="CH59" s="41"/>
-      <c r="CI59" s="41"/>
-      <c r="CJ59" s="41"/>
-      <c r="CK59" s="41"/>
-      <c r="CL59" s="41"/>
-      <c r="CM59" s="41"/>
-      <c r="CN59" s="41"/>
-      <c r="CO59" s="41"/>
-      <c r="CP59" s="41"/>
-      <c r="CQ59" s="41"/>
-      <c r="CR59" s="41"/>
-      <c r="CS59" s="42"/>
-      <c r="CT59" s="56" t="s">
+      <c r="CH59" s="53"/>
+      <c r="CI59" s="53"/>
+      <c r="CJ59" s="53"/>
+      <c r="CK59" s="53"/>
+      <c r="CL59" s="53"/>
+      <c r="CM59" s="53"/>
+      <c r="CN59" s="53"/>
+      <c r="CO59" s="53"/>
+      <c r="CP59" s="53"/>
+      <c r="CQ59" s="53"/>
+      <c r="CR59" s="53"/>
+      <c r="CS59" s="54"/>
+      <c r="CT59" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="CU59" s="56"/>
-      <c r="CV59" s="56"/>
-      <c r="CW59" s="56"/>
-      <c r="CX59" s="56"/>
-      <c r="CY59" s="56"/>
-      <c r="CZ59" s="56"/>
-      <c r="DA59" s="56"/>
-      <c r="DB59" s="56"/>
-      <c r="DC59" s="56"/>
-      <c r="DD59" s="56"/>
-      <c r="DE59" s="56"/>
-      <c r="DF59" s="56"/>
-      <c r="DG59" s="56"/>
-      <c r="DH59" s="56"/>
-      <c r="DI59" s="56"/>
-      <c r="DJ59" s="56"/>
-      <c r="DK59" s="56"/>
-      <c r="DL59" s="56"/>
-      <c r="DM59" s="56"/>
-      <c r="DN59" s="56"/>
-      <c r="DO59" s="56"/>
-      <c r="DP59" s="56"/>
-      <c r="DQ59" s="56"/>
-      <c r="DR59" s="56"/>
-      <c r="DS59" s="56"/>
-      <c r="DT59" s="56"/>
-      <c r="DU59" s="56"/>
-      <c r="DY59" s="104"/>
+      <c r="CU59" s="64"/>
+      <c r="CV59" s="64"/>
+      <c r="CW59" s="64"/>
+      <c r="CX59" s="64"/>
+      <c r="CY59" s="64"/>
+      <c r="CZ59" s="64"/>
+      <c r="DA59" s="64"/>
+      <c r="DB59" s="64"/>
+      <c r="DC59" s="64"/>
+      <c r="DD59" s="64"/>
+      <c r="DE59" s="64"/>
+      <c r="DF59" s="64"/>
+      <c r="DG59" s="64"/>
+      <c r="DH59" s="64"/>
+      <c r="DI59" s="64"/>
+      <c r="DJ59" s="64"/>
+      <c r="DK59" s="64"/>
+      <c r="DL59" s="64"/>
+      <c r="DM59" s="64"/>
+      <c r="DN59" s="64"/>
+      <c r="DO59" s="64"/>
+      <c r="DP59" s="64"/>
+      <c r="DQ59" s="64"/>
+      <c r="DR59" s="64"/>
+      <c r="DS59" s="64"/>
+      <c r="DT59" s="64"/>
+      <c r="DU59" s="64"/>
+      <c r="DY59" s="25"/>
     </row>
     <row r="60" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="57" t="s">
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="62" t="s">
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65"/>
+      <c r="AC60" s="65"/>
+      <c r="AD60" s="65"/>
+      <c r="AE60" s="65"/>
+      <c r="AF60" s="65"/>
+      <c r="AG60" s="65"/>
+      <c r="AH60" s="65"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="65"/>
+      <c r="AK60" s="65"/>
+      <c r="AL60" s="65"/>
+      <c r="AM60" s="65"/>
+      <c r="AN60" s="65"/>
+      <c r="AO60" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="AP60" s="62"/>
-      <c r="AQ60" s="62"/>
-      <c r="AR60" s="62"/>
-      <c r="AS60" s="62"/>
-      <c r="AT60" s="62"/>
-      <c r="AU60" s="62"/>
-      <c r="AV60" s="62"/>
-      <c r="AW60" s="62"/>
-      <c r="AX60" s="62"/>
-      <c r="AY60" s="62"/>
-      <c r="AZ60" s="62"/>
-      <c r="BA60" s="62"/>
-      <c r="BB60" s="62"/>
-      <c r="BC60" s="57" t="s">
+      <c r="AP60" s="89"/>
+      <c r="AQ60" s="89"/>
+      <c r="AR60" s="89"/>
+      <c r="AS60" s="89"/>
+      <c r="AT60" s="89"/>
+      <c r="AU60" s="89"/>
+      <c r="AV60" s="89"/>
+      <c r="AW60" s="89"/>
+      <c r="AX60" s="89"/>
+      <c r="AY60" s="89"/>
+      <c r="AZ60" s="89"/>
+      <c r="BA60" s="89"/>
+      <c r="BB60" s="89"/>
+      <c r="BC60" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
-      <c r="BP60" s="57"/>
-      <c r="BQ60" s="57"/>
-      <c r="BR60" s="57"/>
-      <c r="BS60" s="57"/>
-      <c r="BT60" s="57"/>
-      <c r="BU60" s="57"/>
-      <c r="BV60" s="57" t="s">
+      <c r="BD60" s="65"/>
+      <c r="BE60" s="65"/>
+      <c r="BF60" s="65"/>
+      <c r="BG60" s="65"/>
+      <c r="BH60" s="65"/>
+      <c r="BI60" s="65"/>
+      <c r="BJ60" s="65"/>
+      <c r="BK60" s="65"/>
+      <c r="BL60" s="65"/>
+      <c r="BM60" s="65"/>
+      <c r="BN60" s="65"/>
+      <c r="BO60" s="65"/>
+      <c r="BP60" s="65"/>
+      <c r="BQ60" s="65"/>
+      <c r="BR60" s="65"/>
+      <c r="BS60" s="65"/>
+      <c r="BT60" s="65"/>
+      <c r="BU60" s="65"/>
+      <c r="BV60" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="BW60" s="57"/>
-      <c r="BX60" s="57"/>
-      <c r="BY60" s="57"/>
-      <c r="BZ60" s="57"/>
-      <c r="CA60" s="57"/>
-      <c r="CB60" s="57"/>
-      <c r="CC60" s="57"/>
-      <c r="CD60" s="57"/>
-      <c r="CE60" s="57"/>
-      <c r="CF60" s="57"/>
+      <c r="BW60" s="65"/>
+      <c r="BX60" s="65"/>
+      <c r="BY60" s="65"/>
+      <c r="BZ60" s="65"/>
+      <c r="CA60" s="65"/>
+      <c r="CB60" s="65"/>
+      <c r="CC60" s="65"/>
+      <c r="CD60" s="65"/>
+      <c r="CE60" s="65"/>
+      <c r="CF60" s="65"/>
       <c r="CG60" s="43" t="s">
         <v>132</v>
       </c>
@@ -9153,126 +9239,126 @@
       <c r="CQ60" s="44"/>
       <c r="CR60" s="44"/>
       <c r="CS60" s="45"/>
-      <c r="CT60" s="46" t="s">
+      <c r="CT60" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="CU60" s="46"/>
-      <c r="CV60" s="46"/>
-      <c r="CW60" s="46"/>
-      <c r="CX60" s="46"/>
-      <c r="CY60" s="46"/>
-      <c r="CZ60" s="46"/>
-      <c r="DA60" s="46"/>
-      <c r="DB60" s="46"/>
-      <c r="DC60" s="46"/>
-      <c r="DD60" s="46"/>
-      <c r="DE60" s="46"/>
-      <c r="DF60" s="46"/>
-      <c r="DG60" s="46"/>
-      <c r="DH60" s="46"/>
-      <c r="DI60" s="46"/>
-      <c r="DJ60" s="46"/>
-      <c r="DK60" s="46"/>
-      <c r="DL60" s="46"/>
-      <c r="DM60" s="46"/>
-      <c r="DN60" s="46"/>
-      <c r="DO60" s="46"/>
-      <c r="DP60" s="46"/>
-      <c r="DQ60" s="46"/>
-      <c r="DR60" s="46"/>
-      <c r="DS60" s="46"/>
-      <c r="DT60" s="46"/>
-      <c r="DU60" s="46"/>
-      <c r="DY60" s="104"/>
+      <c r="CU60" s="90"/>
+      <c r="CV60" s="90"/>
+      <c r="CW60" s="90"/>
+      <c r="CX60" s="90"/>
+      <c r="CY60" s="90"/>
+      <c r="CZ60" s="90"/>
+      <c r="DA60" s="90"/>
+      <c r="DB60" s="90"/>
+      <c r="DC60" s="90"/>
+      <c r="DD60" s="90"/>
+      <c r="DE60" s="90"/>
+      <c r="DF60" s="90"/>
+      <c r="DG60" s="90"/>
+      <c r="DH60" s="90"/>
+      <c r="DI60" s="90"/>
+      <c r="DJ60" s="90"/>
+      <c r="DK60" s="90"/>
+      <c r="DL60" s="90"/>
+      <c r="DM60" s="90"/>
+      <c r="DN60" s="90"/>
+      <c r="DO60" s="90"/>
+      <c r="DP60" s="90"/>
+      <c r="DQ60" s="90"/>
+      <c r="DR60" s="90"/>
+      <c r="DS60" s="90"/>
+      <c r="DT60" s="90"/>
+      <c r="DU60" s="90"/>
+      <c r="DY60" s="25"/>
     </row>
     <row r="61" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="57" t="s">
+      <c r="F61" s="96"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="97"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="98"/>
+      <c r="Q61" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-      <c r="AD61" s="57"/>
-      <c r="AE61" s="57"/>
-      <c r="AF61" s="57"/>
-      <c r="AG61" s="57"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="57"/>
-      <c r="AJ61" s="57"/>
-      <c r="AK61" s="57"/>
-      <c r="AL61" s="57"/>
-      <c r="AM61" s="57"/>
-      <c r="AN61" s="57"/>
-      <c r="AO61" s="62" t="s">
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="65"/>
+      <c r="Z61" s="65"/>
+      <c r="AA61" s="65"/>
+      <c r="AB61" s="65"/>
+      <c r="AC61" s="65"/>
+      <c r="AD61" s="65"/>
+      <c r="AE61" s="65"/>
+      <c r="AF61" s="65"/>
+      <c r="AG61" s="65"/>
+      <c r="AH61" s="65"/>
+      <c r="AI61" s="65"/>
+      <c r="AJ61" s="65"/>
+      <c r="AK61" s="65"/>
+      <c r="AL61" s="65"/>
+      <c r="AM61" s="65"/>
+      <c r="AN61" s="65"/>
+      <c r="AO61" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="AP61" s="62"/>
-      <c r="AQ61" s="62"/>
-      <c r="AR61" s="62"/>
-      <c r="AS61" s="62"/>
-      <c r="AT61" s="62"/>
-      <c r="AU61" s="62"/>
-      <c r="AV61" s="62"/>
-      <c r="AW61" s="62"/>
-      <c r="AX61" s="62"/>
-      <c r="AY61" s="62"/>
-      <c r="AZ61" s="62"/>
-      <c r="BA61" s="62"/>
-      <c r="BB61" s="62"/>
-      <c r="BC61" s="57" t="s">
+      <c r="AP61" s="89"/>
+      <c r="AQ61" s="89"/>
+      <c r="AR61" s="89"/>
+      <c r="AS61" s="89"/>
+      <c r="AT61" s="89"/>
+      <c r="AU61" s="89"/>
+      <c r="AV61" s="89"/>
+      <c r="AW61" s="89"/>
+      <c r="AX61" s="89"/>
+      <c r="AY61" s="89"/>
+      <c r="AZ61" s="89"/>
+      <c r="BA61" s="89"/>
+      <c r="BB61" s="89"/>
+      <c r="BC61" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="BD61" s="57"/>
-      <c r="BE61" s="57"/>
-      <c r="BF61" s="57"/>
-      <c r="BG61" s="57"/>
-      <c r="BH61" s="57"/>
-      <c r="BI61" s="57"/>
-      <c r="BJ61" s="57"/>
-      <c r="BK61" s="57"/>
-      <c r="BL61" s="57"/>
-      <c r="BM61" s="57"/>
-      <c r="BN61" s="57"/>
-      <c r="BO61" s="57"/>
-      <c r="BP61" s="57"/>
-      <c r="BQ61" s="57"/>
-      <c r="BR61" s="57"/>
-      <c r="BS61" s="57"/>
-      <c r="BT61" s="57"/>
-      <c r="BU61" s="57"/>
-      <c r="BV61" s="57" t="s">
+      <c r="BD61" s="65"/>
+      <c r="BE61" s="65"/>
+      <c r="BF61" s="65"/>
+      <c r="BG61" s="65"/>
+      <c r="BH61" s="65"/>
+      <c r="BI61" s="65"/>
+      <c r="BJ61" s="65"/>
+      <c r="BK61" s="65"/>
+      <c r="BL61" s="65"/>
+      <c r="BM61" s="65"/>
+      <c r="BN61" s="65"/>
+      <c r="BO61" s="65"/>
+      <c r="BP61" s="65"/>
+      <c r="BQ61" s="65"/>
+      <c r="BR61" s="65"/>
+      <c r="BS61" s="65"/>
+      <c r="BT61" s="65"/>
+      <c r="BU61" s="65"/>
+      <c r="BV61" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="BW61" s="57"/>
-      <c r="BX61" s="57"/>
-      <c r="BY61" s="57"/>
-      <c r="BZ61" s="57"/>
-      <c r="CA61" s="57"/>
-      <c r="CB61" s="57"/>
-      <c r="CC61" s="57"/>
-      <c r="CD61" s="57"/>
-      <c r="CE61" s="57"/>
-      <c r="CF61" s="57"/>
+      <c r="BW61" s="65"/>
+      <c r="BX61" s="65"/>
+      <c r="BY61" s="65"/>
+      <c r="BZ61" s="65"/>
+      <c r="CA61" s="65"/>
+      <c r="CB61" s="65"/>
+      <c r="CC61" s="65"/>
+      <c r="CD61" s="65"/>
+      <c r="CE61" s="65"/>
+      <c r="CF61" s="65"/>
       <c r="CG61" s="43" t="s">
         <v>132</v>
       </c>
@@ -9288,261 +9374,261 @@
       <c r="CQ61" s="44"/>
       <c r="CR61" s="44"/>
       <c r="CS61" s="45"/>
-      <c r="CT61" s="46" t="s">
+      <c r="CT61" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="CU61" s="46"/>
-      <c r="CV61" s="46"/>
-      <c r="CW61" s="46"/>
-      <c r="CX61" s="46"/>
-      <c r="CY61" s="46"/>
-      <c r="CZ61" s="46"/>
-      <c r="DA61" s="46"/>
-      <c r="DB61" s="46"/>
-      <c r="DC61" s="46"/>
-      <c r="DD61" s="46"/>
-      <c r="DE61" s="46"/>
-      <c r="DF61" s="46"/>
-      <c r="DG61" s="46"/>
-      <c r="DH61" s="46"/>
-      <c r="DI61" s="46"/>
-      <c r="DJ61" s="46"/>
-      <c r="DK61" s="46"/>
-      <c r="DL61" s="46"/>
-      <c r="DM61" s="46"/>
-      <c r="DN61" s="46"/>
-      <c r="DO61" s="46"/>
-      <c r="DP61" s="46"/>
-      <c r="DQ61" s="46"/>
-      <c r="DR61" s="46"/>
-      <c r="DS61" s="46"/>
-      <c r="DT61" s="46"/>
-      <c r="DU61" s="46"/>
-      <c r="DY61" s="104"/>
+      <c r="CU61" s="90"/>
+      <c r="CV61" s="90"/>
+      <c r="CW61" s="90"/>
+      <c r="CX61" s="90"/>
+      <c r="CY61" s="90"/>
+      <c r="CZ61" s="90"/>
+      <c r="DA61" s="90"/>
+      <c r="DB61" s="90"/>
+      <c r="DC61" s="90"/>
+      <c r="DD61" s="90"/>
+      <c r="DE61" s="90"/>
+      <c r="DF61" s="90"/>
+      <c r="DG61" s="90"/>
+      <c r="DH61" s="90"/>
+      <c r="DI61" s="90"/>
+      <c r="DJ61" s="90"/>
+      <c r="DK61" s="90"/>
+      <c r="DL61" s="90"/>
+      <c r="DM61" s="90"/>
+      <c r="DN61" s="90"/>
+      <c r="DO61" s="90"/>
+      <c r="DP61" s="90"/>
+      <c r="DQ61" s="90"/>
+      <c r="DR61" s="90"/>
+      <c r="DS61" s="90"/>
+      <c r="DT61" s="90"/>
+      <c r="DU61" s="90"/>
+      <c r="DY61" s="25"/>
     </row>
     <row r="62" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="58" t="s">
+      <c r="F62" s="96"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="97"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="58"/>
-      <c r="W62" s="58"/>
-      <c r="X62" s="58"/>
-      <c r="Y62" s="58"/>
-      <c r="Z62" s="58"/>
-      <c r="AA62" s="58"/>
-      <c r="AB62" s="58"/>
-      <c r="AC62" s="58"/>
-      <c r="AD62" s="58"/>
-      <c r="AE62" s="58"/>
-      <c r="AF62" s="58"/>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="58"/>
-      <c r="AI62" s="58"/>
-      <c r="AJ62" s="58"/>
-      <c r="AK62" s="58"/>
-      <c r="AL62" s="58"/>
-      <c r="AM62" s="58"/>
-      <c r="AN62" s="58"/>
-      <c r="AO62" s="71" t="s">
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
+      <c r="AO62" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="AP62" s="71"/>
-      <c r="AQ62" s="71"/>
-      <c r="AR62" s="71"/>
-      <c r="AS62" s="71"/>
-      <c r="AT62" s="71"/>
-      <c r="AU62" s="71"/>
-      <c r="AV62" s="71"/>
-      <c r="AW62" s="71"/>
-      <c r="AX62" s="71"/>
-      <c r="AY62" s="71"/>
-      <c r="AZ62" s="71"/>
-      <c r="BA62" s="71"/>
-      <c r="BB62" s="71"/>
-      <c r="BC62" s="58" t="s">
+      <c r="AP62" s="92"/>
+      <c r="AQ62" s="92"/>
+      <c r="AR62" s="92"/>
+      <c r="AS62" s="92"/>
+      <c r="AT62" s="92"/>
+      <c r="AU62" s="92"/>
+      <c r="AV62" s="92"/>
+      <c r="AW62" s="92"/>
+      <c r="AX62" s="92"/>
+      <c r="AY62" s="92"/>
+      <c r="AZ62" s="92"/>
+      <c r="BA62" s="92"/>
+      <c r="BB62" s="92"/>
+      <c r="BC62" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="BD62" s="58"/>
-      <c r="BE62" s="58"/>
-      <c r="BF62" s="58"/>
-      <c r="BG62" s="58"/>
-      <c r="BH62" s="58"/>
-      <c r="BI62" s="58"/>
-      <c r="BJ62" s="58"/>
-      <c r="BK62" s="58"/>
-      <c r="BL62" s="58"/>
-      <c r="BM62" s="58"/>
-      <c r="BN62" s="58"/>
-      <c r="BO62" s="58"/>
-      <c r="BP62" s="58"/>
-      <c r="BQ62" s="58"/>
-      <c r="BR62" s="58"/>
-      <c r="BS62" s="58"/>
-      <c r="BT62" s="58"/>
-      <c r="BU62" s="58"/>
-      <c r="BV62" s="58" t="s">
+      <c r="BD62" s="88"/>
+      <c r="BE62" s="88"/>
+      <c r="BF62" s="88"/>
+      <c r="BG62" s="88"/>
+      <c r="BH62" s="88"/>
+      <c r="BI62" s="88"/>
+      <c r="BJ62" s="88"/>
+      <c r="BK62" s="88"/>
+      <c r="BL62" s="88"/>
+      <c r="BM62" s="88"/>
+      <c r="BN62" s="88"/>
+      <c r="BO62" s="88"/>
+      <c r="BP62" s="88"/>
+      <c r="BQ62" s="88"/>
+      <c r="BR62" s="88"/>
+      <c r="BS62" s="88"/>
+      <c r="BT62" s="88"/>
+      <c r="BU62" s="88"/>
+      <c r="BV62" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="BW62" s="58"/>
-      <c r="BX62" s="58"/>
-      <c r="BY62" s="58"/>
-      <c r="BZ62" s="58"/>
-      <c r="CA62" s="58"/>
-      <c r="CB62" s="58"/>
-      <c r="CC62" s="58"/>
-      <c r="CD62" s="58"/>
-      <c r="CE62" s="58"/>
-      <c r="CF62" s="58"/>
-      <c r="CG62" s="59" t="s">
+      <c r="BW62" s="88"/>
+      <c r="BX62" s="88"/>
+      <c r="BY62" s="88"/>
+      <c r="BZ62" s="88"/>
+      <c r="CA62" s="88"/>
+      <c r="CB62" s="88"/>
+      <c r="CC62" s="88"/>
+      <c r="CD62" s="88"/>
+      <c r="CE62" s="88"/>
+      <c r="CF62" s="88"/>
+      <c r="CG62" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="CH62" s="60"/>
-      <c r="CI62" s="60"/>
-      <c r="CJ62" s="60"/>
-      <c r="CK62" s="60"/>
-      <c r="CL62" s="60"/>
-      <c r="CM62" s="60"/>
-      <c r="CN62" s="60"/>
-      <c r="CO62" s="60"/>
-      <c r="CP62" s="60"/>
-      <c r="CQ62" s="60"/>
-      <c r="CR62" s="60"/>
-      <c r="CS62" s="61"/>
-      <c r="CT62" s="58" t="s">
+      <c r="CH62" s="103"/>
+      <c r="CI62" s="103"/>
+      <c r="CJ62" s="103"/>
+      <c r="CK62" s="103"/>
+      <c r="CL62" s="103"/>
+      <c r="CM62" s="103"/>
+      <c r="CN62" s="103"/>
+      <c r="CO62" s="103"/>
+      <c r="CP62" s="103"/>
+      <c r="CQ62" s="103"/>
+      <c r="CR62" s="103"/>
+      <c r="CS62" s="104"/>
+      <c r="CT62" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="CU62" s="58"/>
-      <c r="CV62" s="58"/>
-      <c r="CW62" s="58"/>
-      <c r="CX62" s="58"/>
-      <c r="CY62" s="58"/>
-      <c r="CZ62" s="58"/>
-      <c r="DA62" s="58"/>
-      <c r="DB62" s="58"/>
-      <c r="DC62" s="58"/>
-      <c r="DD62" s="58"/>
-      <c r="DE62" s="58"/>
-      <c r="DF62" s="58"/>
-      <c r="DG62" s="58"/>
-      <c r="DH62" s="58"/>
-      <c r="DI62" s="58"/>
-      <c r="DJ62" s="58"/>
-      <c r="DK62" s="58"/>
-      <c r="DL62" s="58"/>
-      <c r="DM62" s="58"/>
-      <c r="DN62" s="58"/>
-      <c r="DO62" s="58"/>
-      <c r="DP62" s="58"/>
-      <c r="DQ62" s="58"/>
-      <c r="DR62" s="58"/>
-      <c r="DS62" s="58"/>
-      <c r="DT62" s="58"/>
-      <c r="DU62" s="58"/>
-      <c r="DY62" s="104"/>
+      <c r="CU62" s="88"/>
+      <c r="CV62" s="88"/>
+      <c r="CW62" s="88"/>
+      <c r="CX62" s="88"/>
+      <c r="CY62" s="88"/>
+      <c r="CZ62" s="88"/>
+      <c r="DA62" s="88"/>
+      <c r="DB62" s="88"/>
+      <c r="DC62" s="88"/>
+      <c r="DD62" s="88"/>
+      <c r="DE62" s="88"/>
+      <c r="DF62" s="88"/>
+      <c r="DG62" s="88"/>
+      <c r="DH62" s="88"/>
+      <c r="DI62" s="88"/>
+      <c r="DJ62" s="88"/>
+      <c r="DK62" s="88"/>
+      <c r="DL62" s="88"/>
+      <c r="DM62" s="88"/>
+      <c r="DN62" s="88"/>
+      <c r="DO62" s="88"/>
+      <c r="DP62" s="88"/>
+      <c r="DQ62" s="88"/>
+      <c r="DR62" s="88"/>
+      <c r="DS62" s="88"/>
+      <c r="DT62" s="88"/>
+      <c r="DU62" s="88"/>
+      <c r="DY62" s="25"/>
     </row>
     <row r="63" spans="5:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="53"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="57" t="s">
+      <c r="F63" s="99"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="57"/>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="57"/>
-      <c r="AD63" s="57"/>
-      <c r="AE63" s="57"/>
-      <c r="AF63" s="57"/>
-      <c r="AG63" s="57"/>
-      <c r="AH63" s="57"/>
-      <c r="AI63" s="57"/>
-      <c r="AJ63" s="57"/>
-      <c r="AK63" s="57"/>
-      <c r="AL63" s="57"/>
-      <c r="AM63" s="57"/>
-      <c r="AN63" s="57"/>
-      <c r="AO63" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP63" s="62"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="62"/>
-      <c r="AX63" s="62"/>
-      <c r="AY63" s="62"/>
-      <c r="AZ63" s="62"/>
-      <c r="BA63" s="62"/>
-      <c r="BB63" s="62"/>
-      <c r="BC63" s="57" t="s">
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
+      <c r="Z63" s="65"/>
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="65"/>
+      <c r="AC63" s="65"/>
+      <c r="AD63" s="65"/>
+      <c r="AE63" s="65"/>
+      <c r="AF63" s="65"/>
+      <c r="AG63" s="65"/>
+      <c r="AH63" s="65"/>
+      <c r="AI63" s="65"/>
+      <c r="AJ63" s="65"/>
+      <c r="AK63" s="65"/>
+      <c r="AL63" s="65"/>
+      <c r="AM63" s="65"/>
+      <c r="AN63" s="65"/>
+      <c r="AO63" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP63" s="89"/>
+      <c r="AQ63" s="89"/>
+      <c r="AR63" s="89"/>
+      <c r="AS63" s="89"/>
+      <c r="AT63" s="89"/>
+      <c r="AU63" s="89"/>
+      <c r="AV63" s="89"/>
+      <c r="AW63" s="89"/>
+      <c r="AX63" s="89"/>
+      <c r="AY63" s="89"/>
+      <c r="AZ63" s="89"/>
+      <c r="BA63" s="89"/>
+      <c r="BB63" s="89"/>
+      <c r="BC63" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="BD63" s="57"/>
-      <c r="BE63" s="57"/>
-      <c r="BF63" s="57"/>
-      <c r="BG63" s="57"/>
-      <c r="BH63" s="57"/>
-      <c r="BI63" s="57"/>
-      <c r="BJ63" s="57"/>
-      <c r="BK63" s="57"/>
-      <c r="BL63" s="57"/>
-      <c r="BM63" s="57"/>
-      <c r="BN63" s="57"/>
-      <c r="BO63" s="57"/>
-      <c r="BP63" s="57"/>
-      <c r="BQ63" s="57"/>
-      <c r="BR63" s="57"/>
-      <c r="BS63" s="57"/>
-      <c r="BT63" s="57"/>
-      <c r="BU63" s="57"/>
-      <c r="BV63" s="57" t="s">
+      <c r="BD63" s="65"/>
+      <c r="BE63" s="65"/>
+      <c r="BF63" s="65"/>
+      <c r="BG63" s="65"/>
+      <c r="BH63" s="65"/>
+      <c r="BI63" s="65"/>
+      <c r="BJ63" s="65"/>
+      <c r="BK63" s="65"/>
+      <c r="BL63" s="65"/>
+      <c r="BM63" s="65"/>
+      <c r="BN63" s="65"/>
+      <c r="BO63" s="65"/>
+      <c r="BP63" s="65"/>
+      <c r="BQ63" s="65"/>
+      <c r="BR63" s="65"/>
+      <c r="BS63" s="65"/>
+      <c r="BT63" s="65"/>
+      <c r="BU63" s="65"/>
+      <c r="BV63" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="BW63" s="57"/>
-      <c r="BX63" s="57"/>
-      <c r="BY63" s="57"/>
-      <c r="BZ63" s="57"/>
-      <c r="CA63" s="57"/>
-      <c r="CB63" s="57"/>
-      <c r="CC63" s="57"/>
-      <c r="CD63" s="57"/>
-      <c r="CE63" s="57"/>
-      <c r="CF63" s="57"/>
+      <c r="BW63" s="65"/>
+      <c r="BX63" s="65"/>
+      <c r="BY63" s="65"/>
+      <c r="BZ63" s="65"/>
+      <c r="CA63" s="65"/>
+      <c r="CB63" s="65"/>
+      <c r="CC63" s="65"/>
+      <c r="CD63" s="65"/>
+      <c r="CE63" s="65"/>
+      <c r="CF63" s="65"/>
       <c r="CG63" s="43" t="s">
         <v>133</v>
       </c>
@@ -9558,67 +9644,67 @@
       <c r="CQ63" s="44"/>
       <c r="CR63" s="44"/>
       <c r="CS63" s="45"/>
-      <c r="CT63" s="57" t="s">
+      <c r="CT63" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="CU63" s="57"/>
-      <c r="CV63" s="57"/>
-      <c r="CW63" s="57"/>
-      <c r="CX63" s="57"/>
-      <c r="CY63" s="57"/>
-      <c r="CZ63" s="57"/>
-      <c r="DA63" s="57"/>
-      <c r="DB63" s="57"/>
-      <c r="DC63" s="57"/>
-      <c r="DD63" s="57"/>
-      <c r="DE63" s="57"/>
-      <c r="DF63" s="57"/>
-      <c r="DG63" s="57"/>
-      <c r="DH63" s="57"/>
-      <c r="DI63" s="57"/>
-      <c r="DJ63" s="57"/>
-      <c r="DK63" s="57"/>
-      <c r="DL63" s="57"/>
-      <c r="DM63" s="57"/>
-      <c r="DN63" s="57"/>
-      <c r="DO63" s="57"/>
-      <c r="DP63" s="57"/>
-      <c r="DQ63" s="57"/>
-      <c r="DR63" s="57"/>
-      <c r="DS63" s="57"/>
-      <c r="DT63" s="57"/>
-      <c r="DU63" s="57"/>
-      <c r="DY63" s="104"/>
+      <c r="CU63" s="65"/>
+      <c r="CV63" s="65"/>
+      <c r="CW63" s="65"/>
+      <c r="CX63" s="65"/>
+      <c r="CY63" s="65"/>
+      <c r="CZ63" s="65"/>
+      <c r="DA63" s="65"/>
+      <c r="DB63" s="65"/>
+      <c r="DC63" s="65"/>
+      <c r="DD63" s="65"/>
+      <c r="DE63" s="65"/>
+      <c r="DF63" s="65"/>
+      <c r="DG63" s="65"/>
+      <c r="DH63" s="65"/>
+      <c r="DI63" s="65"/>
+      <c r="DJ63" s="65"/>
+      <c r="DK63" s="65"/>
+      <c r="DL63" s="65"/>
+      <c r="DM63" s="65"/>
+      <c r="DN63" s="65"/>
+      <c r="DO63" s="65"/>
+      <c r="DP63" s="65"/>
+      <c r="DQ63" s="65"/>
+      <c r="DR63" s="65"/>
+      <c r="DS63" s="65"/>
+      <c r="DT63" s="65"/>
+      <c r="DU63" s="65"/>
+      <c r="DY63" s="25"/>
     </row>
     <row r="64" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY64" s="104"/>
+      <c r="DY64" s="25"/>
     </row>
     <row r="65" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DY65" s="104"/>
+      <c r="DY65" s="25"/>
     </row>
     <row r="66" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="91" t="s">
         <v>117</v>
       </c>
       <c r="F66" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="67"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="67"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="48"/>
       <c r="R66" s="76" t="s">
         <v>24</v>
       </c>
@@ -9627,10 +9713,10 @@
       <c r="U66" s="77"/>
       <c r="V66" s="77"/>
       <c r="W66" s="78"/>
-      <c r="DY66" s="104"/>
+      <c r="DY66" s="25"/>
     </row>
     <row r="67" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E67" s="63"/>
+      <c r="E67" s="91"/>
       <c r="F67" s="85"/>
       <c r="G67" s="86"/>
       <c r="H67" s="86"/>
@@ -9649,39 +9735,39 @@
       <c r="U67" s="80"/>
       <c r="V67" s="80"/>
       <c r="W67" s="81"/>
-      <c r="DY67" s="104"/>
+      <c r="DY67" s="25"/>
     </row>
     <row r="68" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E68" s="63"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="70"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="51"/>
       <c r="R68" s="82"/>
       <c r="S68" s="83"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
       <c r="V68" s="83"/>
       <c r="W68" s="84"/>
-      <c r="DY68" s="104"/>
+      <c r="DY68" s="25"/>
     </row>
     <row r="69" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F69" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="48"/>
       <c r="L69" s="76" t="s">
         <v>85</v>
       </c>
@@ -9693,12 +9779,12 @@
       <c r="R69" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="67"/>
-      <c r="DY69" s="104"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="48"/>
+      <c r="DY69" s="25"/>
     </row>
     <row r="70" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F70" s="85"/>
@@ -9719,28 +9805,28 @@
       <c r="U70" s="86"/>
       <c r="V70" s="86"/>
       <c r="W70" s="87"/>
-      <c r="DY70" s="104"/>
+      <c r="DY70" s="25"/>
     </row>
     <row r="71" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F71" s="68"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="70"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="51"/>
       <c r="L71" s="82"/>
       <c r="M71" s="83"/>
       <c r="N71" s="83"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="84"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="70"/>
-      <c r="DY71" s="104"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="51"/>
+      <c r="DY71" s="25"/>
     </row>
     <row r="72" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F72" s="76" t="s">
@@ -9762,12 +9848,12 @@
       <c r="R72" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="S72" s="66"/>
-      <c r="T72" s="66"/>
-      <c r="U72" s="66"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="67"/>
-      <c r="DY72" s="104"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="48"/>
+      <c r="DY72" s="25"/>
     </row>
     <row r="73" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F73" s="79"/>
@@ -9788,7 +9874,7 @@
       <c r="U73" s="86"/>
       <c r="V73" s="86"/>
       <c r="W73" s="87"/>
-      <c r="DY73" s="104"/>
+      <c r="DY73" s="25"/>
     </row>
     <row r="74" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F74" s="82"/>
@@ -9803,392 +9889,545 @@
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="84"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="69"/>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="70"/>
-      <c r="DY74" s="104"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="51"/>
+      <c r="DY74" s="25"/>
     </row>
     <row r="75" spans="4:129" x14ac:dyDescent="0.35">
       <c r="G75" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DY75" s="104"/>
+      <c r="DY75" s="25"/>
     </row>
     <row r="76" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY76" s="104"/>
+      <c r="DY76" s="25"/>
     </row>
     <row r="77" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="DY77" s="104"/>
+      <c r="DY77" s="25"/>
     </row>
     <row r="78" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY78" s="104"/>
+      <c r="DY78" s="25"/>
     </row>
     <row r="79" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY79" s="104"/>
+      <c r="DY79" s="25"/>
     </row>
     <row r="80" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="DY80" s="104"/>
+      <c r="DY80" s="25"/>
     </row>
     <row r="81" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY81" s="104"/>
+      <c r="DY81" s="25"/>
     </row>
     <row r="82" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY82" s="104"/>
+      <c r="DY82" s="25"/>
     </row>
     <row r="83" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY83" s="104"/>
+      <c r="DY83" s="25"/>
     </row>
     <row r="84" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY84" s="104"/>
+      <c r="DY84" s="25"/>
     </row>
     <row r="85" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY85" s="104"/>
+      <c r="DY85" s="25"/>
     </row>
     <row r="86" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY86" s="104"/>
+      <c r="DY86" s="25"/>
     </row>
     <row r="87" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY87" s="104"/>
+      <c r="DY87" s="25"/>
     </row>
     <row r="88" spans="22:129" x14ac:dyDescent="0.15">
       <c r="V88" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AT88" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DY88" s="104"/>
+      <c r="DY88" s="25"/>
     </row>
     <row r="89" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY89" s="104"/>
+      <c r="DY89" s="25"/>
     </row>
     <row r="90" spans="22:129" x14ac:dyDescent="0.15">
       <c r="V90" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AT90" s="2" t="s">
+      <c r="DY90" s="25"/>
+    </row>
+    <row r="91" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY91" s="25"/>
+    </row>
+    <row r="92" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY92" s="25"/>
+    </row>
+    <row r="93" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY93" s="25"/>
+    </row>
+    <row r="94" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT94" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="DY90" s="104"/>
-    </row>
-    <row r="91" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY91" s="104"/>
-    </row>
-    <row r="92" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY92" s="104"/>
-    </row>
-    <row r="93" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY93" s="104"/>
-    </row>
-    <row r="94" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY94" s="104"/>
+      <c r="DY94" s="25"/>
     </row>
     <row r="95" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY95" s="104"/>
+      <c r="DY95" s="25"/>
     </row>
     <row r="96" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY96" s="104"/>
+      <c r="DY96" s="25"/>
     </row>
     <row r="97" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY97" s="104"/>
+      <c r="DY97" s="25"/>
     </row>
     <row r="98" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY98" s="104"/>
+      <c r="DY98" s="25"/>
     </row>
     <row r="99" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY99" s="104"/>
+      <c r="DY99" s="25"/>
     </row>
     <row r="100" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY100" s="104"/>
+      <c r="DY100" s="25"/>
     </row>
     <row r="101" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY101" s="104"/>
+      <c r="DY101" s="25"/>
     </row>
     <row r="102" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY102" s="104"/>
+      <c r="DY102" s="25"/>
     </row>
     <row r="103" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY103" s="104"/>
+      <c r="DY103" s="25"/>
     </row>
     <row r="104" spans="22:129" x14ac:dyDescent="0.15">
       <c r="X104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DY104" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="DY104" s="25"/>
     </row>
     <row r="105" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY105" s="104"/>
+      <c r="DY105" s="25"/>
     </row>
     <row r="106" spans="22:129" x14ac:dyDescent="0.15">
       <c r="V106" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="DY106" s="104"/>
+        <v>172</v>
+      </c>
+      <c r="DY106" s="25"/>
     </row>
     <row r="107" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY107" s="104"/>
+      <c r="DY107" s="25"/>
     </row>
     <row r="108" spans="22:129" x14ac:dyDescent="0.15">
       <c r="V108" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BB108" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DY108" s="104"/>
+      <c r="DY108" s="25"/>
     </row>
     <row r="109" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY109" s="104"/>
+      <c r="DY109" s="25"/>
     </row>
     <row r="110" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT110" s="2" t="s">
+      <c r="DY110" s="25"/>
+    </row>
+    <row r="111" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY111" s="25"/>
+    </row>
+    <row r="112" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="DY112" s="25"/>
+    </row>
+    <row r="113" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V113" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="DY110" s="104"/>
-    </row>
-    <row r="111" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY111" s="104"/>
-    </row>
-    <row r="112" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AT112" s="2" t="s">
+      <c r="DY113" s="25"/>
+    </row>
+    <row r="114" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY114" s="25"/>
+    </row>
+    <row r="115" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V115" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="DY112" s="104"/>
-    </row>
-    <row r="113" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="DY113" s="104"/>
-    </row>
-    <row r="114" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V114" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY114" s="104"/>
-    </row>
-    <row r="115" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY115" s="104"/>
+      <c r="DY115" s="25"/>
     </row>
     <row r="116" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V116" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY116" s="104"/>
+      <c r="DY116" s="25"/>
     </row>
     <row r="117" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY117" s="104"/>
+      <c r="DY117" s="25"/>
     </row>
     <row r="118" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY118" s="104"/>
+      <c r="DY118" s="25"/>
     </row>
     <row r="119" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT119" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY119" s="104"/>
+      <c r="BB119" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY119" s="25"/>
     </row>
     <row r="120" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY120" s="104"/>
+      <c r="DY120" s="25"/>
     </row>
     <row r="121" spans="22:129" x14ac:dyDescent="0.15">
       <c r="AT121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY121" s="25"/>
+    </row>
+    <row r="122" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY122" s="25"/>
+    </row>
+    <row r="123" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT123" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="DY121" s="104"/>
-    </row>
-    <row r="122" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY122" s="104"/>
-    </row>
-    <row r="123" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY123" s="104"/>
+      <c r="DY123" s="25"/>
     </row>
     <row r="124" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY124" s="104"/>
+      <c r="DY124" s="25"/>
     </row>
     <row r="125" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY125" s="104"/>
+      <c r="DY125" s="25"/>
     </row>
     <row r="126" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY126" s="104"/>
+      <c r="DY126" s="25"/>
     </row>
     <row r="127" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY127" s="104"/>
+      <c r="DY127" s="25"/>
     </row>
     <row r="128" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY128" s="104"/>
+      <c r="AV128" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="DY128" s="25"/>
     </row>
     <row r="129" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V129" s="2" t="s">
+      <c r="DY129" s="25"/>
+    </row>
+    <row r="130" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AW130" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY130" s="25"/>
+    </row>
+    <row r="131" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY131" s="25"/>
+    </row>
+    <row r="132" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY132" s="25"/>
+    </row>
+    <row r="133" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY133" s="25"/>
+    </row>
+    <row r="134" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY134" s="25"/>
+    </row>
+    <row r="135" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY135" s="25"/>
+    </row>
+    <row r="136" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY136" s="25"/>
+    </row>
+    <row r="137" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V137" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="DY129" s="104"/>
-    </row>
-    <row r="130" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY130" s="104"/>
-    </row>
-    <row r="131" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY131" s="104"/>
-    </row>
-    <row r="132" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V132" s="2" t="s">
+      <c r="DY137" s="25"/>
+    </row>
+    <row r="138" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY138" s="25"/>
+    </row>
+    <row r="139" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY139" s="25"/>
+    </row>
+    <row r="140" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V140" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AT132" s="2" t="s">
+      <c r="DY140" s="25"/>
+    </row>
+    <row r="141" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY141" s="25"/>
+    </row>
+    <row r="142" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY142" s="25"/>
+    </row>
+    <row r="143" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT143" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="DY132" s="104"/>
-    </row>
-    <row r="133" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY133" s="104"/>
-    </row>
-    <row r="134" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V134" s="2" t="s">
+      <c r="DY143" s="25"/>
+    </row>
+    <row r="144" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="DY144" s="25"/>
+    </row>
+    <row r="145" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY145" s="25"/>
+    </row>
+    <row r="146" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="AT146" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AT134" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY134" s="104"/>
-    </row>
-    <row r="135" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY135" s="104"/>
-    </row>
-    <row r="136" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY136" s="104"/>
-    </row>
-    <row r="137" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY137" s="104"/>
-    </row>
-    <row r="138" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY138" s="104"/>
-    </row>
-    <row r="139" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY139" s="104"/>
-    </row>
-    <row r="140" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY140" s="104"/>
-    </row>
-    <row r="141" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY141" s="104"/>
-    </row>
-    <row r="142" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY142" s="104"/>
-    </row>
-    <row r="143" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY143" s="104"/>
-    </row>
-    <row r="144" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="DY144" s="104"/>
-    </row>
-    <row r="145" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY145" s="104"/>
-    </row>
-    <row r="146" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E146" s="2" t="s">
+      <c r="DY146" s="25"/>
+    </row>
+    <row r="147" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY147" s="25"/>
+    </row>
+    <row r="148" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY148" s="25"/>
+    </row>
+    <row r="149" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY149" s="25"/>
+    </row>
+    <row r="150" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY150" s="25"/>
+    </row>
+    <row r="151" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY151" s="25"/>
+    </row>
+    <row r="152" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY152" s="25"/>
+    </row>
+    <row r="153" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY153" s="25"/>
+    </row>
+    <row r="154" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY154" s="25"/>
+    </row>
+    <row r="155" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY155" s="25"/>
+    </row>
+    <row r="156" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY156" s="25"/>
+    </row>
+    <row r="157" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY157" s="25"/>
+    </row>
+    <row r="158" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY158" s="25"/>
+    </row>
+    <row r="159" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E159" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="DY146" s="104"/>
-    </row>
-    <row r="147" spans="4:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="DY147" s="104"/>
-    </row>
-    <row r="148" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D148" s="2" t="s">
+      <c r="DY159" s="25"/>
+    </row>
+    <row r="160" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="DY160" s="25"/>
+    </row>
+    <row r="161" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="D161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="DY148" s="104"/>
-    </row>
-    <row r="149" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY149" s="104"/>
-    </row>
-    <row r="150" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E150" s="2" t="s">
+      <c r="DY161" s="25"/>
+    </row>
+    <row r="162" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY162" s="25"/>
+    </row>
+    <row r="163" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E163" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="DY150" s="104"/>
-    </row>
-    <row r="151" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F151" s="2" t="s">
+      <c r="DY163" s="25"/>
+    </row>
+    <row r="164" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F164" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="DY151" s="104"/>
-    </row>
-    <row r="152" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F152" s="2" t="s">
+      <c r="DY164" s="25"/>
+    </row>
+    <row r="165" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F165" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="DY152" s="104"/>
-    </row>
-    <row r="153" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY153" s="104"/>
-    </row>
-    <row r="154" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E154" s="2" t="s">
+      <c r="DY165" s="25"/>
+    </row>
+    <row r="166" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY166" s="25"/>
+    </row>
+    <row r="167" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E167" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="DY154" s="104"/>
-    </row>
-    <row r="155" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F155" s="2" t="s">
+      <c r="DY167" s="25"/>
+    </row>
+    <row r="168" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F168" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="DY155" s="104"/>
-    </row>
-    <row r="156" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY156" s="104"/>
-    </row>
-    <row r="157" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E157" s="2" t="s">
+      <c r="DY168" s="25"/>
+    </row>
+    <row r="169" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY169" s="25"/>
+    </row>
+    <row r="170" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E170" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="DY157" s="104"/>
-    </row>
-    <row r="158" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F158" s="2" t="s">
+      <c r="DY170" s="25"/>
+    </row>
+    <row r="171" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F171" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="DY158" s="104"/>
-    </row>
-    <row r="159" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY159" s="104"/>
-    </row>
-    <row r="160" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E160" s="2" t="s">
+      <c r="DY171" s="25"/>
+    </row>
+    <row r="172" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY172" s="25"/>
+    </row>
+    <row r="173" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E173" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="DY160" s="104"/>
-    </row>
-    <row r="161" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="F161" s="2" t="s">
+      <c r="DY173" s="25"/>
+    </row>
+    <row r="174" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F174" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="DY161" s="104"/>
-    </row>
-    <row r="162" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="DY162" s="104"/>
-    </row>
-    <row r="163" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="DY163" s="104"/>
-    </row>
-    <row r="164" spans="1:129" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="106"/>
-      <c r="DY164" s="108"/>
+      <c r="DY174" s="25"/>
+    </row>
+    <row r="175" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY175" s="25"/>
+    </row>
+    <row r="176" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY176" s="25"/>
+    </row>
+    <row r="177" spans="1:129" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="27"/>
+      <c r="DY177" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="CG31:CS31"/>
-    <mergeCell ref="BV31:CF31"/>
-    <mergeCell ref="Q31:AN31"/>
-    <mergeCell ref="F31:P32"/>
-    <mergeCell ref="CG30:CS30"/>
-    <mergeCell ref="BV30:CF30"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="AO31:BB31"/>
-    <mergeCell ref="BC31:BU31"/>
+    <mergeCell ref="CG59:CS59"/>
+    <mergeCell ref="CG60:CS60"/>
+    <mergeCell ref="CG35:CS35"/>
+    <mergeCell ref="CG36:CS36"/>
+    <mergeCell ref="CG37:CS37"/>
+    <mergeCell ref="CG40:CS40"/>
+    <mergeCell ref="CG41:CS41"/>
+    <mergeCell ref="CG44:CS44"/>
+    <mergeCell ref="CG54:CS54"/>
+    <mergeCell ref="CG55:CS55"/>
+    <mergeCell ref="CG56:CS56"/>
+    <mergeCell ref="CT60:DU60"/>
+    <mergeCell ref="CT61:DU61"/>
+    <mergeCell ref="F60:P63"/>
+    <mergeCell ref="BV35:CF35"/>
+    <mergeCell ref="BV36:CF36"/>
+    <mergeCell ref="BV37:CF37"/>
+    <mergeCell ref="BV40:CF40"/>
+    <mergeCell ref="BV41:CF41"/>
+    <mergeCell ref="BV44:CF44"/>
+    <mergeCell ref="BV45:CF45"/>
+    <mergeCell ref="BV51:CF51"/>
+    <mergeCell ref="BV52:CF52"/>
+    <mergeCell ref="BV53:CF53"/>
+    <mergeCell ref="BV54:CF54"/>
+    <mergeCell ref="BV55:CF55"/>
+    <mergeCell ref="BV56:CF56"/>
+    <mergeCell ref="BV59:CF59"/>
+    <mergeCell ref="BV60:CF60"/>
+    <mergeCell ref="BV61:CF61"/>
+    <mergeCell ref="BV62:CF62"/>
+    <mergeCell ref="BV63:CF63"/>
+    <mergeCell ref="CG61:CS61"/>
+    <mergeCell ref="CG62:CS62"/>
+    <mergeCell ref="CG63:CS63"/>
+    <mergeCell ref="BC60:BU60"/>
+    <mergeCell ref="AO54:BB54"/>
+    <mergeCell ref="Q54:AN54"/>
+    <mergeCell ref="BC61:BU61"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F35:P35"/>
+    <mergeCell ref="F36:P37"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="F44:P44"/>
+    <mergeCell ref="F45:P45"/>
+    <mergeCell ref="F51:P51"/>
+    <mergeCell ref="F52:P56"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="AO44:BB44"/>
+    <mergeCell ref="BC44:BU44"/>
+    <mergeCell ref="Q44:AN44"/>
+    <mergeCell ref="AO55:BB55"/>
+    <mergeCell ref="AO62:BB62"/>
+    <mergeCell ref="BC62:BU62"/>
+    <mergeCell ref="AO63:BB63"/>
+    <mergeCell ref="BC63:BU63"/>
+    <mergeCell ref="BC37:BU37"/>
+    <mergeCell ref="AO35:BB35"/>
+    <mergeCell ref="CT44:DU44"/>
+    <mergeCell ref="AO45:BB45"/>
+    <mergeCell ref="BC45:BU45"/>
+    <mergeCell ref="Q45:AN45"/>
+    <mergeCell ref="CT45:DU45"/>
+    <mergeCell ref="CG45:CS45"/>
+    <mergeCell ref="CG51:CS51"/>
+    <mergeCell ref="CG52:CS52"/>
+    <mergeCell ref="CG53:CS53"/>
+    <mergeCell ref="AO51:BB51"/>
+    <mergeCell ref="BC51:BU51"/>
+    <mergeCell ref="AO52:BB52"/>
+    <mergeCell ref="BC52:BU52"/>
+    <mergeCell ref="AO53:BB53"/>
+    <mergeCell ref="Q53:AN53"/>
+    <mergeCell ref="CT53:DU53"/>
+    <mergeCell ref="CT31:DU31"/>
+    <mergeCell ref="CT32:DU32"/>
+    <mergeCell ref="Q59:AN59"/>
+    <mergeCell ref="AO32:BB32"/>
+    <mergeCell ref="BC32:BU32"/>
+    <mergeCell ref="AO59:BB59"/>
+    <mergeCell ref="BC59:BU59"/>
+    <mergeCell ref="CT35:DU35"/>
+    <mergeCell ref="CT59:DU59"/>
+    <mergeCell ref="Q55:AN55"/>
+    <mergeCell ref="CT55:DU55"/>
+    <mergeCell ref="BC53:BU53"/>
+    <mergeCell ref="CT37:DU37"/>
+    <mergeCell ref="AO41:BB41"/>
+    <mergeCell ref="BC41:BU41"/>
+    <mergeCell ref="CT41:DU41"/>
+    <mergeCell ref="Q36:AN36"/>
+    <mergeCell ref="Q37:AN37"/>
+    <mergeCell ref="AO40:BB40"/>
+    <mergeCell ref="BC40:BU40"/>
+    <mergeCell ref="CT40:DU40"/>
+    <mergeCell ref="AO36:BB36"/>
+    <mergeCell ref="BC36:BU36"/>
+    <mergeCell ref="AO37:BB37"/>
+    <mergeCell ref="CT54:DU54"/>
+    <mergeCell ref="BC54:BU54"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="L72:Q74"/>
+    <mergeCell ref="R72:W74"/>
+    <mergeCell ref="F66:K68"/>
+    <mergeCell ref="L66:Q68"/>
+    <mergeCell ref="R66:W68"/>
+    <mergeCell ref="F69:K71"/>
+    <mergeCell ref="L69:Q71"/>
+    <mergeCell ref="R69:W71"/>
+    <mergeCell ref="CT62:DU62"/>
+    <mergeCell ref="Q62:AN62"/>
+    <mergeCell ref="AO56:BB56"/>
+    <mergeCell ref="BC56:BU56"/>
+    <mergeCell ref="Q56:AN56"/>
+    <mergeCell ref="CT56:DU56"/>
+    <mergeCell ref="CT63:DU63"/>
+    <mergeCell ref="Q63:AN63"/>
+    <mergeCell ref="BC55:BU55"/>
+    <mergeCell ref="Q60:AN60"/>
+    <mergeCell ref="Q61:AN61"/>
+    <mergeCell ref="AO60:BB60"/>
+    <mergeCell ref="AO61:BB61"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:AF2"/>
     <mergeCell ref="AG1:BU2"/>
@@ -10213,133 +10452,19 @@
     <mergeCell ref="Q32:AN32"/>
     <mergeCell ref="CG32:CS32"/>
     <mergeCell ref="BV32:CF32"/>
-    <mergeCell ref="CT54:DU54"/>
-    <mergeCell ref="BC54:BU54"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="L72:Q74"/>
-    <mergeCell ref="R72:W74"/>
-    <mergeCell ref="F66:K68"/>
-    <mergeCell ref="L66:Q68"/>
-    <mergeCell ref="R66:W68"/>
-    <mergeCell ref="F69:K71"/>
-    <mergeCell ref="L69:Q71"/>
-    <mergeCell ref="R69:W71"/>
-    <mergeCell ref="CT62:DU62"/>
-    <mergeCell ref="Q62:AN62"/>
-    <mergeCell ref="AO56:BB56"/>
-    <mergeCell ref="BC56:BU56"/>
-    <mergeCell ref="Q56:AN56"/>
-    <mergeCell ref="CT56:DU56"/>
-    <mergeCell ref="CT63:DU63"/>
-    <mergeCell ref="Q63:AN63"/>
-    <mergeCell ref="BC55:BU55"/>
-    <mergeCell ref="Q60:AN60"/>
-    <mergeCell ref="Q61:AN61"/>
-    <mergeCell ref="AO60:BB60"/>
-    <mergeCell ref="AO61:BB61"/>
-    <mergeCell ref="CT31:DU31"/>
-    <mergeCell ref="CT32:DU32"/>
-    <mergeCell ref="Q59:AN59"/>
-    <mergeCell ref="AO32:BB32"/>
-    <mergeCell ref="BC32:BU32"/>
-    <mergeCell ref="AO59:BB59"/>
-    <mergeCell ref="BC59:BU59"/>
-    <mergeCell ref="CT35:DU35"/>
-    <mergeCell ref="CT59:DU59"/>
-    <mergeCell ref="Q55:AN55"/>
-    <mergeCell ref="CT55:DU55"/>
-    <mergeCell ref="BC53:BU53"/>
-    <mergeCell ref="CT37:DU37"/>
-    <mergeCell ref="AO41:BB41"/>
-    <mergeCell ref="BC41:BU41"/>
-    <mergeCell ref="CT41:DU41"/>
-    <mergeCell ref="Q36:AN36"/>
-    <mergeCell ref="Q37:AN37"/>
-    <mergeCell ref="AO40:BB40"/>
-    <mergeCell ref="BC40:BU40"/>
-    <mergeCell ref="CT40:DU40"/>
-    <mergeCell ref="AO36:BB36"/>
-    <mergeCell ref="BC36:BU36"/>
-    <mergeCell ref="AO37:BB37"/>
-    <mergeCell ref="CT44:DU44"/>
-    <mergeCell ref="AO45:BB45"/>
-    <mergeCell ref="BC45:BU45"/>
-    <mergeCell ref="Q45:AN45"/>
-    <mergeCell ref="CT45:DU45"/>
-    <mergeCell ref="CG45:CS45"/>
-    <mergeCell ref="CG51:CS51"/>
-    <mergeCell ref="CG52:CS52"/>
-    <mergeCell ref="CG53:CS53"/>
-    <mergeCell ref="AO51:BB51"/>
-    <mergeCell ref="BC51:BU51"/>
-    <mergeCell ref="AO52:BB52"/>
-    <mergeCell ref="BC52:BU52"/>
-    <mergeCell ref="AO53:BB53"/>
-    <mergeCell ref="Q53:AN53"/>
-    <mergeCell ref="CT53:DU53"/>
-    <mergeCell ref="BC60:BU60"/>
-    <mergeCell ref="AO54:BB54"/>
-    <mergeCell ref="Q54:AN54"/>
-    <mergeCell ref="BC61:BU61"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F35:P35"/>
-    <mergeCell ref="F36:P37"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="F44:P44"/>
-    <mergeCell ref="F45:P45"/>
-    <mergeCell ref="F51:P51"/>
-    <mergeCell ref="F52:P56"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="AO44:BB44"/>
-    <mergeCell ref="BC44:BU44"/>
-    <mergeCell ref="Q44:AN44"/>
-    <mergeCell ref="AO55:BB55"/>
-    <mergeCell ref="AO62:BB62"/>
-    <mergeCell ref="BC62:BU62"/>
-    <mergeCell ref="AO63:BB63"/>
-    <mergeCell ref="BC63:BU63"/>
-    <mergeCell ref="BC37:BU37"/>
-    <mergeCell ref="AO35:BB35"/>
-    <mergeCell ref="CT60:DU60"/>
-    <mergeCell ref="CT61:DU61"/>
-    <mergeCell ref="F60:P63"/>
-    <mergeCell ref="BV35:CF35"/>
-    <mergeCell ref="BV36:CF36"/>
-    <mergeCell ref="BV37:CF37"/>
-    <mergeCell ref="BV40:CF40"/>
-    <mergeCell ref="BV41:CF41"/>
-    <mergeCell ref="BV44:CF44"/>
-    <mergeCell ref="BV45:CF45"/>
-    <mergeCell ref="BV51:CF51"/>
-    <mergeCell ref="BV52:CF52"/>
-    <mergeCell ref="BV53:CF53"/>
-    <mergeCell ref="BV54:CF54"/>
-    <mergeCell ref="BV55:CF55"/>
-    <mergeCell ref="BV56:CF56"/>
-    <mergeCell ref="BV59:CF59"/>
-    <mergeCell ref="BV60:CF60"/>
-    <mergeCell ref="BV61:CF61"/>
-    <mergeCell ref="BV62:CF62"/>
-    <mergeCell ref="BV63:CF63"/>
-    <mergeCell ref="CG61:CS61"/>
-    <mergeCell ref="CG62:CS62"/>
-    <mergeCell ref="CG63:CS63"/>
-    <mergeCell ref="CG59:CS59"/>
-    <mergeCell ref="CG60:CS60"/>
-    <mergeCell ref="CG35:CS35"/>
-    <mergeCell ref="CG36:CS36"/>
-    <mergeCell ref="CG37:CS37"/>
-    <mergeCell ref="CG40:CS40"/>
-    <mergeCell ref="CG41:CS41"/>
-    <mergeCell ref="CG44:CS44"/>
-    <mergeCell ref="CG54:CS54"/>
-    <mergeCell ref="CG55:CS55"/>
-    <mergeCell ref="CG56:CS56"/>
+    <mergeCell ref="CG31:CS31"/>
+    <mergeCell ref="BV31:CF31"/>
+    <mergeCell ref="Q31:AN31"/>
+    <mergeCell ref="F31:P32"/>
+    <mergeCell ref="CG30:CS30"/>
+    <mergeCell ref="BV30:CF30"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="AO31:BB31"/>
+    <mergeCell ref="BC31:BU31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="56" firstPageNumber="0" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" firstPageNumber="0" fitToHeight="4" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"メイリオ,レギュラー"&amp;9&amp;A&amp;R&amp;"メイリオ,レギュラー"&amp;9&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;"メイリオ,レギュラー"&amp;9&amp;P/&amp;N&amp;R&amp;D</oddFooter>
@@ -10347,7 +10472,7 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="46" max="128" man="1"/>
     <brk id="76" max="128" man="1"/>
-    <brk id="147" max="128" man="1"/>
+    <brk id="159" max="128" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/04.基本設計/〇×ゲーム_インターフェース定義書.xlsx
+++ b/04.基本設計/〇×ゲーム_インターフェース定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kanayama\○×ゲームまとめ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DORAMI\public\新人研修\2017\03.社内プロジェクト\11.基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="クライアントとサーバー間通信" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">クライアントとサーバー間通信!$A$1:$DY$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">クライアントとサーバー間通信!$A$1:$DY$173</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$K$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">クライアントとサーバー間通信!$5:$5</definedName>
     <definedName name="Print_Titles_0" localSheetId="1">クライアントとサーバー間通信!$5:$5</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -414,10 +414,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>event</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>logicName</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -436,10 +432,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「○」「×」「_」</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>具体値</t>
     <rPh sb="0" eb="2">
       <t>グタイ</t>
@@ -607,40 +599,6 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メッセージの再送を何度か繰り返したに関わらずメッセージを受信できなかった場合、処理を中止して、エラーメッセージを表示。</t>
-    <rPh sb="6" eb="8">
-      <t>サイソウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>チュウシ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -869,35 +827,6 @@
     <t>一方のクライアントに、手番を通知</t>
   </si>
   <si>
-    <t>ゲーム開始の準備完了時に、クライアントに送信</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>【ゲーム開始時】</t>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>【ゲーム中】</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
@@ -1013,10 +942,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>error[]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「クライアントとサーバ間通信」において、サーバーがメッセージを送信するタイミングとして、「エラー発生時」を追加。</t>
     <rPh sb="31" eb="33">
       <t>ソウシン</t>
@@ -1112,26 +1037,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・送受信するデータ一覧</t>
-    <rPh sb="1" eb="4">
-      <t>ソウジュシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>▼サーバーが各タイミングで送信するデータ</t>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>各種エラーが発生時に、クライアントに通知</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
@@ -1148,16 +1053,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>▼クライアントが各タイミングで送信するデータ</t>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>X軸→</t>
     <rPh sb="1" eb="2">
       <t>ジク</t>
@@ -1225,10 +1120,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>String[]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1283,10 +1174,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>「kanayamaLogic」</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>データ最大長</t>
     <rPh sb="3" eb="5">
       <t>サイダイ</t>
@@ -1308,10 +1195,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>▼各クライアント・サーバーがメッセージを受信できなかった場合</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
@@ -1332,10 +1215,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Start</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Prepare</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1510,16 +1389,6 @@
     <t>指摘点の修正</t>
     <rPh sb="1" eb="3">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理名</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1583,22 +1452,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>「win」「lose」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「draw」</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>勝敗通知機能（Result）</t>
     <rPh sb="0" eb="2">
       <t>ショウハイ</t>
@@ -1668,10 +1521,6 @@
     <rPh sb="14" eb="16">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストメッセージ</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2008,25 +1857,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">テキストメッセージ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>イベント情報</t>
-    </r>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>0.12</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2091,6 +1921,242 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <r>
+      <t>「○」「×」</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「_」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「-」</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>String[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>メッセージの再送を何度か繰り返したに関わらずメッセージを受信できなかった場合、処理を中止</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>して、エラーメッセージを表示。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する。</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>サイソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>▼メッセージの形式が正しくない場合</t>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サーバーにアクセスした両クライアントに、エラーメッセージ「notExpectEvent」を通知。</t>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「win」「lose」「draw」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>現仕様の反映</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【インターフェース一覧】
+・盤面情報の具体値・データ型を修正
+・イベント情報「error」の具体値・データ型を修正
+【エラー処理】
+・▼メッセージの形式が正しくない場合を追加</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>グタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>グタイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2542,7 +2608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2631,18 +2697,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2652,23 +2742,14 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2679,6 +2760,48 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2697,24 +2820,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2724,6 +2829,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2733,12 +2874,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2769,101 +2904,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2958,13 +3000,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3025,13 +3067,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3087,13 +3129,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3139,13 +3181,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3189,13 +3231,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3246,13 +3288,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3303,13 +3345,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3354,13 +3396,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3369,8 +3411,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="18688050"/>
+        <a:xfrm flipH="1">
+          <a:off x="1628775" y="20945475"/>
           <a:ext cx="2524125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3403,16 +3445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3421,7 +3463,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1600200" y="22631400"/>
+          <a:off x="1666875" y="22612350"/>
           <a:ext cx="2486025" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3456,13 +3498,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3526,15 +3568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3542,8 +3584,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1647825" y="23383875"/>
+        <a:xfrm flipV="1">
+          <a:off x="1657350" y="27793950"/>
           <a:ext cx="2486025" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3578,13 +3620,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3659,13 +3701,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3709,13 +3751,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3759,13 +3801,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3823,13 +3865,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3874,13 +3916,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3889,8 +3931,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1676400" y="20173950"/>
+        <a:xfrm flipV="1">
+          <a:off x="1676400" y="21288375"/>
           <a:ext cx="2486025" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3924,15 +3966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3941,7 +3983,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="23002875"/>
+          <a:off x="1638300" y="22298025"/>
           <a:ext cx="2524125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3975,15 +4017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3991,8 +4033,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1666875" y="23764875"/>
+        <a:xfrm flipH="1">
+          <a:off x="1657350" y="27412950"/>
           <a:ext cx="2524125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4027,13 +4069,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4089,13 +4131,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4139,13 +4181,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4196,13 +4238,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4259,13 +4301,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4309,13 +4351,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4360,13 +4402,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4412,14 +4454,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4427,9 +4469,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4667251" y="24155401"/>
-          <a:ext cx="2657474" cy="47624"/>
+        <a:xfrm flipV="1">
+          <a:off x="4667251" y="23774400"/>
+          <a:ext cx="2724149" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4461,16 +4503,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4478,9 +4520,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="24450675"/>
-          <a:ext cx="2600325" cy="28575"/>
+        <a:xfrm flipH="1">
+          <a:off x="4657726" y="24145875"/>
+          <a:ext cx="2743199" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4515,13 +4557,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4565,13 +4607,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4617,13 +4659,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4685,13 +4727,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4766,13 +4808,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4834,13 +4876,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4914,15 +4956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4930,9 +4972,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4676775" y="28470225"/>
-          <a:ext cx="2686050" cy="28575"/>
+        <a:xfrm flipH="1">
+          <a:off x="4667250" y="28584525"/>
+          <a:ext cx="2714625" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4967,13 +5009,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5034,15 +5076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5050,9 +5092,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4667250" y="28841700"/>
-          <a:ext cx="2647949" cy="38099"/>
+        <a:xfrm flipV="1">
+          <a:off x="4686300" y="28060650"/>
+          <a:ext cx="2733675" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5387,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5517,19 +5559,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="16">
         <v>42940</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>29</v>
@@ -5543,19 +5585,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" s="16">
         <v>42941</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>15</v>
@@ -5568,23 +5610,23 @@
       <c r="C10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="44">
         <v>42941</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>16</v>
@@ -5594,19 +5636,19 @@
       <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="37"/>
       <c r="F11" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>16</v>
@@ -5617,19 +5659,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="16">
         <v>42942</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>15</v>
@@ -5643,19 +5685,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E13" s="16">
         <v>42942</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>44</v>
@@ -5669,19 +5711,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E14" s="16">
         <v>42943</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>15</v>
@@ -5694,20 +5736,20 @@
       <c r="C15" s="32">
         <v>11</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="41" t="s">
+      <c r="D15" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>158</v>
+      <c r="F15" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>144</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>15</v>
@@ -5718,11 +5760,11 @@
     </row>
     <row r="16" spans="2:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="33"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="31"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
     </row>
@@ -5731,19 +5773,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E17" s="22">
         <v>42940</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>44</v>
@@ -5757,19 +5799,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E18" s="22">
         <v>42955</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>44</v>
@@ -5778,18 +5820,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="3:10" ht="105" x14ac:dyDescent="0.15">
+      <c r="C19" s="20">
+        <v>14</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43026</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5806,10 +5874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DY177"/>
+  <dimension ref="A1:DY172"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:P59"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BO42" sqref="BO42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5822,463 +5890,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62" t="s">
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62" t="s">
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="87"/>
+      <c r="BL1" s="87"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="87"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="62"/>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
-      <c r="CJ1" s="62"/>
-      <c r="CK1" s="62"/>
-      <c r="CL1" s="62"/>
-      <c r="CM1" s="62"/>
-      <c r="CN1" s="62"/>
-      <c r="CO1" s="62"/>
-      <c r="CP1" s="62"/>
-      <c r="CQ1" s="62"/>
-      <c r="CR1" s="62"/>
-      <c r="CS1" s="62"/>
-      <c r="CT1" s="62"/>
-      <c r="CU1" s="62"/>
-      <c r="CV1" s="62"/>
-      <c r="CW1" s="62"/>
-      <c r="CX1" s="62"/>
-      <c r="CY1" s="62"/>
-      <c r="CZ1" s="62"/>
-      <c r="DA1" s="62"/>
-      <c r="DB1" s="62"/>
-      <c r="DC1" s="62"/>
-      <c r="DD1" s="66"/>
+      <c r="BW1" s="87"/>
+      <c r="BX1" s="87"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
+      <c r="CC1" s="87"/>
+      <c r="CD1" s="87"/>
+      <c r="CE1" s="87"/>
+      <c r="CF1" s="87"/>
+      <c r="CG1" s="87"/>
+      <c r="CH1" s="87"/>
+      <c r="CI1" s="87"/>
+      <c r="CJ1" s="87"/>
+      <c r="CK1" s="87"/>
+      <c r="CL1" s="87"/>
+      <c r="CM1" s="87"/>
+      <c r="CN1" s="87"/>
+      <c r="CO1" s="87"/>
+      <c r="CP1" s="87"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
+      <c r="CS1" s="87"/>
+      <c r="CT1" s="87"/>
+      <c r="CU1" s="87"/>
+      <c r="CV1" s="87"/>
+      <c r="CW1" s="87"/>
+      <c r="CX1" s="87"/>
+      <c r="CY1" s="87"/>
+      <c r="CZ1" s="87"/>
+      <c r="DA1" s="87"/>
+      <c r="DB1" s="87"/>
+      <c r="DC1" s="87"/>
+      <c r="DD1" s="89"/>
       <c r="DY1" s="25"/>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BV2" s="64"/>
-      <c r="BW2" s="64"/>
-      <c r="BX2" s="64"/>
-      <c r="BY2" s="64"/>
-      <c r="BZ2" s="64"/>
-      <c r="CA2" s="64"/>
-      <c r="CB2" s="64"/>
-      <c r="CC2" s="64"/>
-      <c r="CD2" s="64"/>
-      <c r="CE2" s="64"/>
-      <c r="CF2" s="64"/>
-      <c r="CG2" s="64"/>
-      <c r="CH2" s="64"/>
-      <c r="CI2" s="64"/>
-      <c r="CJ2" s="64"/>
-      <c r="CK2" s="64"/>
-      <c r="CL2" s="64"/>
-      <c r="CM2" s="64"/>
-      <c r="CN2" s="64"/>
-      <c r="CO2" s="64"/>
-      <c r="CP2" s="64"/>
-      <c r="CQ2" s="64"/>
-      <c r="CR2" s="64"/>
-      <c r="CS2" s="64"/>
-      <c r="CT2" s="64"/>
-      <c r="CU2" s="64"/>
-      <c r="CV2" s="64"/>
-      <c r="CW2" s="64"/>
-      <c r="CX2" s="64"/>
-      <c r="CY2" s="64"/>
-      <c r="CZ2" s="64"/>
-      <c r="DA2" s="64"/>
-      <c r="DB2" s="64"/>
-      <c r="DC2" s="64"/>
-      <c r="DD2" s="67"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
+      <c r="CJ2" s="61"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="61"/>
+      <c r="CM2" s="61"/>
+      <c r="CN2" s="61"/>
+      <c r="CO2" s="61"/>
+      <c r="CP2" s="61"/>
+      <c r="CQ2" s="61"/>
+      <c r="CR2" s="61"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="61"/>
+      <c r="CU2" s="61"/>
+      <c r="CV2" s="61"/>
+      <c r="CW2" s="61"/>
+      <c r="CX2" s="61"/>
+      <c r="CY2" s="61"/>
+      <c r="CZ2" s="61"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
+      <c r="DC2" s="61"/>
+      <c r="DD2" s="90"/>
       <c r="DY2" s="25"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="72"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="72"/>
-      <c r="CL3" s="72"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="72"/>
-      <c r="CP3" s="72"/>
-      <c r="CQ3" s="72"/>
-      <c r="CR3" s="72"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="72"/>
-      <c r="DD3" s="74"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="95"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
+      <c r="BF3" s="95"/>
+      <c r="BG3" s="95"/>
+      <c r="BH3" s="95"/>
+      <c r="BI3" s="95"/>
+      <c r="BJ3" s="95"/>
+      <c r="BK3" s="95"/>
+      <c r="BL3" s="95"/>
+      <c r="BM3" s="95"/>
+      <c r="BN3" s="95"/>
+      <c r="BO3" s="95"/>
+      <c r="BP3" s="95"/>
+      <c r="BQ3" s="95"/>
+      <c r="BR3" s="95"/>
+      <c r="BS3" s="95"/>
+      <c r="BT3" s="95"/>
+      <c r="BU3" s="95"/>
+      <c r="BV3" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW3" s="95"/>
+      <c r="BX3" s="95"/>
+      <c r="BY3" s="95"/>
+      <c r="BZ3" s="95"/>
+      <c r="CA3" s="95"/>
+      <c r="CB3" s="95"/>
+      <c r="CC3" s="95"/>
+      <c r="CD3" s="95"/>
+      <c r="CE3" s="95"/>
+      <c r="CF3" s="95"/>
+      <c r="CG3" s="95"/>
+      <c r="CH3" s="95"/>
+      <c r="CI3" s="95"/>
+      <c r="CJ3" s="95"/>
+      <c r="CK3" s="95"/>
+      <c r="CL3" s="95"/>
+      <c r="CM3" s="95"/>
+      <c r="CN3" s="95"/>
+      <c r="CO3" s="95"/>
+      <c r="CP3" s="95"/>
+      <c r="CQ3" s="95"/>
+      <c r="CR3" s="95"/>
+      <c r="CS3" s="95"/>
+      <c r="CT3" s="95"/>
+      <c r="CU3" s="95"/>
+      <c r="CV3" s="95"/>
+      <c r="CW3" s="95"/>
+      <c r="CX3" s="95"/>
+      <c r="CY3" s="95"/>
+      <c r="CZ3" s="95"/>
+      <c r="DA3" s="95"/>
+      <c r="DB3" s="95"/>
+      <c r="DC3" s="95"/>
+      <c r="DD3" s="97"/>
       <c r="DY3" s="25"/>
     </row>
     <row r="4" spans="1:129" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="73"/>
-      <c r="BP4" s="73"/>
-      <c r="BQ4" s="73"/>
-      <c r="BR4" s="73"/>
-      <c r="BS4" s="73"/>
-      <c r="BT4" s="73"/>
-      <c r="BU4" s="73"/>
-      <c r="BV4" s="73"/>
-      <c r="BW4" s="73"/>
-      <c r="BX4" s="73"/>
-      <c r="BY4" s="73"/>
-      <c r="BZ4" s="73"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="73"/>
-      <c r="CC4" s="73"/>
-      <c r="CD4" s="73"/>
-      <c r="CE4" s="73"/>
-      <c r="CF4" s="73"/>
-      <c r="CG4" s="73"/>
-      <c r="CH4" s="73"/>
-      <c r="CI4" s="73"/>
-      <c r="CJ4" s="73"/>
-      <c r="CK4" s="73"/>
-      <c r="CL4" s="73"/>
-      <c r="CM4" s="73"/>
-      <c r="CN4" s="73"/>
-      <c r="CO4" s="73"/>
-      <c r="CP4" s="73"/>
-      <c r="CQ4" s="73"/>
-      <c r="CR4" s="73"/>
-      <c r="CS4" s="73"/>
-      <c r="CT4" s="73"/>
-      <c r="CU4" s="73"/>
-      <c r="CV4" s="73"/>
-      <c r="CW4" s="73"/>
-      <c r="CX4" s="73"/>
-      <c r="CY4" s="73"/>
-      <c r="CZ4" s="73"/>
-      <c r="DA4" s="73"/>
-      <c r="DB4" s="73"/>
-      <c r="DC4" s="73"/>
-      <c r="DD4" s="75"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="96"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="96"/>
+      <c r="BN4" s="96"/>
+      <c r="BO4" s="96"/>
+      <c r="BP4" s="96"/>
+      <c r="BQ4" s="96"/>
+      <c r="BR4" s="96"/>
+      <c r="BS4" s="96"/>
+      <c r="BT4" s="96"/>
+      <c r="BU4" s="96"/>
+      <c r="BV4" s="96"/>
+      <c r="BW4" s="96"/>
+      <c r="BX4" s="96"/>
+      <c r="BY4" s="96"/>
+      <c r="BZ4" s="96"/>
+      <c r="CA4" s="96"/>
+      <c r="CB4" s="96"/>
+      <c r="CC4" s="96"/>
+      <c r="CD4" s="96"/>
+      <c r="CE4" s="96"/>
+      <c r="CF4" s="96"/>
+      <c r="CG4" s="96"/>
+      <c r="CH4" s="96"/>
+      <c r="CI4" s="96"/>
+      <c r="CJ4" s="96"/>
+      <c r="CK4" s="96"/>
+      <c r="CL4" s="96"/>
+      <c r="CM4" s="96"/>
+      <c r="CN4" s="96"/>
+      <c r="CO4" s="96"/>
+      <c r="CP4" s="96"/>
+      <c r="CQ4" s="96"/>
+      <c r="CR4" s="96"/>
+      <c r="CS4" s="96"/>
+      <c r="CT4" s="96"/>
+      <c r="CU4" s="96"/>
+      <c r="CV4" s="96"/>
+      <c r="CW4" s="96"/>
+      <c r="CX4" s="96"/>
+      <c r="CY4" s="96"/>
+      <c r="CZ4" s="96"/>
+      <c r="DA4" s="96"/>
+      <c r="DB4" s="96"/>
+      <c r="DC4" s="96"/>
+      <c r="DD4" s="98"/>
       <c r="DY4" s="25"/>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.15">
@@ -6411,7 +6479,7 @@
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.15">
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
@@ -6447,19 +6515,19 @@
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="DY16" s="25"/>
     </row>
     <row r="17" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="DY17" s="25"/>
     </row>
     <row r="18" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F18" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="DY18" s="25"/>
     </row>
@@ -6468,13 +6536,13 @@
     </row>
     <row r="20" spans="4:129" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="DY20" s="25"/>
     </row>
     <row r="21" spans="4:129" x14ac:dyDescent="0.15">
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="DY21" s="25"/>
     </row>
@@ -6482,3434 +6550,2891 @@
       <c r="DY22" s="25"/>
     </row>
     <row r="23" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DY23" s="25"/>
+    </row>
+    <row r="24" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY24" s="25"/>
+    </row>
+    <row r="25" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY25" s="25"/>
+    </row>
+    <row r="26" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY26" s="25"/>
+    </row>
+    <row r="27" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3"/>
+      <c r="CZ27" s="3"/>
+      <c r="DA27" s="3"/>
+      <c r="DB27" s="3"/>
+      <c r="DC27" s="3"/>
+      <c r="DD27" s="3"/>
+      <c r="DE27" s="3"/>
+      <c r="DF27" s="3"/>
+      <c r="DG27" s="3"/>
+      <c r="DH27" s="3"/>
+      <c r="DI27" s="3"/>
+      <c r="DJ27" s="3"/>
+      <c r="DK27" s="3"/>
+      <c r="DL27" s="3"/>
+      <c r="DY27" s="25"/>
+    </row>
+    <row r="28" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="DY28" s="25"/>
+    </row>
+    <row r="29" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F29" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="61"/>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="61"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="61"/>
+      <c r="BC29" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD29" s="61"/>
+      <c r="BE29" s="61"/>
+      <c r="BF29" s="61"/>
+      <c r="BG29" s="61"/>
+      <c r="BH29" s="61"/>
+      <c r="BI29" s="61"/>
+      <c r="BJ29" s="61"/>
+      <c r="BK29" s="61"/>
+      <c r="BL29" s="61"/>
+      <c r="BM29" s="61"/>
+      <c r="BN29" s="61"/>
+      <c r="BO29" s="61"/>
+      <c r="BP29" s="61"/>
+      <c r="BQ29" s="61"/>
+      <c r="BR29" s="61"/>
+      <c r="BS29" s="61"/>
+      <c r="BT29" s="61"/>
+      <c r="BU29" s="61"/>
+      <c r="BV29" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="DY23" s="25"/>
-    </row>
-    <row r="24" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D24" s="2" t="s">
+      <c r="BW29" s="61"/>
+      <c r="BX29" s="61"/>
+      <c r="BY29" s="61"/>
+      <c r="BZ29" s="61"/>
+      <c r="CA29" s="61"/>
+      <c r="CB29" s="61"/>
+      <c r="CC29" s="61"/>
+      <c r="CD29" s="61"/>
+      <c r="CE29" s="61"/>
+      <c r="CF29" s="61"/>
+      <c r="CG29" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH29" s="46"/>
+      <c r="CI29" s="46"/>
+      <c r="CJ29" s="46"/>
+      <c r="CK29" s="46"/>
+      <c r="CL29" s="46"/>
+      <c r="CM29" s="46"/>
+      <c r="CN29" s="46"/>
+      <c r="CO29" s="46"/>
+      <c r="CP29" s="46"/>
+      <c r="CQ29" s="46"/>
+      <c r="CR29" s="46"/>
+      <c r="CS29" s="47"/>
+      <c r="CT29" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU29" s="61"/>
+      <c r="CV29" s="61"/>
+      <c r="CW29" s="61"/>
+      <c r="CX29" s="61"/>
+      <c r="CY29" s="61"/>
+      <c r="CZ29" s="61"/>
+      <c r="DA29" s="61"/>
+      <c r="DB29" s="61"/>
+      <c r="DC29" s="61"/>
+      <c r="DD29" s="61"/>
+      <c r="DE29" s="61"/>
+      <c r="DF29" s="61"/>
+      <c r="DG29" s="61"/>
+      <c r="DH29" s="61"/>
+      <c r="DI29" s="61"/>
+      <c r="DJ29" s="61"/>
+      <c r="DK29" s="61"/>
+      <c r="DL29" s="61"/>
+      <c r="DM29" s="61"/>
+      <c r="DN29" s="61"/>
+      <c r="DO29" s="61"/>
+      <c r="DP29" s="61"/>
+      <c r="DQ29" s="61"/>
+      <c r="DR29" s="61"/>
+      <c r="DS29" s="61"/>
+      <c r="DT29" s="61"/>
+      <c r="DU29" s="61"/>
+      <c r="DY29" s="25"/>
+    </row>
+    <row r="30" spans="4:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="DY24" s="25"/>
-    </row>
-    <row r="25" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY25" s="25"/>
-    </row>
-    <row r="26" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E26" s="105" t="s">
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="63"/>
+      <c r="BC30" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="63"/>
+      <c r="BJ30" s="63"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="63"/>
+      <c r="BO30" s="63"/>
+      <c r="BP30" s="63"/>
+      <c r="BQ30" s="63"/>
+      <c r="BR30" s="63"/>
+      <c r="BS30" s="63"/>
+      <c r="BT30" s="63"/>
+      <c r="BU30" s="63"/>
+      <c r="BV30" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="DY26" s="25"/>
-    </row>
-    <row r="27" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E27" s="2" t="s">
+      <c r="BW30" s="62"/>
+      <c r="BX30" s="62"/>
+      <c r="BY30" s="62"/>
+      <c r="BZ30" s="62"/>
+      <c r="CA30" s="62"/>
+      <c r="CB30" s="62"/>
+      <c r="CC30" s="62"/>
+      <c r="CD30" s="62"/>
+      <c r="CE30" s="62"/>
+      <c r="CF30" s="62"/>
+      <c r="CG30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH30" s="49"/>
+      <c r="CI30" s="49"/>
+      <c r="CJ30" s="49"/>
+      <c r="CK30" s="49"/>
+      <c r="CL30" s="49"/>
+      <c r="CM30" s="49"/>
+      <c r="CN30" s="49"/>
+      <c r="CO30" s="49"/>
+      <c r="CP30" s="49"/>
+      <c r="CQ30" s="49"/>
+      <c r="CR30" s="49"/>
+      <c r="CS30" s="50"/>
+      <c r="CT30" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="CU30" s="49"/>
+      <c r="CV30" s="49"/>
+      <c r="CW30" s="49"/>
+      <c r="CX30" s="49"/>
+      <c r="CY30" s="49"/>
+      <c r="CZ30" s="49"/>
+      <c r="DA30" s="49"/>
+      <c r="DB30" s="49"/>
+      <c r="DC30" s="49"/>
+      <c r="DD30" s="49"/>
+      <c r="DE30" s="49"/>
+      <c r="DF30" s="49"/>
+      <c r="DG30" s="49"/>
+      <c r="DH30" s="49"/>
+      <c r="DI30" s="49"/>
+      <c r="DJ30" s="49"/>
+      <c r="DK30" s="49"/>
+      <c r="DL30" s="49"/>
+      <c r="DM30" s="49"/>
+      <c r="DN30" s="49"/>
+      <c r="DO30" s="49"/>
+      <c r="DP30" s="49"/>
+      <c r="DQ30" s="49"/>
+      <c r="DR30" s="49"/>
+      <c r="DS30" s="49"/>
+      <c r="DT30" s="49"/>
+      <c r="DU30" s="50"/>
+      <c r="DY30" s="25"/>
+    </row>
+    <row r="31" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="62"/>
+      <c r="BA31" s="62"/>
+      <c r="BB31" s="62"/>
+      <c r="BC31" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="49"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="50"/>
+      <c r="BV31" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="BW31" s="62"/>
+      <c r="BX31" s="62"/>
+      <c r="BY31" s="62"/>
+      <c r="BZ31" s="62"/>
+      <c r="CA31" s="62"/>
+      <c r="CB31" s="62"/>
+      <c r="CC31" s="62"/>
+      <c r="CD31" s="62"/>
+      <c r="CE31" s="62"/>
+      <c r="CF31" s="62"/>
+      <c r="CG31" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH31" s="49"/>
+      <c r="CI31" s="49"/>
+      <c r="CJ31" s="49"/>
+      <c r="CK31" s="49"/>
+      <c r="CL31" s="49"/>
+      <c r="CM31" s="49"/>
+      <c r="CN31" s="49"/>
+      <c r="CO31" s="49"/>
+      <c r="CP31" s="49"/>
+      <c r="CQ31" s="49"/>
+      <c r="CR31" s="49"/>
+      <c r="CS31" s="50"/>
+      <c r="CT31" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="CU31" s="62"/>
+      <c r="CV31" s="62"/>
+      <c r="CW31" s="62"/>
+      <c r="CX31" s="62"/>
+      <c r="CY31" s="62"/>
+      <c r="CZ31" s="62"/>
+      <c r="DA31" s="62"/>
+      <c r="DB31" s="62"/>
+      <c r="DC31" s="62"/>
+      <c r="DD31" s="62"/>
+      <c r="DE31" s="62"/>
+      <c r="DF31" s="62"/>
+      <c r="DG31" s="62"/>
+      <c r="DH31" s="62"/>
+      <c r="DI31" s="62"/>
+      <c r="DJ31" s="62"/>
+      <c r="DK31" s="62"/>
+      <c r="DL31" s="62"/>
+      <c r="DM31" s="62"/>
+      <c r="DN31" s="62"/>
+      <c r="DO31" s="62"/>
+      <c r="DP31" s="62"/>
+      <c r="DQ31" s="62"/>
+      <c r="DR31" s="62"/>
+      <c r="DS31" s="62"/>
+      <c r="DT31" s="62"/>
+      <c r="DU31" s="62"/>
+      <c r="DY31" s="25"/>
+    </row>
+    <row r="32" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="DY32" s="25"/>
+    </row>
+    <row r="33" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY33" s="25"/>
+    </row>
+    <row r="34" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F34" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
+      <c r="BM34" s="61"/>
+      <c r="BN34" s="61"/>
+      <c r="BO34" s="61"/>
+      <c r="BP34" s="61"/>
+      <c r="BQ34" s="61"/>
+      <c r="BR34" s="61"/>
+      <c r="BS34" s="61"/>
+      <c r="BT34" s="61"/>
+      <c r="BU34" s="61"/>
+      <c r="BV34" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW34" s="61"/>
+      <c r="BX34" s="61"/>
+      <c r="BY34" s="61"/>
+      <c r="BZ34" s="61"/>
+      <c r="CA34" s="61"/>
+      <c r="CB34" s="61"/>
+      <c r="CC34" s="61"/>
+      <c r="CD34" s="61"/>
+      <c r="CE34" s="61"/>
+      <c r="CF34" s="61"/>
+      <c r="CG34" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH34" s="46"/>
+      <c r="CI34" s="46"/>
+      <c r="CJ34" s="46"/>
+      <c r="CK34" s="46"/>
+      <c r="CL34" s="46"/>
+      <c r="CM34" s="46"/>
+      <c r="CN34" s="46"/>
+      <c r="CO34" s="46"/>
+      <c r="CP34" s="46"/>
+      <c r="CQ34" s="46"/>
+      <c r="CR34" s="46"/>
+      <c r="CS34" s="47"/>
+      <c r="CT34" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU34" s="61"/>
+      <c r="CV34" s="61"/>
+      <c r="CW34" s="61"/>
+      <c r="CX34" s="61"/>
+      <c r="CY34" s="61"/>
+      <c r="CZ34" s="61"/>
+      <c r="DA34" s="61"/>
+      <c r="DB34" s="61"/>
+      <c r="DC34" s="61"/>
+      <c r="DD34" s="61"/>
+      <c r="DE34" s="61"/>
+      <c r="DF34" s="61"/>
+      <c r="DG34" s="61"/>
+      <c r="DH34" s="61"/>
+      <c r="DI34" s="61"/>
+      <c r="DJ34" s="61"/>
+      <c r="DK34" s="61"/>
+      <c r="DL34" s="61"/>
+      <c r="DM34" s="61"/>
+      <c r="DN34" s="61"/>
+      <c r="DO34" s="61"/>
+      <c r="DP34" s="61"/>
+      <c r="DQ34" s="61"/>
+      <c r="DR34" s="61"/>
+      <c r="DS34" s="61"/>
+      <c r="DT34" s="61"/>
+      <c r="DU34" s="61"/>
+      <c r="DY34" s="25"/>
+    </row>
+    <row r="35" spans="5:129" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="63"/>
+      <c r="BC35" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD35" s="62"/>
+      <c r="BE35" s="62"/>
+      <c r="BF35" s="62"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="62"/>
+      <c r="BI35" s="62"/>
+      <c r="BJ35" s="62"/>
+      <c r="BK35" s="62"/>
+      <c r="BL35" s="62"/>
+      <c r="BM35" s="62"/>
+      <c r="BN35" s="62"/>
+      <c r="BO35" s="62"/>
+      <c r="BP35" s="62"/>
+      <c r="BQ35" s="62"/>
+      <c r="BR35" s="62"/>
+      <c r="BS35" s="62"/>
+      <c r="BT35" s="62"/>
+      <c r="BU35" s="62"/>
+      <c r="BV35" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW35" s="62"/>
+      <c r="BX35" s="62"/>
+      <c r="BY35" s="62"/>
+      <c r="BZ35" s="62"/>
+      <c r="CA35" s="62"/>
+      <c r="CB35" s="62"/>
+      <c r="CC35" s="62"/>
+      <c r="CD35" s="62"/>
+      <c r="CE35" s="62"/>
+      <c r="CF35" s="62"/>
+      <c r="CG35" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH35" s="49"/>
+      <c r="CI35" s="49"/>
+      <c r="CJ35" s="49"/>
+      <c r="CK35" s="49"/>
+      <c r="CL35" s="49"/>
+      <c r="CM35" s="49"/>
+      <c r="CN35" s="49"/>
+      <c r="CO35" s="49"/>
+      <c r="CP35" s="49"/>
+      <c r="CQ35" s="49"/>
+      <c r="CR35" s="49"/>
+      <c r="CS35" s="50"/>
+      <c r="CT35" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU35" s="62"/>
+      <c r="CV35" s="62"/>
+      <c r="CW35" s="62"/>
+      <c r="CX35" s="62"/>
+      <c r="CY35" s="62"/>
+      <c r="CZ35" s="62"/>
+      <c r="DA35" s="62"/>
+      <c r="DB35" s="62"/>
+      <c r="DC35" s="62"/>
+      <c r="DD35" s="62"/>
+      <c r="DE35" s="62"/>
+      <c r="DF35" s="62"/>
+      <c r="DG35" s="62"/>
+      <c r="DH35" s="62"/>
+      <c r="DI35" s="62"/>
+      <c r="DJ35" s="62"/>
+      <c r="DK35" s="62"/>
+      <c r="DL35" s="62"/>
+      <c r="DM35" s="62"/>
+      <c r="DN35" s="62"/>
+      <c r="DO35" s="62"/>
+      <c r="DP35" s="62"/>
+      <c r="DQ35" s="62"/>
+      <c r="DR35" s="62"/>
+      <c r="DS35" s="62"/>
+      <c r="DT35" s="62"/>
+      <c r="DU35" s="62"/>
+      <c r="DY35" s="25"/>
+    </row>
+    <row r="36" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+      <c r="CT36" s="4"/>
+      <c r="CU36" s="4"/>
+      <c r="CV36" s="4"/>
+      <c r="CW36" s="4"/>
+      <c r="CX36" s="4"/>
+      <c r="CY36" s="4"/>
+      <c r="CZ36" s="4"/>
+      <c r="DA36" s="4"/>
+      <c r="DB36" s="4"/>
+      <c r="DC36" s="4"/>
+      <c r="DD36" s="4"/>
+      <c r="DE36" s="4"/>
+      <c r="DF36" s="4"/>
+      <c r="DG36" s="4"/>
+      <c r="DH36" s="4"/>
+      <c r="DI36" s="4"/>
+      <c r="DJ36" s="4"/>
+      <c r="DK36" s="4"/>
+      <c r="DL36" s="4"/>
+      <c r="DY36" s="25"/>
+    </row>
+    <row r="37" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E37" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="4"/>
+      <c r="BT37" s="4"/>
+      <c r="BU37" s="4"/>
+      <c r="CT37" s="4"/>
+      <c r="CU37" s="4"/>
+      <c r="CV37" s="4"/>
+      <c r="CW37" s="4"/>
+      <c r="CX37" s="4"/>
+      <c r="CY37" s="4"/>
+      <c r="CZ37" s="4"/>
+      <c r="DA37" s="4"/>
+      <c r="DB37" s="4"/>
+      <c r="DC37" s="4"/>
+      <c r="DD37" s="4"/>
+      <c r="DE37" s="4"/>
+      <c r="DF37" s="4"/>
+      <c r="DG37" s="4"/>
+      <c r="DH37" s="4"/>
+      <c r="DI37" s="4"/>
+      <c r="DJ37" s="4"/>
+      <c r="DK37" s="4"/>
+      <c r="DL37" s="4"/>
+      <c r="DY37" s="25"/>
+    </row>
+    <row r="38" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F38" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="61"/>
+      <c r="BJ38" s="61"/>
+      <c r="BK38" s="61"/>
+      <c r="BL38" s="61"/>
+      <c r="BM38" s="61"/>
+      <c r="BN38" s="61"/>
+      <c r="BO38" s="61"/>
+      <c r="BP38" s="61"/>
+      <c r="BQ38" s="61"/>
+      <c r="BR38" s="61"/>
+      <c r="BS38" s="61"/>
+      <c r="BT38" s="61"/>
+      <c r="BU38" s="61"/>
+      <c r="BV38" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW38" s="61"/>
+      <c r="BX38" s="61"/>
+      <c r="BY38" s="61"/>
+      <c r="BZ38" s="61"/>
+      <c r="CA38" s="61"/>
+      <c r="CB38" s="61"/>
+      <c r="CC38" s="61"/>
+      <c r="CD38" s="61"/>
+      <c r="CE38" s="61"/>
+      <c r="CF38" s="61"/>
+      <c r="CG38" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH38" s="46"/>
+      <c r="CI38" s="46"/>
+      <c r="CJ38" s="46"/>
+      <c r="CK38" s="46"/>
+      <c r="CL38" s="46"/>
+      <c r="CM38" s="46"/>
+      <c r="CN38" s="46"/>
+      <c r="CO38" s="46"/>
+      <c r="CP38" s="46"/>
+      <c r="CQ38" s="46"/>
+      <c r="CR38" s="46"/>
+      <c r="CS38" s="47"/>
+      <c r="CT38" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU38" s="61"/>
+      <c r="CV38" s="61"/>
+      <c r="CW38" s="61"/>
+      <c r="CX38" s="61"/>
+      <c r="CY38" s="61"/>
+      <c r="CZ38" s="61"/>
+      <c r="DA38" s="61"/>
+      <c r="DB38" s="61"/>
+      <c r="DC38" s="61"/>
+      <c r="DD38" s="61"/>
+      <c r="DE38" s="61"/>
+      <c r="DF38" s="61"/>
+      <c r="DG38" s="61"/>
+      <c r="DH38" s="61"/>
+      <c r="DI38" s="61"/>
+      <c r="DJ38" s="61"/>
+      <c r="DK38" s="61"/>
+      <c r="DL38" s="61"/>
+      <c r="DM38" s="61"/>
+      <c r="DN38" s="61"/>
+      <c r="DO38" s="61"/>
+      <c r="DP38" s="61"/>
+      <c r="DQ38" s="61"/>
+      <c r="DR38" s="61"/>
+      <c r="DS38" s="61"/>
+      <c r="DT38" s="61"/>
+      <c r="DU38" s="61"/>
+      <c r="DY38" s="25"/>
+    </row>
+    <row r="39" spans="5:129" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="DY27" s="25"/>
-    </row>
-    <row r="28" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY28" s="25"/>
-    </row>
-    <row r="29" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E29" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="DY29" s="25"/>
-    </row>
-    <row r="30" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F30" s="52" t="s">
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="62"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="63"/>
+      <c r="AV39" s="63"/>
+      <c r="AW39" s="63"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="63"/>
+      <c r="BC39" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD39" s="62"/>
+      <c r="BE39" s="62"/>
+      <c r="BF39" s="62"/>
+      <c r="BG39" s="62"/>
+      <c r="BH39" s="62"/>
+      <c r="BI39" s="62"/>
+      <c r="BJ39" s="62"/>
+      <c r="BK39" s="62"/>
+      <c r="BL39" s="62"/>
+      <c r="BM39" s="62"/>
+      <c r="BN39" s="62"/>
+      <c r="BO39" s="62"/>
+      <c r="BP39" s="62"/>
+      <c r="BQ39" s="62"/>
+      <c r="BR39" s="62"/>
+      <c r="BS39" s="62"/>
+      <c r="BT39" s="62"/>
+      <c r="BU39" s="62"/>
+      <c r="BV39" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW39" s="62"/>
+      <c r="BX39" s="62"/>
+      <c r="BY39" s="62"/>
+      <c r="BZ39" s="62"/>
+      <c r="CA39" s="62"/>
+      <c r="CB39" s="62"/>
+      <c r="CC39" s="62"/>
+      <c r="CD39" s="62"/>
+      <c r="CE39" s="62"/>
+      <c r="CF39" s="62"/>
+      <c r="CG39" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH39" s="49"/>
+      <c r="CI39" s="49"/>
+      <c r="CJ39" s="49"/>
+      <c r="CK39" s="49"/>
+      <c r="CL39" s="49"/>
+      <c r="CM39" s="49"/>
+      <c r="CN39" s="49"/>
+      <c r="CO39" s="49"/>
+      <c r="CP39" s="49"/>
+      <c r="CQ39" s="49"/>
+      <c r="CR39" s="49"/>
+      <c r="CS39" s="50"/>
+      <c r="CT39" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU39" s="51"/>
+      <c r="CV39" s="51"/>
+      <c r="CW39" s="51"/>
+      <c r="CX39" s="51"/>
+      <c r="CY39" s="51"/>
+      <c r="CZ39" s="51"/>
+      <c r="DA39" s="51"/>
+      <c r="DB39" s="51"/>
+      <c r="DC39" s="51"/>
+      <c r="DD39" s="51"/>
+      <c r="DE39" s="51"/>
+      <c r="DF39" s="51"/>
+      <c r="DG39" s="51"/>
+      <c r="DH39" s="51"/>
+      <c r="DI39" s="51"/>
+      <c r="DJ39" s="51"/>
+      <c r="DK39" s="51"/>
+      <c r="DL39" s="51"/>
+      <c r="DM39" s="51"/>
+      <c r="DN39" s="51"/>
+      <c r="DO39" s="51"/>
+      <c r="DP39" s="51"/>
+      <c r="DQ39" s="51"/>
+      <c r="DR39" s="51"/>
+      <c r="DS39" s="51"/>
+      <c r="DT39" s="51"/>
+      <c r="DU39" s="51"/>
+      <c r="DY39" s="25"/>
+    </row>
+    <row r="40" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY40" s="25"/>
+    </row>
+    <row r="41" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E41" s="30"/>
+      <c r="DY41" s="25"/>
+    </row>
+    <row r="42" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="52" t="s">
+      <c r="DY42" s="25"/>
+    </row>
+    <row r="43" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY43" s="25"/>
+    </row>
+    <row r="44" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY44" s="25"/>
+    </row>
+    <row r="45" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F45" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="52" t="s">
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="61"/>
+      <c r="AT45" s="61"/>
+      <c r="AU45" s="61"/>
+      <c r="AV45" s="61"/>
+      <c r="AW45" s="61"/>
+      <c r="AX45" s="61"/>
+      <c r="AY45" s="61"/>
+      <c r="AZ45" s="61"/>
+      <c r="BA45" s="61"/>
+      <c r="BB45" s="61"/>
+      <c r="BC45" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD45" s="61"/>
+      <c r="BE45" s="61"/>
+      <c r="BF45" s="61"/>
+      <c r="BG45" s="61"/>
+      <c r="BH45" s="61"/>
+      <c r="BI45" s="61"/>
+      <c r="BJ45" s="61"/>
+      <c r="BK45" s="61"/>
+      <c r="BL45" s="61"/>
+      <c r="BM45" s="61"/>
+      <c r="BN45" s="61"/>
+      <c r="BO45" s="61"/>
+      <c r="BP45" s="61"/>
+      <c r="BQ45" s="61"/>
+      <c r="BR45" s="61"/>
+      <c r="BS45" s="61"/>
+      <c r="BT45" s="61"/>
+      <c r="BU45" s="61"/>
+      <c r="BV45" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW45" s="61"/>
+      <c r="BX45" s="61"/>
+      <c r="BY45" s="61"/>
+      <c r="BZ45" s="61"/>
+      <c r="CA45" s="61"/>
+      <c r="CB45" s="61"/>
+      <c r="CC45" s="61"/>
+      <c r="CD45" s="61"/>
+      <c r="CE45" s="61"/>
+      <c r="CF45" s="61"/>
+      <c r="CG45" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH45" s="46"/>
+      <c r="CI45" s="46"/>
+      <c r="CJ45" s="46"/>
+      <c r="CK45" s="46"/>
+      <c r="CL45" s="46"/>
+      <c r="CM45" s="46"/>
+      <c r="CN45" s="46"/>
+      <c r="CO45" s="46"/>
+      <c r="CP45" s="46"/>
+      <c r="CQ45" s="46"/>
+      <c r="CR45" s="46"/>
+      <c r="CS45" s="47"/>
+      <c r="CT45" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU45" s="61"/>
+      <c r="CV45" s="61"/>
+      <c r="CW45" s="61"/>
+      <c r="CX45" s="61"/>
+      <c r="CY45" s="61"/>
+      <c r="CZ45" s="61"/>
+      <c r="DA45" s="61"/>
+      <c r="DB45" s="61"/>
+      <c r="DC45" s="61"/>
+      <c r="DD45" s="61"/>
+      <c r="DE45" s="61"/>
+      <c r="DF45" s="61"/>
+      <c r="DG45" s="61"/>
+      <c r="DH45" s="61"/>
+      <c r="DI45" s="61"/>
+      <c r="DJ45" s="61"/>
+      <c r="DK45" s="61"/>
+      <c r="DL45" s="61"/>
+      <c r="DM45" s="61"/>
+      <c r="DN45" s="61"/>
+      <c r="DO45" s="61"/>
+      <c r="DP45" s="61"/>
+      <c r="DQ45" s="61"/>
+      <c r="DR45" s="61"/>
+      <c r="DS45" s="61"/>
+      <c r="DT45" s="61"/>
+      <c r="DU45" s="61"/>
+      <c r="DY45" s="25"/>
+    </row>
+    <row r="46" spans="5:129" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="62"/>
+      <c r="AG46" s="62"/>
+      <c r="AH46" s="62"/>
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="62"/>
+      <c r="AM46" s="62"/>
+      <c r="AN46" s="62"/>
+      <c r="AO46" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="63"/>
+      <c r="AV46" s="63"/>
+      <c r="AW46" s="63"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="63"/>
+      <c r="AZ46" s="63"/>
+      <c r="BA46" s="63"/>
+      <c r="BB46" s="63"/>
+      <c r="BC46" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD46" s="63"/>
+      <c r="BE46" s="63"/>
+      <c r="BF46" s="63"/>
+      <c r="BG46" s="63"/>
+      <c r="BH46" s="63"/>
+      <c r="BI46" s="63"/>
+      <c r="BJ46" s="63"/>
+      <c r="BK46" s="63"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="63"/>
+      <c r="BN46" s="63"/>
+      <c r="BO46" s="63"/>
+      <c r="BP46" s="63"/>
+      <c r="BQ46" s="63"/>
+      <c r="BR46" s="63"/>
+      <c r="BS46" s="63"/>
+      <c r="BT46" s="63"/>
+      <c r="BU46" s="63"/>
+      <c r="BV46" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW46" s="62"/>
+      <c r="BX46" s="62"/>
+      <c r="BY46" s="62"/>
+      <c r="BZ46" s="62"/>
+      <c r="CA46" s="62"/>
+      <c r="CB46" s="62"/>
+      <c r="CC46" s="62"/>
+      <c r="CD46" s="62"/>
+      <c r="CE46" s="62"/>
+      <c r="CF46" s="62"/>
+      <c r="CG46" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH46" s="49"/>
+      <c r="CI46" s="49"/>
+      <c r="CJ46" s="49"/>
+      <c r="CK46" s="49"/>
+      <c r="CL46" s="49"/>
+      <c r="CM46" s="49"/>
+      <c r="CN46" s="49"/>
+      <c r="CO46" s="49"/>
+      <c r="CP46" s="49"/>
+      <c r="CQ46" s="49"/>
+      <c r="CR46" s="49"/>
+      <c r="CS46" s="50"/>
+      <c r="CT46" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU46" s="62"/>
+      <c r="CV46" s="62"/>
+      <c r="CW46" s="62"/>
+      <c r="CX46" s="62"/>
+      <c r="CY46" s="62"/>
+      <c r="CZ46" s="62"/>
+      <c r="DA46" s="62"/>
+      <c r="DB46" s="62"/>
+      <c r="DC46" s="62"/>
+      <c r="DD46" s="62"/>
+      <c r="DE46" s="62"/>
+      <c r="DF46" s="62"/>
+      <c r="DG46" s="62"/>
+      <c r="DH46" s="62"/>
+      <c r="DI46" s="62"/>
+      <c r="DJ46" s="62"/>
+      <c r="DK46" s="62"/>
+      <c r="DL46" s="62"/>
+      <c r="DM46" s="62"/>
+      <c r="DN46" s="62"/>
+      <c r="DO46" s="62"/>
+      <c r="DP46" s="62"/>
+      <c r="DQ46" s="62"/>
+      <c r="DR46" s="62"/>
+      <c r="DS46" s="62"/>
+      <c r="DT46" s="62"/>
+      <c r="DU46" s="62"/>
+      <c r="DY46" s="25"/>
+    </row>
+    <row r="47" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="62"/>
+      <c r="AN47" s="62"/>
+      <c r="AO47" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP47" s="63"/>
+      <c r="AQ47" s="63"/>
+      <c r="AR47" s="63"/>
+      <c r="AS47" s="63"/>
+      <c r="AT47" s="63"/>
+      <c r="AU47" s="63"/>
+      <c r="AV47" s="63"/>
+      <c r="AW47" s="63"/>
+      <c r="AX47" s="63"/>
+      <c r="AY47" s="63"/>
+      <c r="AZ47" s="63"/>
+      <c r="BA47" s="63"/>
+      <c r="BB47" s="63"/>
+      <c r="BC47" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD47" s="49"/>
+      <c r="BE47" s="49"/>
+      <c r="BF47" s="49"/>
+      <c r="BG47" s="49"/>
+      <c r="BH47" s="49"/>
+      <c r="BI47" s="49"/>
+      <c r="BJ47" s="49"/>
+      <c r="BK47" s="49"/>
+      <c r="BL47" s="49"/>
+      <c r="BM47" s="49"/>
+      <c r="BN47" s="49"/>
+      <c r="BO47" s="49"/>
+      <c r="BP47" s="49"/>
+      <c r="BQ47" s="49"/>
+      <c r="BR47" s="49"/>
+      <c r="BS47" s="49"/>
+      <c r="BT47" s="49"/>
+      <c r="BU47" s="50"/>
+      <c r="BV47" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW47" s="62"/>
+      <c r="BX47" s="62"/>
+      <c r="BY47" s="62"/>
+      <c r="BZ47" s="62"/>
+      <c r="CA47" s="62"/>
+      <c r="CB47" s="62"/>
+      <c r="CC47" s="62"/>
+      <c r="CD47" s="62"/>
+      <c r="CE47" s="62"/>
+      <c r="CF47" s="62"/>
+      <c r="CG47" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH47" s="72"/>
+      <c r="CI47" s="72"/>
+      <c r="CJ47" s="72"/>
+      <c r="CK47" s="72"/>
+      <c r="CL47" s="72"/>
+      <c r="CM47" s="72"/>
+      <c r="CN47" s="72"/>
+      <c r="CO47" s="72"/>
+      <c r="CP47" s="72"/>
+      <c r="CQ47" s="72"/>
+      <c r="CR47" s="72"/>
+      <c r="CS47" s="73"/>
+      <c r="CT47" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="53"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="53"/>
-      <c r="BJ30" s="53"/>
-      <c r="BK30" s="53"/>
-      <c r="BL30" s="53"/>
-      <c r="BM30" s="53"/>
-      <c r="BN30" s="53"/>
-      <c r="BO30" s="53"/>
-      <c r="BP30" s="53"/>
-      <c r="BQ30" s="53"/>
-      <c r="BR30" s="53"/>
-      <c r="BS30" s="53"/>
-      <c r="BT30" s="53"/>
-      <c r="BU30" s="54"/>
-      <c r="BV30" s="52" t="s">
+      <c r="CU47" s="62"/>
+      <c r="CV47" s="62"/>
+      <c r="CW47" s="62"/>
+      <c r="CX47" s="62"/>
+      <c r="CY47" s="62"/>
+      <c r="CZ47" s="62"/>
+      <c r="DA47" s="62"/>
+      <c r="DB47" s="62"/>
+      <c r="DC47" s="62"/>
+      <c r="DD47" s="62"/>
+      <c r="DE47" s="62"/>
+      <c r="DF47" s="62"/>
+      <c r="DG47" s="62"/>
+      <c r="DH47" s="62"/>
+      <c r="DI47" s="62"/>
+      <c r="DJ47" s="62"/>
+      <c r="DK47" s="62"/>
+      <c r="DL47" s="62"/>
+      <c r="DM47" s="62"/>
+      <c r="DN47" s="62"/>
+      <c r="DO47" s="62"/>
+      <c r="DP47" s="62"/>
+      <c r="DQ47" s="62"/>
+      <c r="DR47" s="62"/>
+      <c r="DS47" s="62"/>
+      <c r="DT47" s="62"/>
+      <c r="DU47" s="62"/>
+      <c r="DY47" s="25"/>
+    </row>
+    <row r="48" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="62"/>
+      <c r="AE48" s="62"/>
+      <c r="AF48" s="62"/>
+      <c r="AG48" s="62"/>
+      <c r="AH48" s="62"/>
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="62"/>
+      <c r="AK48" s="62"/>
+      <c r="AL48" s="62"/>
+      <c r="AM48" s="62"/>
+      <c r="AN48" s="62"/>
+      <c r="AO48" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP48" s="63"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+      <c r="AT48" s="63"/>
+      <c r="AU48" s="63"/>
+      <c r="AV48" s="63"/>
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63"/>
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="63"/>
+      <c r="BC48" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD48" s="62"/>
+      <c r="BE48" s="62"/>
+      <c r="BF48" s="62"/>
+      <c r="BG48" s="62"/>
+      <c r="BH48" s="62"/>
+      <c r="BI48" s="62"/>
+      <c r="BJ48" s="62"/>
+      <c r="BK48" s="62"/>
+      <c r="BL48" s="62"/>
+      <c r="BM48" s="62"/>
+      <c r="BN48" s="62"/>
+      <c r="BO48" s="62"/>
+      <c r="BP48" s="62"/>
+      <c r="BQ48" s="62"/>
+      <c r="BR48" s="62"/>
+      <c r="BS48" s="62"/>
+      <c r="BT48" s="62"/>
+      <c r="BU48" s="62"/>
+      <c r="BV48" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW48" s="62"/>
+      <c r="BX48" s="62"/>
+      <c r="BY48" s="62"/>
+      <c r="BZ48" s="62"/>
+      <c r="CA48" s="62"/>
+      <c r="CB48" s="62"/>
+      <c r="CC48" s="62"/>
+      <c r="CD48" s="62"/>
+      <c r="CE48" s="62"/>
+      <c r="CF48" s="62"/>
+      <c r="CG48" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH48" s="49"/>
+      <c r="CI48" s="49"/>
+      <c r="CJ48" s="49"/>
+      <c r="CK48" s="49"/>
+      <c r="CL48" s="49"/>
+      <c r="CM48" s="49"/>
+      <c r="CN48" s="49"/>
+      <c r="CO48" s="49"/>
+      <c r="CP48" s="49"/>
+      <c r="CQ48" s="49"/>
+      <c r="CR48" s="49"/>
+      <c r="CS48" s="50"/>
+      <c r="CT48" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="CU48" s="62"/>
+      <c r="CV48" s="62"/>
+      <c r="CW48" s="62"/>
+      <c r="CX48" s="62"/>
+      <c r="CY48" s="62"/>
+      <c r="CZ48" s="62"/>
+      <c r="DA48" s="62"/>
+      <c r="DB48" s="62"/>
+      <c r="DC48" s="62"/>
+      <c r="DD48" s="62"/>
+      <c r="DE48" s="62"/>
+      <c r="DF48" s="62"/>
+      <c r="DG48" s="62"/>
+      <c r="DH48" s="62"/>
+      <c r="DI48" s="62"/>
+      <c r="DJ48" s="62"/>
+      <c r="DK48" s="62"/>
+      <c r="DL48" s="62"/>
+      <c r="DM48" s="62"/>
+      <c r="DN48" s="62"/>
+      <c r="DO48" s="62"/>
+      <c r="DP48" s="62"/>
+      <c r="DQ48" s="62"/>
+      <c r="DR48" s="62"/>
+      <c r="DS48" s="62"/>
+      <c r="DT48" s="62"/>
+      <c r="DU48" s="62"/>
+      <c r="DY48" s="25"/>
+    </row>
+    <row r="49" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="62"/>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="62"/>
+      <c r="AG49" s="62"/>
+      <c r="AH49" s="62"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="62"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="62"/>
+      <c r="AM49" s="62"/>
+      <c r="AN49" s="62"/>
+      <c r="AO49" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP49" s="63"/>
+      <c r="AQ49" s="63"/>
+      <c r="AR49" s="63"/>
+      <c r="AS49" s="63"/>
+      <c r="AT49" s="63"/>
+      <c r="AU49" s="63"/>
+      <c r="AV49" s="63"/>
+      <c r="AW49" s="63"/>
+      <c r="AX49" s="63"/>
+      <c r="AY49" s="63"/>
+      <c r="AZ49" s="63"/>
+      <c r="BA49" s="63"/>
+      <c r="BB49" s="63"/>
+      <c r="BC49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD49" s="63"/>
+      <c r="BE49" s="63"/>
+      <c r="BF49" s="63"/>
+      <c r="BG49" s="63"/>
+      <c r="BH49" s="63"/>
+      <c r="BI49" s="63"/>
+      <c r="BJ49" s="63"/>
+      <c r="BK49" s="63"/>
+      <c r="BL49" s="63"/>
+      <c r="BM49" s="63"/>
+      <c r="BN49" s="63"/>
+      <c r="BO49" s="63"/>
+      <c r="BP49" s="63"/>
+      <c r="BQ49" s="63"/>
+      <c r="BR49" s="63"/>
+      <c r="BS49" s="63"/>
+      <c r="BT49" s="63"/>
+      <c r="BU49" s="63"/>
+      <c r="BV49" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW49" s="62"/>
+      <c r="BX49" s="62"/>
+      <c r="BY49" s="62"/>
+      <c r="BZ49" s="62"/>
+      <c r="CA49" s="62"/>
+      <c r="CB49" s="62"/>
+      <c r="CC49" s="62"/>
+      <c r="CD49" s="62"/>
+      <c r="CE49" s="62"/>
+      <c r="CF49" s="62"/>
+      <c r="CG49" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH49" s="49"/>
+      <c r="CI49" s="49"/>
+      <c r="CJ49" s="49"/>
+      <c r="CK49" s="49"/>
+      <c r="CL49" s="49"/>
+      <c r="CM49" s="49"/>
+      <c r="CN49" s="49"/>
+      <c r="CO49" s="49"/>
+      <c r="CP49" s="49"/>
+      <c r="CQ49" s="49"/>
+      <c r="CR49" s="49"/>
+      <c r="CS49" s="50"/>
+      <c r="CT49" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="CU49" s="62"/>
+      <c r="CV49" s="62"/>
+      <c r="CW49" s="62"/>
+      <c r="CX49" s="62"/>
+      <c r="CY49" s="62"/>
+      <c r="CZ49" s="62"/>
+      <c r="DA49" s="62"/>
+      <c r="DB49" s="62"/>
+      <c r="DC49" s="62"/>
+      <c r="DD49" s="62"/>
+      <c r="DE49" s="62"/>
+      <c r="DF49" s="62"/>
+      <c r="DG49" s="62"/>
+      <c r="DH49" s="62"/>
+      <c r="DI49" s="62"/>
+      <c r="DJ49" s="62"/>
+      <c r="DK49" s="62"/>
+      <c r="DL49" s="62"/>
+      <c r="DM49" s="62"/>
+      <c r="DN49" s="62"/>
+      <c r="DO49" s="62"/>
+      <c r="DP49" s="62"/>
+      <c r="DQ49" s="62"/>
+      <c r="DR49" s="62"/>
+      <c r="DS49" s="62"/>
+      <c r="DT49" s="62"/>
+      <c r="DU49" s="62"/>
+      <c r="DY49" s="25"/>
+    </row>
+    <row r="50" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="62"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="62"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="62"/>
+      <c r="AM50" s="62"/>
+      <c r="AN50" s="62"/>
+      <c r="AO50" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="63"/>
+      <c r="AZ50" s="63"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="63"/>
+      <c r="BC50" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD50" s="63"/>
+      <c r="BE50" s="63"/>
+      <c r="BF50" s="63"/>
+      <c r="BG50" s="63"/>
+      <c r="BH50" s="63"/>
+      <c r="BI50" s="63"/>
+      <c r="BJ50" s="63"/>
+      <c r="BK50" s="63"/>
+      <c r="BL50" s="63"/>
+      <c r="BM50" s="63"/>
+      <c r="BN50" s="63"/>
+      <c r="BO50" s="63"/>
+      <c r="BP50" s="63"/>
+      <c r="BQ50" s="63"/>
+      <c r="BR50" s="63"/>
+      <c r="BS50" s="63"/>
+      <c r="BT50" s="63"/>
+      <c r="BU50" s="63"/>
+      <c r="BV50" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW50" s="62"/>
+      <c r="BX50" s="62"/>
+      <c r="BY50" s="62"/>
+      <c r="BZ50" s="62"/>
+      <c r="CA50" s="62"/>
+      <c r="CB50" s="62"/>
+      <c r="CC50" s="62"/>
+      <c r="CD50" s="62"/>
+      <c r="CE50" s="62"/>
+      <c r="CF50" s="62"/>
+      <c r="CG50" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="CH50" s="49"/>
+      <c r="CI50" s="49"/>
+      <c r="CJ50" s="49"/>
+      <c r="CK50" s="49"/>
+      <c r="CL50" s="49"/>
+      <c r="CM50" s="49"/>
+      <c r="CN50" s="49"/>
+      <c r="CO50" s="49"/>
+      <c r="CP50" s="49"/>
+      <c r="CQ50" s="49"/>
+      <c r="CR50" s="49"/>
+      <c r="CS50" s="50"/>
+      <c r="CT50" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU50" s="62"/>
+      <c r="CV50" s="62"/>
+      <c r="CW50" s="62"/>
+      <c r="CX50" s="62"/>
+      <c r="CY50" s="62"/>
+      <c r="CZ50" s="62"/>
+      <c r="DA50" s="62"/>
+      <c r="DB50" s="62"/>
+      <c r="DC50" s="62"/>
+      <c r="DD50" s="62"/>
+      <c r="DE50" s="62"/>
+      <c r="DF50" s="62"/>
+      <c r="DG50" s="62"/>
+      <c r="DH50" s="62"/>
+      <c r="DI50" s="62"/>
+      <c r="DJ50" s="62"/>
+      <c r="DK50" s="62"/>
+      <c r="DL50" s="62"/>
+      <c r="DM50" s="62"/>
+      <c r="DN50" s="62"/>
+      <c r="DO50" s="62"/>
+      <c r="DP50" s="62"/>
+      <c r="DQ50" s="62"/>
+      <c r="DR50" s="62"/>
+      <c r="DS50" s="62"/>
+      <c r="DT50" s="62"/>
+      <c r="DU50" s="62"/>
+      <c r="DY50" s="25"/>
+    </row>
+    <row r="51" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="DY51" s="25"/>
+    </row>
+    <row r="52" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="DY52" s="25"/>
+    </row>
+    <row r="53" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="61"/>
+      <c r="AS53" s="61"/>
+      <c r="AT53" s="61"/>
+      <c r="AU53" s="61"/>
+      <c r="AV53" s="61"/>
+      <c r="AW53" s="61"/>
+      <c r="AX53" s="61"/>
+      <c r="AY53" s="61"/>
+      <c r="AZ53" s="61"/>
+      <c r="BA53" s="61"/>
+      <c r="BB53" s="61"/>
+      <c r="BC53" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD53" s="61"/>
+      <c r="BE53" s="61"/>
+      <c r="BF53" s="61"/>
+      <c r="BG53" s="61"/>
+      <c r="BH53" s="61"/>
+      <c r="BI53" s="61"/>
+      <c r="BJ53" s="61"/>
+      <c r="BK53" s="61"/>
+      <c r="BL53" s="61"/>
+      <c r="BM53" s="61"/>
+      <c r="BN53" s="61"/>
+      <c r="BO53" s="61"/>
+      <c r="BP53" s="61"/>
+      <c r="BQ53" s="61"/>
+      <c r="BR53" s="61"/>
+      <c r="BS53" s="61"/>
+      <c r="BT53" s="61"/>
+      <c r="BU53" s="61"/>
+      <c r="BV53" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW53" s="61"/>
+      <c r="BX53" s="61"/>
+      <c r="BY53" s="61"/>
+      <c r="BZ53" s="61"/>
+      <c r="CA53" s="61"/>
+      <c r="CB53" s="61"/>
+      <c r="CC53" s="61"/>
+      <c r="CD53" s="61"/>
+      <c r="CE53" s="61"/>
+      <c r="CF53" s="61"/>
+      <c r="CG53" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH53" s="46"/>
+      <c r="CI53" s="46"/>
+      <c r="CJ53" s="46"/>
+      <c r="CK53" s="46"/>
+      <c r="CL53" s="46"/>
+      <c r="CM53" s="46"/>
+      <c r="CN53" s="46"/>
+      <c r="CO53" s="46"/>
+      <c r="CP53" s="46"/>
+      <c r="CQ53" s="46"/>
+      <c r="CR53" s="46"/>
+      <c r="CS53" s="47"/>
+      <c r="CT53" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU53" s="61"/>
+      <c r="CV53" s="61"/>
+      <c r="CW53" s="61"/>
+      <c r="CX53" s="61"/>
+      <c r="CY53" s="61"/>
+      <c r="CZ53" s="61"/>
+      <c r="DA53" s="61"/>
+      <c r="DB53" s="61"/>
+      <c r="DC53" s="61"/>
+      <c r="DD53" s="61"/>
+      <c r="DE53" s="61"/>
+      <c r="DF53" s="61"/>
+      <c r="DG53" s="61"/>
+      <c r="DH53" s="61"/>
+      <c r="DI53" s="61"/>
+      <c r="DJ53" s="61"/>
+      <c r="DK53" s="61"/>
+      <c r="DL53" s="61"/>
+      <c r="DM53" s="61"/>
+      <c r="DN53" s="61"/>
+      <c r="DO53" s="61"/>
+      <c r="DP53" s="61"/>
+      <c r="DQ53" s="61"/>
+      <c r="DR53" s="61"/>
+      <c r="DS53" s="61"/>
+      <c r="DT53" s="61"/>
+      <c r="DU53" s="61"/>
+      <c r="DY53" s="25"/>
+    </row>
+    <row r="54" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="62"/>
+      <c r="AD54" s="62"/>
+      <c r="AE54" s="62"/>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="62"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="62"/>
+      <c r="AM54" s="62"/>
+      <c r="AN54" s="62"/>
+      <c r="AO54" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP54" s="63"/>
+      <c r="AQ54" s="63"/>
+      <c r="AR54" s="63"/>
+      <c r="AS54" s="63"/>
+      <c r="AT54" s="63"/>
+      <c r="AU54" s="63"/>
+      <c r="AV54" s="63"/>
+      <c r="AW54" s="63"/>
+      <c r="AX54" s="63"/>
+      <c r="AY54" s="63"/>
+      <c r="AZ54" s="63"/>
+      <c r="BA54" s="63"/>
+      <c r="BB54" s="63"/>
+      <c r="BC54" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD54" s="62"/>
+      <c r="BE54" s="62"/>
+      <c r="BF54" s="62"/>
+      <c r="BG54" s="62"/>
+      <c r="BH54" s="62"/>
+      <c r="BI54" s="62"/>
+      <c r="BJ54" s="62"/>
+      <c r="BK54" s="62"/>
+      <c r="BL54" s="62"/>
+      <c r="BM54" s="62"/>
+      <c r="BN54" s="62"/>
+      <c r="BO54" s="62"/>
+      <c r="BP54" s="62"/>
+      <c r="BQ54" s="62"/>
+      <c r="BR54" s="62"/>
+      <c r="BS54" s="62"/>
+      <c r="BT54" s="62"/>
+      <c r="BU54" s="62"/>
+      <c r="BV54" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW54" s="62"/>
+      <c r="BX54" s="62"/>
+      <c r="BY54" s="62"/>
+      <c r="BZ54" s="62"/>
+      <c r="CA54" s="62"/>
+      <c r="CB54" s="62"/>
+      <c r="CC54" s="62"/>
+      <c r="CD54" s="62"/>
+      <c r="CE54" s="62"/>
+      <c r="CF54" s="62"/>
+      <c r="CG54" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="BW30" s="53"/>
-      <c r="BX30" s="53"/>
-      <c r="BY30" s="53"/>
-      <c r="BZ30" s="53"/>
-      <c r="CA30" s="53"/>
-      <c r="CB30" s="53"/>
-      <c r="CC30" s="53"/>
-      <c r="CD30" s="53"/>
-      <c r="CE30" s="53"/>
-      <c r="CF30" s="54"/>
-      <c r="CG30" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH30" s="53"/>
-      <c r="CI30" s="53"/>
-      <c r="CJ30" s="53"/>
-      <c r="CK30" s="53"/>
-      <c r="CL30" s="53"/>
-      <c r="CM30" s="53"/>
-      <c r="CN30" s="53"/>
-      <c r="CO30" s="53"/>
-      <c r="CP30" s="53"/>
-      <c r="CQ30" s="53"/>
-      <c r="CR30" s="53"/>
-      <c r="CS30" s="54"/>
-      <c r="CT30" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU30" s="53"/>
-      <c r="CV30" s="53"/>
-      <c r="CW30" s="53"/>
-      <c r="CX30" s="53"/>
-      <c r="CY30" s="53"/>
-      <c r="CZ30" s="53"/>
-      <c r="DA30" s="53"/>
-      <c r="DB30" s="53"/>
-      <c r="DC30" s="53"/>
-      <c r="DD30" s="53"/>
-      <c r="DE30" s="53"/>
-      <c r="DF30" s="53"/>
-      <c r="DG30" s="53"/>
-      <c r="DH30" s="53"/>
-      <c r="DI30" s="53"/>
-      <c r="DJ30" s="53"/>
-      <c r="DK30" s="53"/>
-      <c r="DL30" s="53"/>
-      <c r="DM30" s="53"/>
-      <c r="DN30" s="53"/>
-      <c r="DO30" s="53"/>
-      <c r="DP30" s="53"/>
-      <c r="DQ30" s="53"/>
-      <c r="DR30" s="53"/>
-      <c r="DS30" s="53"/>
-      <c r="DT30" s="53"/>
-      <c r="DU30" s="54"/>
-      <c r="DY30" s="25"/>
-    </row>
-    <row r="31" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD31" s="59"/>
-      <c r="BE31" s="59"/>
-      <c r="BF31" s="59"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
-      <c r="BJ31" s="59"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="59"/>
-      <c r="BM31" s="59"/>
-      <c r="BN31" s="59"/>
-      <c r="BO31" s="59"/>
-      <c r="BP31" s="59"/>
-      <c r="BQ31" s="59"/>
-      <c r="BR31" s="59"/>
-      <c r="BS31" s="59"/>
-      <c r="BT31" s="59"/>
-      <c r="BU31" s="60"/>
-      <c r="BV31" s="43" t="s">
+      <c r="CH54" s="49"/>
+      <c r="CI54" s="49"/>
+      <c r="CJ54" s="49"/>
+      <c r="CK54" s="49"/>
+      <c r="CL54" s="49"/>
+      <c r="CM54" s="49"/>
+      <c r="CN54" s="49"/>
+      <c r="CO54" s="49"/>
+      <c r="CP54" s="49"/>
+      <c r="CQ54" s="49"/>
+      <c r="CR54" s="49"/>
+      <c r="CS54" s="50"/>
+      <c r="CT54" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="CU54" s="51"/>
+      <c r="CV54" s="51"/>
+      <c r="CW54" s="51"/>
+      <c r="CX54" s="51"/>
+      <c r="CY54" s="51"/>
+      <c r="CZ54" s="51"/>
+      <c r="DA54" s="51"/>
+      <c r="DB54" s="51"/>
+      <c r="DC54" s="51"/>
+      <c r="DD54" s="51"/>
+      <c r="DE54" s="51"/>
+      <c r="DF54" s="51"/>
+      <c r="DG54" s="51"/>
+      <c r="DH54" s="51"/>
+      <c r="DI54" s="51"/>
+      <c r="DJ54" s="51"/>
+      <c r="DK54" s="51"/>
+      <c r="DL54" s="51"/>
+      <c r="DM54" s="51"/>
+      <c r="DN54" s="51"/>
+      <c r="DO54" s="51"/>
+      <c r="DP54" s="51"/>
+      <c r="DQ54" s="51"/>
+      <c r="DR54" s="51"/>
+      <c r="DS54" s="51"/>
+      <c r="DT54" s="51"/>
+      <c r="DU54" s="51"/>
+      <c r="DY54" s="25"/>
+    </row>
+    <row r="55" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP55" s="63"/>
+      <c r="AQ55" s="63"/>
+      <c r="AR55" s="63"/>
+      <c r="AS55" s="63"/>
+      <c r="AT55" s="63"/>
+      <c r="AU55" s="63"/>
+      <c r="AV55" s="63"/>
+      <c r="AW55" s="63"/>
+      <c r="AX55" s="63"/>
+      <c r="AY55" s="63"/>
+      <c r="AZ55" s="63"/>
+      <c r="BA55" s="63"/>
+      <c r="BB55" s="63"/>
+      <c r="BC55" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD55" s="62"/>
+      <c r="BE55" s="62"/>
+      <c r="BF55" s="62"/>
+      <c r="BG55" s="62"/>
+      <c r="BH55" s="62"/>
+      <c r="BI55" s="62"/>
+      <c r="BJ55" s="62"/>
+      <c r="BK55" s="62"/>
+      <c r="BL55" s="62"/>
+      <c r="BM55" s="62"/>
+      <c r="BN55" s="62"/>
+      <c r="BO55" s="62"/>
+      <c r="BP55" s="62"/>
+      <c r="BQ55" s="62"/>
+      <c r="BR55" s="62"/>
+      <c r="BS55" s="62"/>
+      <c r="BT55" s="62"/>
+      <c r="BU55" s="62"/>
+      <c r="BV55" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW55" s="62"/>
+      <c r="BX55" s="62"/>
+      <c r="BY55" s="62"/>
+      <c r="BZ55" s="62"/>
+      <c r="CA55" s="62"/>
+      <c r="CB55" s="62"/>
+      <c r="CC55" s="62"/>
+      <c r="CD55" s="62"/>
+      <c r="CE55" s="62"/>
+      <c r="CF55" s="62"/>
+      <c r="CG55" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH55" s="49"/>
+      <c r="CI55" s="49"/>
+      <c r="CJ55" s="49"/>
+      <c r="CK55" s="49"/>
+      <c r="CL55" s="49"/>
+      <c r="CM55" s="49"/>
+      <c r="CN55" s="49"/>
+      <c r="CO55" s="49"/>
+      <c r="CP55" s="49"/>
+      <c r="CQ55" s="49"/>
+      <c r="CR55" s="49"/>
+      <c r="CS55" s="50"/>
+      <c r="CT55" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="CU55" s="51"/>
+      <c r="CV55" s="51"/>
+      <c r="CW55" s="51"/>
+      <c r="CX55" s="51"/>
+      <c r="CY55" s="51"/>
+      <c r="CZ55" s="51"/>
+      <c r="DA55" s="51"/>
+      <c r="DB55" s="51"/>
+      <c r="DC55" s="51"/>
+      <c r="DD55" s="51"/>
+      <c r="DE55" s="51"/>
+      <c r="DF55" s="51"/>
+      <c r="DG55" s="51"/>
+      <c r="DH55" s="51"/>
+      <c r="DI55" s="51"/>
+      <c r="DJ55" s="51"/>
+      <c r="DK55" s="51"/>
+      <c r="DL55" s="51"/>
+      <c r="DM55" s="51"/>
+      <c r="DN55" s="51"/>
+      <c r="DO55" s="51"/>
+      <c r="DP55" s="51"/>
+      <c r="DQ55" s="51"/>
+      <c r="DR55" s="51"/>
+      <c r="DS55" s="51"/>
+      <c r="DT55" s="51"/>
+      <c r="DU55" s="51"/>
+      <c r="DY55" s="25"/>
+    </row>
+    <row r="56" spans="5:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="58"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="62"/>
+      <c r="AN56" s="62"/>
+      <c r="AO56" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP56" s="63"/>
+      <c r="AQ56" s="63"/>
+      <c r="AR56" s="63"/>
+      <c r="AS56" s="63"/>
+      <c r="AT56" s="63"/>
+      <c r="AU56" s="63"/>
+      <c r="AV56" s="63"/>
+      <c r="AW56" s="63"/>
+      <c r="AX56" s="63"/>
+      <c r="AY56" s="63"/>
+      <c r="AZ56" s="63"/>
+      <c r="BA56" s="63"/>
+      <c r="BB56" s="63"/>
+      <c r="BC56" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD56" s="62"/>
+      <c r="BE56" s="62"/>
+      <c r="BF56" s="62"/>
+      <c r="BG56" s="62"/>
+      <c r="BH56" s="62"/>
+      <c r="BI56" s="62"/>
+      <c r="BJ56" s="62"/>
+      <c r="BK56" s="62"/>
+      <c r="BL56" s="62"/>
+      <c r="BM56" s="62"/>
+      <c r="BN56" s="62"/>
+      <c r="BO56" s="62"/>
+      <c r="BP56" s="62"/>
+      <c r="BQ56" s="62"/>
+      <c r="BR56" s="62"/>
+      <c r="BS56" s="62"/>
+      <c r="BT56" s="62"/>
+      <c r="BU56" s="62"/>
+      <c r="BV56" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW56" s="62"/>
+      <c r="BX56" s="62"/>
+      <c r="BY56" s="62"/>
+      <c r="BZ56" s="62"/>
+      <c r="CA56" s="62"/>
+      <c r="CB56" s="62"/>
+      <c r="CC56" s="62"/>
+      <c r="CD56" s="62"/>
+      <c r="CE56" s="62"/>
+      <c r="CF56" s="62"/>
+      <c r="CG56" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="BW31" s="44"/>
-      <c r="BX31" s="44"/>
-      <c r="BY31" s="44"/>
-      <c r="BZ31" s="44"/>
-      <c r="CA31" s="44"/>
-      <c r="CB31" s="44"/>
-      <c r="CC31" s="44"/>
-      <c r="CD31" s="44"/>
-      <c r="CE31" s="44"/>
-      <c r="CF31" s="45"/>
-      <c r="CG31" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH31" s="44"/>
-      <c r="CI31" s="44"/>
-      <c r="CJ31" s="44"/>
-      <c r="CK31" s="44"/>
-      <c r="CL31" s="44"/>
-      <c r="CM31" s="44"/>
-      <c r="CN31" s="44"/>
-      <c r="CO31" s="44"/>
-      <c r="CP31" s="44"/>
-      <c r="CQ31" s="44"/>
-      <c r="CR31" s="44"/>
-      <c r="CS31" s="45"/>
-      <c r="CT31" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU31" s="44"/>
-      <c r="CV31" s="44"/>
-      <c r="CW31" s="44"/>
-      <c r="CX31" s="44"/>
-      <c r="CY31" s="44"/>
-      <c r="CZ31" s="44"/>
-      <c r="DA31" s="44"/>
-      <c r="DB31" s="44"/>
-      <c r="DC31" s="44"/>
-      <c r="DD31" s="44"/>
-      <c r="DE31" s="44"/>
-      <c r="DF31" s="44"/>
-      <c r="DG31" s="44"/>
-      <c r="DH31" s="44"/>
-      <c r="DI31" s="44"/>
-      <c r="DJ31" s="44"/>
-      <c r="DK31" s="44"/>
-      <c r="DL31" s="44"/>
-      <c r="DM31" s="44"/>
-      <c r="DN31" s="44"/>
-      <c r="DO31" s="44"/>
-      <c r="DP31" s="44"/>
-      <c r="DQ31" s="44"/>
-      <c r="DR31" s="44"/>
-      <c r="DS31" s="44"/>
-      <c r="DT31" s="44"/>
-      <c r="DU31" s="45"/>
-      <c r="DY31" s="25"/>
-    </row>
-    <row r="32" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="43" t="s">
+      <c r="CH56" s="49"/>
+      <c r="CI56" s="49"/>
+      <c r="CJ56" s="49"/>
+      <c r="CK56" s="49"/>
+      <c r="CL56" s="49"/>
+      <c r="CM56" s="49"/>
+      <c r="CN56" s="49"/>
+      <c r="CO56" s="49"/>
+      <c r="CP56" s="49"/>
+      <c r="CQ56" s="49"/>
+      <c r="CR56" s="49"/>
+      <c r="CS56" s="50"/>
+      <c r="CT56" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="CU56" s="62"/>
+      <c r="CV56" s="62"/>
+      <c r="CW56" s="62"/>
+      <c r="CX56" s="62"/>
+      <c r="CY56" s="62"/>
+      <c r="CZ56" s="62"/>
+      <c r="DA56" s="62"/>
+      <c r="DB56" s="62"/>
+      <c r="DC56" s="62"/>
+      <c r="DD56" s="62"/>
+      <c r="DE56" s="62"/>
+      <c r="DF56" s="62"/>
+      <c r="DG56" s="62"/>
+      <c r="DH56" s="62"/>
+      <c r="DI56" s="62"/>
+      <c r="DJ56" s="62"/>
+      <c r="DK56" s="62"/>
+      <c r="DL56" s="62"/>
+      <c r="DM56" s="62"/>
+      <c r="DN56" s="62"/>
+      <c r="DO56" s="62"/>
+      <c r="DP56" s="62"/>
+      <c r="DQ56" s="62"/>
+      <c r="DR56" s="62"/>
+      <c r="DS56" s="62"/>
+      <c r="DT56" s="62"/>
+      <c r="DU56" s="62"/>
+      <c r="DY56" s="25"/>
+    </row>
+    <row r="57" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="DY57" s="25"/>
+    </row>
+    <row r="58" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DY58" s="25"/>
+    </row>
+    <row r="59" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E59" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="75"/>
+      <c r="T59" s="75"/>
+      <c r="U59" s="75"/>
+      <c r="V59" s="75"/>
+      <c r="W59" s="76"/>
+      <c r="DY59" s="25"/>
+    </row>
+    <row r="60" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E60" s="64"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="79"/>
+      <c r="DY60" s="25"/>
+    </row>
+    <row r="61" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="E61" s="64"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="81"/>
+      <c r="V61" s="81"/>
+      <c r="W61" s="82"/>
+      <c r="DY61" s="25"/>
+    </row>
+    <row r="62" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F62" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="S62" s="66"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="67"/>
+      <c r="DY62" s="25"/>
+    </row>
+    <row r="63" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="85"/>
+      <c r="DY63" s="25"/>
+    </row>
+    <row r="64" spans="5:129" x14ac:dyDescent="0.15">
+      <c r="F64" s="68"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="V64" s="69"/>
+      <c r="W64" s="70"/>
+      <c r="DY64" s="25"/>
+    </row>
+    <row r="65" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F65" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="44"/>
-      <c r="BH32" s="44"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="44"/>
-      <c r="BL32" s="44"/>
-      <c r="BM32" s="44"/>
-      <c r="BN32" s="44"/>
-      <c r="BO32" s="44"/>
-      <c r="BP32" s="44"/>
-      <c r="BQ32" s="44"/>
-      <c r="BR32" s="44"/>
-      <c r="BS32" s="44"/>
-      <c r="BT32" s="44"/>
-      <c r="BU32" s="45"/>
-      <c r="BV32" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="BW32" s="44"/>
-      <c r="BX32" s="44"/>
-      <c r="BY32" s="44"/>
-      <c r="BZ32" s="44"/>
-      <c r="CA32" s="44"/>
-      <c r="CB32" s="44"/>
-      <c r="CC32" s="44"/>
-      <c r="CD32" s="44"/>
-      <c r="CE32" s="44"/>
-      <c r="CF32" s="45"/>
-      <c r="CG32" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH32" s="44"/>
-      <c r="CI32" s="44"/>
-      <c r="CJ32" s="44"/>
-      <c r="CK32" s="44"/>
-      <c r="CL32" s="44"/>
-      <c r="CM32" s="44"/>
-      <c r="CN32" s="44"/>
-      <c r="CO32" s="44"/>
-      <c r="CP32" s="44"/>
-      <c r="CQ32" s="44"/>
-      <c r="CR32" s="44"/>
-      <c r="CS32" s="45"/>
-      <c r="CT32" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="CU32" s="44"/>
-      <c r="CV32" s="44"/>
-      <c r="CW32" s="44"/>
-      <c r="CX32" s="44"/>
-      <c r="CY32" s="44"/>
-      <c r="CZ32" s="44"/>
-      <c r="DA32" s="44"/>
-      <c r="DB32" s="44"/>
-      <c r="DC32" s="44"/>
-      <c r="DD32" s="44"/>
-      <c r="DE32" s="44"/>
-      <c r="DF32" s="44"/>
-      <c r="DG32" s="44"/>
-      <c r="DH32" s="44"/>
-      <c r="DI32" s="44"/>
-      <c r="DJ32" s="44"/>
-      <c r="DK32" s="44"/>
-      <c r="DL32" s="44"/>
-      <c r="DM32" s="44"/>
-      <c r="DN32" s="44"/>
-      <c r="DO32" s="44"/>
-      <c r="DP32" s="44"/>
-      <c r="DQ32" s="44"/>
-      <c r="DR32" s="44"/>
-      <c r="DS32" s="44"/>
-      <c r="DT32" s="44"/>
-      <c r="DU32" s="45"/>
-      <c r="DY32" s="25"/>
-    </row>
-    <row r="33" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
-      <c r="BK33" s="3"/>
-      <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="3"/>
-      <c r="BP33" s="3"/>
-      <c r="BQ33" s="3"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="3"/>
-      <c r="BT33" s="3"/>
-      <c r="BU33" s="3"/>
-      <c r="CT33" s="3"/>
-      <c r="CU33" s="3"/>
-      <c r="CV33" s="3"/>
-      <c r="CW33" s="3"/>
-      <c r="CX33" s="3"/>
-      <c r="CY33" s="3"/>
-      <c r="CZ33" s="3"/>
-      <c r="DA33" s="3"/>
-      <c r="DB33" s="3"/>
-      <c r="DC33" s="3"/>
-      <c r="DD33" s="3"/>
-      <c r="DE33" s="3"/>
-      <c r="DF33" s="3"/>
-      <c r="DG33" s="3"/>
-      <c r="DH33" s="3"/>
-      <c r="DI33" s="3"/>
-      <c r="DJ33" s="3"/>
-      <c r="DK33" s="3"/>
-      <c r="DL33" s="3"/>
-      <c r="DY33" s="25"/>
-    </row>
-    <row r="34" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="DY34" s="25"/>
-    </row>
-    <row r="35" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F35" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="64"/>
-      <c r="BJ35" s="64"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="64"/>
-      <c r="BO35" s="64"/>
-      <c r="BP35" s="64"/>
-      <c r="BQ35" s="64"/>
-      <c r="BR35" s="64"/>
-      <c r="BS35" s="64"/>
-      <c r="BT35" s="64"/>
-      <c r="BU35" s="64"/>
-      <c r="BV35" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW35" s="64"/>
-      <c r="BX35" s="64"/>
-      <c r="BY35" s="64"/>
-      <c r="BZ35" s="64"/>
-      <c r="CA35" s="64"/>
-      <c r="CB35" s="64"/>
-      <c r="CC35" s="64"/>
-      <c r="CD35" s="64"/>
-      <c r="CE35" s="64"/>
-      <c r="CF35" s="64"/>
-      <c r="CG35" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH35" s="53"/>
-      <c r="CI35" s="53"/>
-      <c r="CJ35" s="53"/>
-      <c r="CK35" s="53"/>
-      <c r="CL35" s="53"/>
-      <c r="CM35" s="53"/>
-      <c r="CN35" s="53"/>
-      <c r="CO35" s="53"/>
-      <c r="CP35" s="53"/>
-      <c r="CQ35" s="53"/>
-      <c r="CR35" s="53"/>
-      <c r="CS35" s="54"/>
-      <c r="CT35" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU35" s="64"/>
-      <c r="CV35" s="64"/>
-      <c r="CW35" s="64"/>
-      <c r="CX35" s="64"/>
-      <c r="CY35" s="64"/>
-      <c r="CZ35" s="64"/>
-      <c r="DA35" s="64"/>
-      <c r="DB35" s="64"/>
-      <c r="DC35" s="64"/>
-      <c r="DD35" s="64"/>
-      <c r="DE35" s="64"/>
-      <c r="DF35" s="64"/>
-      <c r="DG35" s="64"/>
-      <c r="DH35" s="64"/>
-      <c r="DI35" s="64"/>
-      <c r="DJ35" s="64"/>
-      <c r="DK35" s="64"/>
-      <c r="DL35" s="64"/>
-      <c r="DM35" s="64"/>
-      <c r="DN35" s="64"/>
-      <c r="DO35" s="64"/>
-      <c r="DP35" s="64"/>
-      <c r="DQ35" s="64"/>
-      <c r="DR35" s="64"/>
-      <c r="DS35" s="64"/>
-      <c r="DT35" s="64"/>
-      <c r="DU35" s="64"/>
-      <c r="DY35" s="25"/>
-    </row>
-    <row r="36" spans="5:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="65"/>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP36" s="89"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="89"/>
-      <c r="AT36" s="89"/>
-      <c r="AU36" s="89"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="89"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="89"/>
-      <c r="BC36" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD36" s="89"/>
-      <c r="BE36" s="89"/>
-      <c r="BF36" s="89"/>
-      <c r="BG36" s="89"/>
-      <c r="BH36" s="89"/>
-      <c r="BI36" s="89"/>
-      <c r="BJ36" s="89"/>
-      <c r="BK36" s="89"/>
-      <c r="BL36" s="89"/>
-      <c r="BM36" s="89"/>
-      <c r="BN36" s="89"/>
-      <c r="BO36" s="89"/>
-      <c r="BP36" s="89"/>
-      <c r="BQ36" s="89"/>
-      <c r="BR36" s="89"/>
-      <c r="BS36" s="89"/>
-      <c r="BT36" s="89"/>
-      <c r="BU36" s="89"/>
-      <c r="BV36" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW36" s="65"/>
-      <c r="BX36" s="65"/>
-      <c r="BY36" s="65"/>
-      <c r="BZ36" s="65"/>
-      <c r="CA36" s="65"/>
-      <c r="CB36" s="65"/>
-      <c r="CC36" s="65"/>
-      <c r="CD36" s="65"/>
-      <c r="CE36" s="65"/>
-      <c r="CF36" s="65"/>
-      <c r="CG36" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH36" s="44"/>
-      <c r="CI36" s="44"/>
-      <c r="CJ36" s="44"/>
-      <c r="CK36" s="44"/>
-      <c r="CL36" s="44"/>
-      <c r="CM36" s="44"/>
-      <c r="CN36" s="44"/>
-      <c r="CO36" s="44"/>
-      <c r="CP36" s="44"/>
-      <c r="CQ36" s="44"/>
-      <c r="CR36" s="44"/>
-      <c r="CS36" s="45"/>
-      <c r="CT36" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="CU36" s="44"/>
-      <c r="CV36" s="44"/>
-      <c r="CW36" s="44"/>
-      <c r="CX36" s="44"/>
-      <c r="CY36" s="44"/>
-      <c r="CZ36" s="44"/>
-      <c r="DA36" s="44"/>
-      <c r="DB36" s="44"/>
-      <c r="DC36" s="44"/>
-      <c r="DD36" s="44"/>
-      <c r="DE36" s="44"/>
-      <c r="DF36" s="44"/>
-      <c r="DG36" s="44"/>
-      <c r="DH36" s="44"/>
-      <c r="DI36" s="44"/>
-      <c r="DJ36" s="44"/>
-      <c r="DK36" s="44"/>
-      <c r="DL36" s="44"/>
-      <c r="DM36" s="44"/>
-      <c r="DN36" s="44"/>
-      <c r="DO36" s="44"/>
-      <c r="DP36" s="44"/>
-      <c r="DQ36" s="44"/>
-      <c r="DR36" s="44"/>
-      <c r="DS36" s="44"/>
-      <c r="DT36" s="44"/>
-      <c r="DU36" s="45"/>
-      <c r="DY36" s="25"/>
-    </row>
-    <row r="37" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="65"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP37" s="65"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="65"/>
-      <c r="AT37" s="65"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="65"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="65"/>
-      <c r="BA37" s="65"/>
-      <c r="BB37" s="65"/>
-      <c r="BC37" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD37" s="65"/>
-      <c r="BE37" s="65"/>
-      <c r="BF37" s="65"/>
-      <c r="BG37" s="65"/>
-      <c r="BH37" s="65"/>
-      <c r="BI37" s="65"/>
-      <c r="BJ37" s="65"/>
-      <c r="BK37" s="65"/>
-      <c r="BL37" s="65"/>
-      <c r="BM37" s="65"/>
-      <c r="BN37" s="65"/>
-      <c r="BO37" s="65"/>
-      <c r="BP37" s="65"/>
-      <c r="BQ37" s="65"/>
-      <c r="BR37" s="65"/>
-      <c r="BS37" s="65"/>
-      <c r="BT37" s="65"/>
-      <c r="BU37" s="65"/>
-      <c r="BV37" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="BW37" s="65"/>
-      <c r="BX37" s="65"/>
-      <c r="BY37" s="65"/>
-      <c r="BZ37" s="65"/>
-      <c r="CA37" s="65"/>
-      <c r="CB37" s="65"/>
-      <c r="CC37" s="65"/>
-      <c r="CD37" s="65"/>
-      <c r="CE37" s="65"/>
-      <c r="CF37" s="65"/>
-      <c r="CG37" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH37" s="44"/>
-      <c r="CI37" s="44"/>
-      <c r="CJ37" s="44"/>
-      <c r="CK37" s="44"/>
-      <c r="CL37" s="44"/>
-      <c r="CM37" s="44"/>
-      <c r="CN37" s="44"/>
-      <c r="CO37" s="44"/>
-      <c r="CP37" s="44"/>
-      <c r="CQ37" s="44"/>
-      <c r="CR37" s="44"/>
-      <c r="CS37" s="45"/>
-      <c r="CT37" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="CU37" s="65"/>
-      <c r="CV37" s="65"/>
-      <c r="CW37" s="65"/>
-      <c r="CX37" s="65"/>
-      <c r="CY37" s="65"/>
-      <c r="CZ37" s="65"/>
-      <c r="DA37" s="65"/>
-      <c r="DB37" s="65"/>
-      <c r="DC37" s="65"/>
-      <c r="DD37" s="65"/>
-      <c r="DE37" s="65"/>
-      <c r="DF37" s="65"/>
-      <c r="DG37" s="65"/>
-      <c r="DH37" s="65"/>
-      <c r="DI37" s="65"/>
-      <c r="DJ37" s="65"/>
-      <c r="DK37" s="65"/>
-      <c r="DL37" s="65"/>
-      <c r="DM37" s="65"/>
-      <c r="DN37" s="65"/>
-      <c r="DO37" s="65"/>
-      <c r="DP37" s="65"/>
-      <c r="DQ37" s="65"/>
-      <c r="DR37" s="65"/>
-      <c r="DS37" s="65"/>
-      <c r="DT37" s="65"/>
-      <c r="DU37" s="65"/>
-      <c r="DY37" s="25"/>
-    </row>
-    <row r="38" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY38" s="25"/>
-    </row>
-    <row r="39" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="DY39" s="25"/>
-    </row>
-    <row r="40" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F40" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="64"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="64"/>
-      <c r="AO40" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="64"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="64"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="64"/>
-      <c r="BC40" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD40" s="64"/>
-      <c r="BE40" s="64"/>
-      <c r="BF40" s="64"/>
-      <c r="BG40" s="64"/>
-      <c r="BH40" s="64"/>
-      <c r="BI40" s="64"/>
-      <c r="BJ40" s="64"/>
-      <c r="BK40" s="64"/>
-      <c r="BL40" s="64"/>
-      <c r="BM40" s="64"/>
-      <c r="BN40" s="64"/>
-      <c r="BO40" s="64"/>
-      <c r="BP40" s="64"/>
-      <c r="BQ40" s="64"/>
-      <c r="BR40" s="64"/>
-      <c r="BS40" s="64"/>
-      <c r="BT40" s="64"/>
-      <c r="BU40" s="64"/>
-      <c r="BV40" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW40" s="64"/>
-      <c r="BX40" s="64"/>
-      <c r="BY40" s="64"/>
-      <c r="BZ40" s="64"/>
-      <c r="CA40" s="64"/>
-      <c r="CB40" s="64"/>
-      <c r="CC40" s="64"/>
-      <c r="CD40" s="64"/>
-      <c r="CE40" s="64"/>
-      <c r="CF40" s="64"/>
-      <c r="CG40" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH40" s="53"/>
-      <c r="CI40" s="53"/>
-      <c r="CJ40" s="53"/>
-      <c r="CK40" s="53"/>
-      <c r="CL40" s="53"/>
-      <c r="CM40" s="53"/>
-      <c r="CN40" s="53"/>
-      <c r="CO40" s="53"/>
-      <c r="CP40" s="53"/>
-      <c r="CQ40" s="53"/>
-      <c r="CR40" s="53"/>
-      <c r="CS40" s="54"/>
-      <c r="CT40" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU40" s="64"/>
-      <c r="CV40" s="64"/>
-      <c r="CW40" s="64"/>
-      <c r="CX40" s="64"/>
-      <c r="CY40" s="64"/>
-      <c r="CZ40" s="64"/>
-      <c r="DA40" s="64"/>
-      <c r="DB40" s="64"/>
-      <c r="DC40" s="64"/>
-      <c r="DD40" s="64"/>
-      <c r="DE40" s="64"/>
-      <c r="DF40" s="64"/>
-      <c r="DG40" s="64"/>
-      <c r="DH40" s="64"/>
-      <c r="DI40" s="64"/>
-      <c r="DJ40" s="64"/>
-      <c r="DK40" s="64"/>
-      <c r="DL40" s="64"/>
-      <c r="DM40" s="64"/>
-      <c r="DN40" s="64"/>
-      <c r="DO40" s="64"/>
-      <c r="DP40" s="64"/>
-      <c r="DQ40" s="64"/>
-      <c r="DR40" s="64"/>
-      <c r="DS40" s="64"/>
-      <c r="DT40" s="64"/>
-      <c r="DU40" s="64"/>
-      <c r="DY40" s="25"/>
-    </row>
-    <row r="41" spans="5:129" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="65"/>
-      <c r="AK41" s="65"/>
-      <c r="AL41" s="65"/>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP41" s="89"/>
-      <c r="AQ41" s="89"/>
-      <c r="AR41" s="89"/>
-      <c r="AS41" s="89"/>
-      <c r="AT41" s="89"/>
-      <c r="AU41" s="89"/>
-      <c r="AV41" s="89"/>
-      <c r="AW41" s="89"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="89"/>
-      <c r="AZ41" s="89"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="89"/>
-      <c r="BC41" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD41" s="65"/>
-      <c r="BE41" s="65"/>
-      <c r="BF41" s="65"/>
-      <c r="BG41" s="65"/>
-      <c r="BH41" s="65"/>
-      <c r="BI41" s="65"/>
-      <c r="BJ41" s="65"/>
-      <c r="BK41" s="65"/>
-      <c r="BL41" s="65"/>
-      <c r="BM41" s="65"/>
-      <c r="BN41" s="65"/>
-      <c r="BO41" s="65"/>
-      <c r="BP41" s="65"/>
-      <c r="BQ41" s="65"/>
-      <c r="BR41" s="65"/>
-      <c r="BS41" s="65"/>
-      <c r="BT41" s="65"/>
-      <c r="BU41" s="65"/>
-      <c r="BV41" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW41" s="65"/>
-      <c r="BX41" s="65"/>
-      <c r="BY41" s="65"/>
-      <c r="BZ41" s="65"/>
-      <c r="CA41" s="65"/>
-      <c r="CB41" s="65"/>
-      <c r="CC41" s="65"/>
-      <c r="CD41" s="65"/>
-      <c r="CE41" s="65"/>
-      <c r="CF41" s="65"/>
-      <c r="CG41" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH41" s="44"/>
-      <c r="CI41" s="44"/>
-      <c r="CJ41" s="44"/>
-      <c r="CK41" s="44"/>
-      <c r="CL41" s="44"/>
-      <c r="CM41" s="44"/>
-      <c r="CN41" s="44"/>
-      <c r="CO41" s="44"/>
-      <c r="CP41" s="44"/>
-      <c r="CQ41" s="44"/>
-      <c r="CR41" s="44"/>
-      <c r="CS41" s="45"/>
-      <c r="CT41" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU41" s="65"/>
-      <c r="CV41" s="65"/>
-      <c r="CW41" s="65"/>
-      <c r="CX41" s="65"/>
-      <c r="CY41" s="65"/>
-      <c r="CZ41" s="65"/>
-      <c r="DA41" s="65"/>
-      <c r="DB41" s="65"/>
-      <c r="DC41" s="65"/>
-      <c r="DD41" s="65"/>
-      <c r="DE41" s="65"/>
-      <c r="DF41" s="65"/>
-      <c r="DG41" s="65"/>
-      <c r="DH41" s="65"/>
-      <c r="DI41" s="65"/>
-      <c r="DJ41" s="65"/>
-      <c r="DK41" s="65"/>
-      <c r="DL41" s="65"/>
-      <c r="DM41" s="65"/>
-      <c r="DN41" s="65"/>
-      <c r="DO41" s="65"/>
-      <c r="DP41" s="65"/>
-      <c r="DQ41" s="65"/>
-      <c r="DR41" s="65"/>
-      <c r="DS41" s="65"/>
-      <c r="DT41" s="65"/>
-      <c r="DU41" s="65"/>
-      <c r="DY41" s="25"/>
-    </row>
-    <row r="42" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
-      <c r="BO42" s="4"/>
-      <c r="BP42" s="4"/>
-      <c r="BQ42" s="4"/>
-      <c r="BR42" s="4"/>
-      <c r="BS42" s="4"/>
-      <c r="BT42" s="4"/>
-      <c r="BU42" s="4"/>
-      <c r="CT42" s="4"/>
-      <c r="CU42" s="4"/>
-      <c r="CV42" s="4"/>
-      <c r="CW42" s="4"/>
-      <c r="CX42" s="4"/>
-      <c r="CY42" s="4"/>
-      <c r="CZ42" s="4"/>
-      <c r="DA42" s="4"/>
-      <c r="DB42" s="4"/>
-      <c r="DC42" s="4"/>
-      <c r="DD42" s="4"/>
-      <c r="DE42" s="4"/>
-      <c r="DF42" s="4"/>
-      <c r="DG42" s="4"/>
-      <c r="DH42" s="4"/>
-      <c r="DI42" s="4"/>
-      <c r="DJ42" s="4"/>
-      <c r="DK42" s="4"/>
-      <c r="DL42" s="4"/>
-      <c r="DY42" s="25"/>
-    </row>
-    <row r="43" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E43" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
-      <c r="AZ43" s="4"/>
-      <c r="BA43" s="4"/>
-      <c r="BB43" s="4"/>
-      <c r="BC43" s="4"/>
-      <c r="BD43" s="4"/>
-      <c r="BE43" s="4"/>
-      <c r="BF43" s="4"/>
-      <c r="BG43" s="4"/>
-      <c r="BH43" s="4"/>
-      <c r="BI43" s="4"/>
-      <c r="BJ43" s="4"/>
-      <c r="BK43" s="4"/>
-      <c r="BL43" s="4"/>
-      <c r="BM43" s="4"/>
-      <c r="BN43" s="4"/>
-      <c r="BO43" s="4"/>
-      <c r="BP43" s="4"/>
-      <c r="BQ43" s="4"/>
-      <c r="BR43" s="4"/>
-      <c r="BS43" s="4"/>
-      <c r="BT43" s="4"/>
-      <c r="BU43" s="4"/>
-      <c r="CT43" s="4"/>
-      <c r="CU43" s="4"/>
-      <c r="CV43" s="4"/>
-      <c r="CW43" s="4"/>
-      <c r="CX43" s="4"/>
-      <c r="CY43" s="4"/>
-      <c r="CZ43" s="4"/>
-      <c r="DA43" s="4"/>
-      <c r="DB43" s="4"/>
-      <c r="DC43" s="4"/>
-      <c r="DD43" s="4"/>
-      <c r="DE43" s="4"/>
-      <c r="DF43" s="4"/>
-      <c r="DG43" s="4"/>
-      <c r="DH43" s="4"/>
-      <c r="DI43" s="4"/>
-      <c r="DJ43" s="4"/>
-      <c r="DK43" s="4"/>
-      <c r="DL43" s="4"/>
-      <c r="DY43" s="25"/>
-    </row>
-    <row r="44" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F44" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="64"/>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="64"/>
-      <c r="AK44" s="64"/>
-      <c r="AL44" s="64"/>
-      <c r="AM44" s="64"/>
-      <c r="AN44" s="64"/>
-      <c r="AO44" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP44" s="64"/>
-      <c r="AQ44" s="64"/>
-      <c r="AR44" s="64"/>
-      <c r="AS44" s="64"/>
-      <c r="AT44" s="64"/>
-      <c r="AU44" s="64"/>
-      <c r="AV44" s="64"/>
-      <c r="AW44" s="64"/>
-      <c r="AX44" s="64"/>
-      <c r="AY44" s="64"/>
-      <c r="AZ44" s="64"/>
-      <c r="BA44" s="64"/>
-      <c r="BB44" s="64"/>
-      <c r="BC44" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD44" s="64"/>
-      <c r="BE44" s="64"/>
-      <c r="BF44" s="64"/>
-      <c r="BG44" s="64"/>
-      <c r="BH44" s="64"/>
-      <c r="BI44" s="64"/>
-      <c r="BJ44" s="64"/>
-      <c r="BK44" s="64"/>
-      <c r="BL44" s="64"/>
-      <c r="BM44" s="64"/>
-      <c r="BN44" s="64"/>
-      <c r="BO44" s="64"/>
-      <c r="BP44" s="64"/>
-      <c r="BQ44" s="64"/>
-      <c r="BR44" s="64"/>
-      <c r="BS44" s="64"/>
-      <c r="BT44" s="64"/>
-      <c r="BU44" s="64"/>
-      <c r="BV44" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW44" s="64"/>
-      <c r="BX44" s="64"/>
-      <c r="BY44" s="64"/>
-      <c r="BZ44" s="64"/>
-      <c r="CA44" s="64"/>
-      <c r="CB44" s="64"/>
-      <c r="CC44" s="64"/>
-      <c r="CD44" s="64"/>
-      <c r="CE44" s="64"/>
-      <c r="CF44" s="64"/>
-      <c r="CG44" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH44" s="53"/>
-      <c r="CI44" s="53"/>
-      <c r="CJ44" s="53"/>
-      <c r="CK44" s="53"/>
-      <c r="CL44" s="53"/>
-      <c r="CM44" s="53"/>
-      <c r="CN44" s="53"/>
-      <c r="CO44" s="53"/>
-      <c r="CP44" s="53"/>
-      <c r="CQ44" s="53"/>
-      <c r="CR44" s="53"/>
-      <c r="CS44" s="54"/>
-      <c r="CT44" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU44" s="64"/>
-      <c r="CV44" s="64"/>
-      <c r="CW44" s="64"/>
-      <c r="CX44" s="64"/>
-      <c r="CY44" s="64"/>
-      <c r="CZ44" s="64"/>
-      <c r="DA44" s="64"/>
-      <c r="DB44" s="64"/>
-      <c r="DC44" s="64"/>
-      <c r="DD44" s="64"/>
-      <c r="DE44" s="64"/>
-      <c r="DF44" s="64"/>
-      <c r="DG44" s="64"/>
-      <c r="DH44" s="64"/>
-      <c r="DI44" s="64"/>
-      <c r="DJ44" s="64"/>
-      <c r="DK44" s="64"/>
-      <c r="DL44" s="64"/>
-      <c r="DM44" s="64"/>
-      <c r="DN44" s="64"/>
-      <c r="DO44" s="64"/>
-      <c r="DP44" s="64"/>
-      <c r="DQ44" s="64"/>
-      <c r="DR44" s="64"/>
-      <c r="DS44" s="64"/>
-      <c r="DT44" s="64"/>
-      <c r="DU44" s="64"/>
-      <c r="DY44" s="25"/>
-    </row>
-    <row r="45" spans="5:129" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="65"/>
-      <c r="AJ45" s="65"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="65"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP45" s="89"/>
-      <c r="AQ45" s="89"/>
-      <c r="AR45" s="89"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="89"/>
-      <c r="AU45" s="89"/>
-      <c r="AV45" s="89"/>
-      <c r="AW45" s="89"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="89"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="89"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD45" s="65"/>
-      <c r="BE45" s="65"/>
-      <c r="BF45" s="65"/>
-      <c r="BG45" s="65"/>
-      <c r="BH45" s="65"/>
-      <c r="BI45" s="65"/>
-      <c r="BJ45" s="65"/>
-      <c r="BK45" s="65"/>
-      <c r="BL45" s="65"/>
-      <c r="BM45" s="65"/>
-      <c r="BN45" s="65"/>
-      <c r="BO45" s="65"/>
-      <c r="BP45" s="65"/>
-      <c r="BQ45" s="65"/>
-      <c r="BR45" s="65"/>
-      <c r="BS45" s="65"/>
-      <c r="BT45" s="65"/>
-      <c r="BU45" s="65"/>
-      <c r="BV45" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="BW45" s="65"/>
-      <c r="BX45" s="65"/>
-      <c r="BY45" s="65"/>
-      <c r="BZ45" s="65"/>
-      <c r="CA45" s="65"/>
-      <c r="CB45" s="65"/>
-      <c r="CC45" s="65"/>
-      <c r="CD45" s="65"/>
-      <c r="CE45" s="65"/>
-      <c r="CF45" s="65"/>
-      <c r="CG45" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH45" s="44"/>
-      <c r="CI45" s="44"/>
-      <c r="CJ45" s="44"/>
-      <c r="CK45" s="44"/>
-      <c r="CL45" s="44"/>
-      <c r="CM45" s="44"/>
-      <c r="CN45" s="44"/>
-      <c r="CO45" s="44"/>
-      <c r="CP45" s="44"/>
-      <c r="CQ45" s="44"/>
-      <c r="CR45" s="44"/>
-      <c r="CS45" s="45"/>
-      <c r="CT45" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="CU45" s="90"/>
-      <c r="CV45" s="90"/>
-      <c r="CW45" s="90"/>
-      <c r="CX45" s="90"/>
-      <c r="CY45" s="90"/>
-      <c r="CZ45" s="90"/>
-      <c r="DA45" s="90"/>
-      <c r="DB45" s="90"/>
-      <c r="DC45" s="90"/>
-      <c r="DD45" s="90"/>
-      <c r="DE45" s="90"/>
-      <c r="DF45" s="90"/>
-      <c r="DG45" s="90"/>
-      <c r="DH45" s="90"/>
-      <c r="DI45" s="90"/>
-      <c r="DJ45" s="90"/>
-      <c r="DK45" s="90"/>
-      <c r="DL45" s="90"/>
-      <c r="DM45" s="90"/>
-      <c r="DN45" s="90"/>
-      <c r="DO45" s="90"/>
-      <c r="DP45" s="90"/>
-      <c r="DQ45" s="90"/>
-      <c r="DR45" s="90"/>
-      <c r="DS45" s="90"/>
-      <c r="DT45" s="90"/>
-      <c r="DU45" s="90"/>
-      <c r="DY45" s="25"/>
-    </row>
-    <row r="46" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY46" s="25"/>
-    </row>
-    <row r="47" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E47" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="DY47" s="25"/>
-    </row>
-    <row r="48" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="DY48" s="25"/>
-    </row>
-    <row r="49" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY49" s="25"/>
-    </row>
-    <row r="50" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="DY50" s="25"/>
-    </row>
-    <row r="51" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F51" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="64"/>
-      <c r="AK51" s="64"/>
-      <c r="AL51" s="64"/>
-      <c r="AM51" s="64"/>
-      <c r="AN51" s="64"/>
-      <c r="AO51" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP51" s="64"/>
-      <c r="AQ51" s="64"/>
-      <c r="AR51" s="64"/>
-      <c r="AS51" s="64"/>
-      <c r="AT51" s="64"/>
-      <c r="AU51" s="64"/>
-      <c r="AV51" s="64"/>
-      <c r="AW51" s="64"/>
-      <c r="AX51" s="64"/>
-      <c r="AY51" s="64"/>
-      <c r="AZ51" s="64"/>
-      <c r="BA51" s="64"/>
-      <c r="BB51" s="64"/>
-      <c r="BC51" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD51" s="64"/>
-      <c r="BE51" s="64"/>
-      <c r="BF51" s="64"/>
-      <c r="BG51" s="64"/>
-      <c r="BH51" s="64"/>
-      <c r="BI51" s="64"/>
-      <c r="BJ51" s="64"/>
-      <c r="BK51" s="64"/>
-      <c r="BL51" s="64"/>
-      <c r="BM51" s="64"/>
-      <c r="BN51" s="64"/>
-      <c r="BO51" s="64"/>
-      <c r="BP51" s="64"/>
-      <c r="BQ51" s="64"/>
-      <c r="BR51" s="64"/>
-      <c r="BS51" s="64"/>
-      <c r="BT51" s="64"/>
-      <c r="BU51" s="64"/>
-      <c r="BV51" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW51" s="64"/>
-      <c r="BX51" s="64"/>
-      <c r="BY51" s="64"/>
-      <c r="BZ51" s="64"/>
-      <c r="CA51" s="64"/>
-      <c r="CB51" s="64"/>
-      <c r="CC51" s="64"/>
-      <c r="CD51" s="64"/>
-      <c r="CE51" s="64"/>
-      <c r="CF51" s="64"/>
-      <c r="CG51" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH51" s="53"/>
-      <c r="CI51" s="53"/>
-      <c r="CJ51" s="53"/>
-      <c r="CK51" s="53"/>
-      <c r="CL51" s="53"/>
-      <c r="CM51" s="53"/>
-      <c r="CN51" s="53"/>
-      <c r="CO51" s="53"/>
-      <c r="CP51" s="53"/>
-      <c r="CQ51" s="53"/>
-      <c r="CR51" s="53"/>
-      <c r="CS51" s="54"/>
-      <c r="CT51" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU51" s="64"/>
-      <c r="CV51" s="64"/>
-      <c r="CW51" s="64"/>
-      <c r="CX51" s="64"/>
-      <c r="CY51" s="64"/>
-      <c r="CZ51" s="64"/>
-      <c r="DA51" s="64"/>
-      <c r="DB51" s="64"/>
-      <c r="DC51" s="64"/>
-      <c r="DD51" s="64"/>
-      <c r="DE51" s="64"/>
-      <c r="DF51" s="64"/>
-      <c r="DG51" s="64"/>
-      <c r="DH51" s="64"/>
-      <c r="DI51" s="64"/>
-      <c r="DJ51" s="64"/>
-      <c r="DK51" s="64"/>
-      <c r="DL51" s="64"/>
-      <c r="DM51" s="64"/>
-      <c r="DN51" s="64"/>
-      <c r="DO51" s="64"/>
-      <c r="DP51" s="64"/>
-      <c r="DQ51" s="64"/>
-      <c r="DR51" s="64"/>
-      <c r="DS51" s="64"/>
-      <c r="DT51" s="64"/>
-      <c r="DU51" s="64"/>
-      <c r="DY51" s="25"/>
-    </row>
-    <row r="52" spans="5:129" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="65"/>
-      <c r="AD52" s="65"/>
-      <c r="AE52" s="65"/>
-      <c r="AF52" s="65"/>
-      <c r="AG52" s="65"/>
-      <c r="AH52" s="65"/>
-      <c r="AI52" s="65"/>
-      <c r="AJ52" s="65"/>
-      <c r="AK52" s="65"/>
-      <c r="AL52" s="65"/>
-      <c r="AM52" s="65"/>
-      <c r="AN52" s="65"/>
-      <c r="AO52" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP52" s="89"/>
-      <c r="AQ52" s="89"/>
-      <c r="AR52" s="89"/>
-      <c r="AS52" s="89"/>
-      <c r="AT52" s="89"/>
-      <c r="AU52" s="89"/>
-      <c r="AV52" s="89"/>
-      <c r="AW52" s="89"/>
-      <c r="AX52" s="89"/>
-      <c r="AY52" s="89"/>
-      <c r="AZ52" s="89"/>
-      <c r="BA52" s="89"/>
-      <c r="BB52" s="89"/>
-      <c r="BC52" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD52" s="89"/>
-      <c r="BE52" s="89"/>
-      <c r="BF52" s="89"/>
-      <c r="BG52" s="89"/>
-      <c r="BH52" s="89"/>
-      <c r="BI52" s="89"/>
-      <c r="BJ52" s="89"/>
-      <c r="BK52" s="89"/>
-      <c r="BL52" s="89"/>
-      <c r="BM52" s="89"/>
-      <c r="BN52" s="89"/>
-      <c r="BO52" s="89"/>
-      <c r="BP52" s="89"/>
-      <c r="BQ52" s="89"/>
-      <c r="BR52" s="89"/>
-      <c r="BS52" s="89"/>
-      <c r="BT52" s="89"/>
-      <c r="BU52" s="89"/>
-      <c r="BV52" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW52" s="65"/>
-      <c r="BX52" s="65"/>
-      <c r="BY52" s="65"/>
-      <c r="BZ52" s="65"/>
-      <c r="CA52" s="65"/>
-      <c r="CB52" s="65"/>
-      <c r="CC52" s="65"/>
-      <c r="CD52" s="65"/>
-      <c r="CE52" s="65"/>
-      <c r="CF52" s="65"/>
-      <c r="CG52" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH52" s="44"/>
-      <c r="CI52" s="44"/>
-      <c r="CJ52" s="44"/>
-      <c r="CK52" s="44"/>
-      <c r="CL52" s="44"/>
-      <c r="CM52" s="44"/>
-      <c r="CN52" s="44"/>
-      <c r="CO52" s="44"/>
-      <c r="CP52" s="44"/>
-      <c r="CQ52" s="44"/>
-      <c r="CR52" s="44"/>
-      <c r="CS52" s="45"/>
-      <c r="CT52" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="CU52" s="65"/>
-      <c r="CV52" s="65"/>
-      <c r="CW52" s="65"/>
-      <c r="CX52" s="65"/>
-      <c r="CY52" s="65"/>
-      <c r="CZ52" s="65"/>
-      <c r="DA52" s="65"/>
-      <c r="DB52" s="65"/>
-      <c r="DC52" s="65"/>
-      <c r="DD52" s="65"/>
-      <c r="DE52" s="65"/>
-      <c r="DF52" s="65"/>
-      <c r="DG52" s="65"/>
-      <c r="DH52" s="65"/>
-      <c r="DI52" s="65"/>
-      <c r="DJ52" s="65"/>
-      <c r="DK52" s="65"/>
-      <c r="DL52" s="65"/>
-      <c r="DM52" s="65"/>
-      <c r="DN52" s="65"/>
-      <c r="DO52" s="65"/>
-      <c r="DP52" s="65"/>
-      <c r="DQ52" s="65"/>
-      <c r="DR52" s="65"/>
-      <c r="DS52" s="65"/>
-      <c r="DT52" s="65"/>
-      <c r="DU52" s="65"/>
-      <c r="DY52" s="25"/>
-    </row>
-    <row r="53" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="65"/>
-      <c r="AD53" s="65"/>
-      <c r="AE53" s="65"/>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="65"/>
-      <c r="AJ53" s="65"/>
-      <c r="AK53" s="65"/>
-      <c r="AL53" s="65"/>
-      <c r="AM53" s="65"/>
-      <c r="AN53" s="65"/>
-      <c r="AO53" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP53" s="89"/>
-      <c r="AQ53" s="89"/>
-      <c r="AR53" s="89"/>
-      <c r="AS53" s="89"/>
-      <c r="AT53" s="89"/>
-      <c r="AU53" s="89"/>
-      <c r="AV53" s="89"/>
-      <c r="AW53" s="89"/>
-      <c r="AX53" s="89"/>
-      <c r="AY53" s="89"/>
-      <c r="AZ53" s="89"/>
-      <c r="BA53" s="89"/>
-      <c r="BB53" s="89"/>
-      <c r="BC53" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD53" s="44"/>
-      <c r="BE53" s="44"/>
-      <c r="BF53" s="44"/>
-      <c r="BG53" s="44"/>
-      <c r="BH53" s="44"/>
-      <c r="BI53" s="44"/>
-      <c r="BJ53" s="44"/>
-      <c r="BK53" s="44"/>
-      <c r="BL53" s="44"/>
-      <c r="BM53" s="44"/>
-      <c r="BN53" s="44"/>
-      <c r="BO53" s="44"/>
-      <c r="BP53" s="44"/>
-      <c r="BQ53" s="44"/>
-      <c r="BR53" s="44"/>
-      <c r="BS53" s="44"/>
-      <c r="BT53" s="44"/>
-      <c r="BU53" s="45"/>
-      <c r="BV53" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW53" s="65"/>
-      <c r="BX53" s="65"/>
-      <c r="BY53" s="65"/>
-      <c r="BZ53" s="65"/>
-      <c r="CA53" s="65"/>
-      <c r="CB53" s="65"/>
-      <c r="CC53" s="65"/>
-      <c r="CD53" s="65"/>
-      <c r="CE53" s="65"/>
-      <c r="CF53" s="65"/>
-      <c r="CG53" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH53" s="59"/>
-      <c r="CI53" s="59"/>
-      <c r="CJ53" s="59"/>
-      <c r="CK53" s="59"/>
-      <c r="CL53" s="59"/>
-      <c r="CM53" s="59"/>
-      <c r="CN53" s="59"/>
-      <c r="CO53" s="59"/>
-      <c r="CP53" s="59"/>
-      <c r="CQ53" s="59"/>
-      <c r="CR53" s="59"/>
-      <c r="CS53" s="60"/>
-      <c r="CT53" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU53" s="65"/>
-      <c r="CV53" s="65"/>
-      <c r="CW53" s="65"/>
-      <c r="CX53" s="65"/>
-      <c r="CY53" s="65"/>
-      <c r="CZ53" s="65"/>
-      <c r="DA53" s="65"/>
-      <c r="DB53" s="65"/>
-      <c r="DC53" s="65"/>
-      <c r="DD53" s="65"/>
-      <c r="DE53" s="65"/>
-      <c r="DF53" s="65"/>
-      <c r="DG53" s="65"/>
-      <c r="DH53" s="65"/>
-      <c r="DI53" s="65"/>
-      <c r="DJ53" s="65"/>
-      <c r="DK53" s="65"/>
-      <c r="DL53" s="65"/>
-      <c r="DM53" s="65"/>
-      <c r="DN53" s="65"/>
-      <c r="DO53" s="65"/>
-      <c r="DP53" s="65"/>
-      <c r="DQ53" s="65"/>
-      <c r="DR53" s="65"/>
-      <c r="DS53" s="65"/>
-      <c r="DT53" s="65"/>
-      <c r="DU53" s="65"/>
-      <c r="DY53" s="25"/>
-    </row>
-    <row r="54" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="65"/>
-      <c r="W54" s="65"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="65"/>
-      <c r="AA54" s="65"/>
-      <c r="AB54" s="65"/>
-      <c r="AC54" s="65"/>
-      <c r="AD54" s="65"/>
-      <c r="AE54" s="65"/>
-      <c r="AF54" s="65"/>
-      <c r="AG54" s="65"/>
-      <c r="AH54" s="65"/>
-      <c r="AI54" s="65"/>
-      <c r="AJ54" s="65"/>
-      <c r="AK54" s="65"/>
-      <c r="AL54" s="65"/>
-      <c r="AM54" s="65"/>
-      <c r="AN54" s="65"/>
-      <c r="AO54" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP54" s="89"/>
-      <c r="AQ54" s="89"/>
-      <c r="AR54" s="89"/>
-      <c r="AS54" s="89"/>
-      <c r="AT54" s="89"/>
-      <c r="AU54" s="89"/>
-      <c r="AV54" s="89"/>
-      <c r="AW54" s="89"/>
-      <c r="AX54" s="89"/>
-      <c r="AY54" s="89"/>
-      <c r="AZ54" s="89"/>
-      <c r="BA54" s="89"/>
-      <c r="BB54" s="89"/>
-      <c r="BC54" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD54" s="65"/>
-      <c r="BE54" s="65"/>
-      <c r="BF54" s="65"/>
-      <c r="BG54" s="65"/>
-      <c r="BH54" s="65"/>
-      <c r="BI54" s="65"/>
-      <c r="BJ54" s="65"/>
-      <c r="BK54" s="65"/>
-      <c r="BL54" s="65"/>
-      <c r="BM54" s="65"/>
-      <c r="BN54" s="65"/>
-      <c r="BO54" s="65"/>
-      <c r="BP54" s="65"/>
-      <c r="BQ54" s="65"/>
-      <c r="BR54" s="65"/>
-      <c r="BS54" s="65"/>
-      <c r="BT54" s="65"/>
-      <c r="BU54" s="65"/>
-      <c r="BV54" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW54" s="65"/>
-      <c r="BX54" s="65"/>
-      <c r="BY54" s="65"/>
-      <c r="BZ54" s="65"/>
-      <c r="CA54" s="65"/>
-      <c r="CB54" s="65"/>
-      <c r="CC54" s="65"/>
-      <c r="CD54" s="65"/>
-      <c r="CE54" s="65"/>
-      <c r="CF54" s="65"/>
-      <c r="CG54" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH54" s="44"/>
-      <c r="CI54" s="44"/>
-      <c r="CJ54" s="44"/>
-      <c r="CK54" s="44"/>
-      <c r="CL54" s="44"/>
-      <c r="CM54" s="44"/>
-      <c r="CN54" s="44"/>
-      <c r="CO54" s="44"/>
-      <c r="CP54" s="44"/>
-      <c r="CQ54" s="44"/>
-      <c r="CR54" s="44"/>
-      <c r="CS54" s="45"/>
-      <c r="CT54" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="CU54" s="65"/>
-      <c r="CV54" s="65"/>
-      <c r="CW54" s="65"/>
-      <c r="CX54" s="65"/>
-      <c r="CY54" s="65"/>
-      <c r="CZ54" s="65"/>
-      <c r="DA54" s="65"/>
-      <c r="DB54" s="65"/>
-      <c r="DC54" s="65"/>
-      <c r="DD54" s="65"/>
-      <c r="DE54" s="65"/>
-      <c r="DF54" s="65"/>
-      <c r="DG54" s="65"/>
-      <c r="DH54" s="65"/>
-      <c r="DI54" s="65"/>
-      <c r="DJ54" s="65"/>
-      <c r="DK54" s="65"/>
-      <c r="DL54" s="65"/>
-      <c r="DM54" s="65"/>
-      <c r="DN54" s="65"/>
-      <c r="DO54" s="65"/>
-      <c r="DP54" s="65"/>
-      <c r="DQ54" s="65"/>
-      <c r="DR54" s="65"/>
-      <c r="DS54" s="65"/>
-      <c r="DT54" s="65"/>
-      <c r="DU54" s="65"/>
-      <c r="DY54" s="25"/>
-    </row>
-    <row r="55" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
-      <c r="AD55" s="65"/>
-      <c r="AE55" s="65"/>
-      <c r="AF55" s="65"/>
-      <c r="AG55" s="65"/>
-      <c r="AH55" s="65"/>
-      <c r="AI55" s="65"/>
-      <c r="AJ55" s="65"/>
-      <c r="AK55" s="65"/>
-      <c r="AL55" s="65"/>
-      <c r="AM55" s="65"/>
-      <c r="AN55" s="65"/>
-      <c r="AO55" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP55" s="89"/>
-      <c r="AQ55" s="89"/>
-      <c r="AR55" s="89"/>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="89"/>
-      <c r="AU55" s="89"/>
-      <c r="AV55" s="89"/>
-      <c r="AW55" s="89"/>
-      <c r="AX55" s="89"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="89"/>
-      <c r="BA55" s="89"/>
-      <c r="BB55" s="89"/>
-      <c r="BC55" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD55" s="89"/>
-      <c r="BE55" s="89"/>
-      <c r="BF55" s="89"/>
-      <c r="BG55" s="89"/>
-      <c r="BH55" s="89"/>
-      <c r="BI55" s="89"/>
-      <c r="BJ55" s="89"/>
-      <c r="BK55" s="89"/>
-      <c r="BL55" s="89"/>
-      <c r="BM55" s="89"/>
-      <c r="BN55" s="89"/>
-      <c r="BO55" s="89"/>
-      <c r="BP55" s="89"/>
-      <c r="BQ55" s="89"/>
-      <c r="BR55" s="89"/>
-      <c r="BS55" s="89"/>
-      <c r="BT55" s="89"/>
-      <c r="BU55" s="89"/>
-      <c r="BV55" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW55" s="65"/>
-      <c r="BX55" s="65"/>
-      <c r="BY55" s="65"/>
-      <c r="BZ55" s="65"/>
-      <c r="CA55" s="65"/>
-      <c r="CB55" s="65"/>
-      <c r="CC55" s="65"/>
-      <c r="CD55" s="65"/>
-      <c r="CE55" s="65"/>
-      <c r="CF55" s="65"/>
-      <c r="CG55" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH55" s="44"/>
-      <c r="CI55" s="44"/>
-      <c r="CJ55" s="44"/>
-      <c r="CK55" s="44"/>
-      <c r="CL55" s="44"/>
-      <c r="CM55" s="44"/>
-      <c r="CN55" s="44"/>
-      <c r="CO55" s="44"/>
-      <c r="CP55" s="44"/>
-      <c r="CQ55" s="44"/>
-      <c r="CR55" s="44"/>
-      <c r="CS55" s="45"/>
-      <c r="CT55" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU55" s="65"/>
-      <c r="CV55" s="65"/>
-      <c r="CW55" s="65"/>
-      <c r="CX55" s="65"/>
-      <c r="CY55" s="65"/>
-      <c r="CZ55" s="65"/>
-      <c r="DA55" s="65"/>
-      <c r="DB55" s="65"/>
-      <c r="DC55" s="65"/>
-      <c r="DD55" s="65"/>
-      <c r="DE55" s="65"/>
-      <c r="DF55" s="65"/>
-      <c r="DG55" s="65"/>
-      <c r="DH55" s="65"/>
-      <c r="DI55" s="65"/>
-      <c r="DJ55" s="65"/>
-      <c r="DK55" s="65"/>
-      <c r="DL55" s="65"/>
-      <c r="DM55" s="65"/>
-      <c r="DN55" s="65"/>
-      <c r="DO55" s="65"/>
-      <c r="DP55" s="65"/>
-      <c r="DQ55" s="65"/>
-      <c r="DR55" s="65"/>
-      <c r="DS55" s="65"/>
-      <c r="DT55" s="65"/>
-      <c r="DU55" s="65"/>
-      <c r="DY55" s="25"/>
-    </row>
-    <row r="56" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="65"/>
-      <c r="AE56" s="65"/>
-      <c r="AF56" s="65"/>
-      <c r="AG56" s="65"/>
-      <c r="AH56" s="65"/>
-      <c r="AI56" s="65"/>
-      <c r="AJ56" s="65"/>
-      <c r="AK56" s="65"/>
-      <c r="AL56" s="65"/>
-      <c r="AM56" s="65"/>
-      <c r="AN56" s="65"/>
-      <c r="AO56" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP56" s="89"/>
-      <c r="AQ56" s="89"/>
-      <c r="AR56" s="89"/>
-      <c r="AS56" s="89"/>
-      <c r="AT56" s="89"/>
-      <c r="AU56" s="89"/>
-      <c r="AV56" s="89"/>
-      <c r="AW56" s="89"/>
-      <c r="AX56" s="89"/>
-      <c r="AY56" s="89"/>
-      <c r="AZ56" s="89"/>
-      <c r="BA56" s="89"/>
-      <c r="BB56" s="89"/>
-      <c r="BC56" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD56" s="89"/>
-      <c r="BE56" s="89"/>
-      <c r="BF56" s="89"/>
-      <c r="BG56" s="89"/>
-      <c r="BH56" s="89"/>
-      <c r="BI56" s="89"/>
-      <c r="BJ56" s="89"/>
-      <c r="BK56" s="89"/>
-      <c r="BL56" s="89"/>
-      <c r="BM56" s="89"/>
-      <c r="BN56" s="89"/>
-      <c r="BO56" s="89"/>
-      <c r="BP56" s="89"/>
-      <c r="BQ56" s="89"/>
-      <c r="BR56" s="89"/>
-      <c r="BS56" s="89"/>
-      <c r="BT56" s="89"/>
-      <c r="BU56" s="89"/>
-      <c r="BV56" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW56" s="65"/>
-      <c r="BX56" s="65"/>
-      <c r="BY56" s="65"/>
-      <c r="BZ56" s="65"/>
-      <c r="CA56" s="65"/>
-      <c r="CB56" s="65"/>
-      <c r="CC56" s="65"/>
-      <c r="CD56" s="65"/>
-      <c r="CE56" s="65"/>
-      <c r="CF56" s="65"/>
-      <c r="CG56" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH56" s="44"/>
-      <c r="CI56" s="44"/>
-      <c r="CJ56" s="44"/>
-      <c r="CK56" s="44"/>
-      <c r="CL56" s="44"/>
-      <c r="CM56" s="44"/>
-      <c r="CN56" s="44"/>
-      <c r="CO56" s="44"/>
-      <c r="CP56" s="44"/>
-      <c r="CQ56" s="44"/>
-      <c r="CR56" s="44"/>
-      <c r="CS56" s="45"/>
-      <c r="CT56" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="CU56" s="65"/>
-      <c r="CV56" s="65"/>
-      <c r="CW56" s="65"/>
-      <c r="CX56" s="65"/>
-      <c r="CY56" s="65"/>
-      <c r="CZ56" s="65"/>
-      <c r="DA56" s="65"/>
-      <c r="DB56" s="65"/>
-      <c r="DC56" s="65"/>
-      <c r="DD56" s="65"/>
-      <c r="DE56" s="65"/>
-      <c r="DF56" s="65"/>
-      <c r="DG56" s="65"/>
-      <c r="DH56" s="65"/>
-      <c r="DI56" s="65"/>
-      <c r="DJ56" s="65"/>
-      <c r="DK56" s="65"/>
-      <c r="DL56" s="65"/>
-      <c r="DM56" s="65"/>
-      <c r="DN56" s="65"/>
-      <c r="DO56" s="65"/>
-      <c r="DP56" s="65"/>
-      <c r="DQ56" s="65"/>
-      <c r="DR56" s="65"/>
-      <c r="DS56" s="65"/>
-      <c r="DT56" s="65"/>
-      <c r="DU56" s="65"/>
-      <c r="DY56" s="25"/>
-    </row>
-    <row r="57" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="DY57" s="25"/>
-    </row>
-    <row r="58" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="DY58" s="25"/>
-    </row>
-    <row r="59" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F59" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="64"/>
-      <c r="AE59" s="64"/>
-      <c r="AF59" s="64"/>
-      <c r="AG59" s="64"/>
-      <c r="AH59" s="64"/>
-      <c r="AI59" s="64"/>
-      <c r="AJ59" s="64"/>
-      <c r="AK59" s="64"/>
-      <c r="AL59" s="64"/>
-      <c r="AM59" s="64"/>
-      <c r="AN59" s="64"/>
-      <c r="AO59" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP59" s="64"/>
-      <c r="AQ59" s="64"/>
-      <c r="AR59" s="64"/>
-      <c r="AS59" s="64"/>
-      <c r="AT59" s="64"/>
-      <c r="AU59" s="64"/>
-      <c r="AV59" s="64"/>
-      <c r="AW59" s="64"/>
-      <c r="AX59" s="64"/>
-      <c r="AY59" s="64"/>
-      <c r="AZ59" s="64"/>
-      <c r="BA59" s="64"/>
-      <c r="BB59" s="64"/>
-      <c r="BC59" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD59" s="64"/>
-      <c r="BE59" s="64"/>
-      <c r="BF59" s="64"/>
-      <c r="BG59" s="64"/>
-      <c r="BH59" s="64"/>
-      <c r="BI59" s="64"/>
-      <c r="BJ59" s="64"/>
-      <c r="BK59" s="64"/>
-      <c r="BL59" s="64"/>
-      <c r="BM59" s="64"/>
-      <c r="BN59" s="64"/>
-      <c r="BO59" s="64"/>
-      <c r="BP59" s="64"/>
-      <c r="BQ59" s="64"/>
-      <c r="BR59" s="64"/>
-      <c r="BS59" s="64"/>
-      <c r="BT59" s="64"/>
-      <c r="BU59" s="64"/>
-      <c r="BV59" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW59" s="64"/>
-      <c r="BX59" s="64"/>
-      <c r="BY59" s="64"/>
-      <c r="BZ59" s="64"/>
-      <c r="CA59" s="64"/>
-      <c r="CB59" s="64"/>
-      <c r="CC59" s="64"/>
-      <c r="CD59" s="64"/>
-      <c r="CE59" s="64"/>
-      <c r="CF59" s="64"/>
-      <c r="CG59" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH59" s="53"/>
-      <c r="CI59" s="53"/>
-      <c r="CJ59" s="53"/>
-      <c r="CK59" s="53"/>
-      <c r="CL59" s="53"/>
-      <c r="CM59" s="53"/>
-      <c r="CN59" s="53"/>
-      <c r="CO59" s="53"/>
-      <c r="CP59" s="53"/>
-      <c r="CQ59" s="53"/>
-      <c r="CR59" s="53"/>
-      <c r="CS59" s="54"/>
-      <c r="CT59" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU59" s="64"/>
-      <c r="CV59" s="64"/>
-      <c r="CW59" s="64"/>
-      <c r="CX59" s="64"/>
-      <c r="CY59" s="64"/>
-      <c r="CZ59" s="64"/>
-      <c r="DA59" s="64"/>
-      <c r="DB59" s="64"/>
-      <c r="DC59" s="64"/>
-      <c r="DD59" s="64"/>
-      <c r="DE59" s="64"/>
-      <c r="DF59" s="64"/>
-      <c r="DG59" s="64"/>
-      <c r="DH59" s="64"/>
-      <c r="DI59" s="64"/>
-      <c r="DJ59" s="64"/>
-      <c r="DK59" s="64"/>
-      <c r="DL59" s="64"/>
-      <c r="DM59" s="64"/>
-      <c r="DN59" s="64"/>
-      <c r="DO59" s="64"/>
-      <c r="DP59" s="64"/>
-      <c r="DQ59" s="64"/>
-      <c r="DR59" s="64"/>
-      <c r="DS59" s="64"/>
-      <c r="DT59" s="64"/>
-      <c r="DU59" s="64"/>
-      <c r="DY59" s="25"/>
-    </row>
-    <row r="60" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="95"/>
-      <c r="Q60" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="65"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
-      <c r="AA60" s="65"/>
-      <c r="AB60" s="65"/>
-      <c r="AC60" s="65"/>
-      <c r="AD60" s="65"/>
-      <c r="AE60" s="65"/>
-      <c r="AF60" s="65"/>
-      <c r="AG60" s="65"/>
-      <c r="AH60" s="65"/>
-      <c r="AI60" s="65"/>
-      <c r="AJ60" s="65"/>
-      <c r="AK60" s="65"/>
-      <c r="AL60" s="65"/>
-      <c r="AM60" s="65"/>
-      <c r="AN60" s="65"/>
-      <c r="AO60" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP60" s="89"/>
-      <c r="AQ60" s="89"/>
-      <c r="AR60" s="89"/>
-      <c r="AS60" s="89"/>
-      <c r="AT60" s="89"/>
-      <c r="AU60" s="89"/>
-      <c r="AV60" s="89"/>
-      <c r="AW60" s="89"/>
-      <c r="AX60" s="89"/>
-      <c r="AY60" s="89"/>
-      <c r="AZ60" s="89"/>
-      <c r="BA60" s="89"/>
-      <c r="BB60" s="89"/>
-      <c r="BC60" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD60" s="65"/>
-      <c r="BE60" s="65"/>
-      <c r="BF60" s="65"/>
-      <c r="BG60" s="65"/>
-      <c r="BH60" s="65"/>
-      <c r="BI60" s="65"/>
-      <c r="BJ60" s="65"/>
-      <c r="BK60" s="65"/>
-      <c r="BL60" s="65"/>
-      <c r="BM60" s="65"/>
-      <c r="BN60" s="65"/>
-      <c r="BO60" s="65"/>
-      <c r="BP60" s="65"/>
-      <c r="BQ60" s="65"/>
-      <c r="BR60" s="65"/>
-      <c r="BS60" s="65"/>
-      <c r="BT60" s="65"/>
-      <c r="BU60" s="65"/>
-      <c r="BV60" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW60" s="65"/>
-      <c r="BX60" s="65"/>
-      <c r="BY60" s="65"/>
-      <c r="BZ60" s="65"/>
-      <c r="CA60" s="65"/>
-      <c r="CB60" s="65"/>
-      <c r="CC60" s="65"/>
-      <c r="CD60" s="65"/>
-      <c r="CE60" s="65"/>
-      <c r="CF60" s="65"/>
-      <c r="CG60" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH60" s="44"/>
-      <c r="CI60" s="44"/>
-      <c r="CJ60" s="44"/>
-      <c r="CK60" s="44"/>
-      <c r="CL60" s="44"/>
-      <c r="CM60" s="44"/>
-      <c r="CN60" s="44"/>
-      <c r="CO60" s="44"/>
-      <c r="CP60" s="44"/>
-      <c r="CQ60" s="44"/>
-      <c r="CR60" s="44"/>
-      <c r="CS60" s="45"/>
-      <c r="CT60" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="CU60" s="90"/>
-      <c r="CV60" s="90"/>
-      <c r="CW60" s="90"/>
-      <c r="CX60" s="90"/>
-      <c r="CY60" s="90"/>
-      <c r="CZ60" s="90"/>
-      <c r="DA60" s="90"/>
-      <c r="DB60" s="90"/>
-      <c r="DC60" s="90"/>
-      <c r="DD60" s="90"/>
-      <c r="DE60" s="90"/>
-      <c r="DF60" s="90"/>
-      <c r="DG60" s="90"/>
-      <c r="DH60" s="90"/>
-      <c r="DI60" s="90"/>
-      <c r="DJ60" s="90"/>
-      <c r="DK60" s="90"/>
-      <c r="DL60" s="90"/>
-      <c r="DM60" s="90"/>
-      <c r="DN60" s="90"/>
-      <c r="DO60" s="90"/>
-      <c r="DP60" s="90"/>
-      <c r="DQ60" s="90"/>
-      <c r="DR60" s="90"/>
-      <c r="DS60" s="90"/>
-      <c r="DT60" s="90"/>
-      <c r="DU60" s="90"/>
-      <c r="DY60" s="25"/>
-    </row>
-    <row r="61" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="96"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="R61" s="65"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="65"/>
-      <c r="AA61" s="65"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="65"/>
-      <c r="AD61" s="65"/>
-      <c r="AE61" s="65"/>
-      <c r="AF61" s="65"/>
-      <c r="AG61" s="65"/>
-      <c r="AH61" s="65"/>
-      <c r="AI61" s="65"/>
-      <c r="AJ61" s="65"/>
-      <c r="AK61" s="65"/>
-      <c r="AL61" s="65"/>
-      <c r="AM61" s="65"/>
-      <c r="AN61" s="65"/>
-      <c r="AO61" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP61" s="89"/>
-      <c r="AQ61" s="89"/>
-      <c r="AR61" s="89"/>
-      <c r="AS61" s="89"/>
-      <c r="AT61" s="89"/>
-      <c r="AU61" s="89"/>
-      <c r="AV61" s="89"/>
-      <c r="AW61" s="89"/>
-      <c r="AX61" s="89"/>
-      <c r="AY61" s="89"/>
-      <c r="AZ61" s="89"/>
-      <c r="BA61" s="89"/>
-      <c r="BB61" s="89"/>
-      <c r="BC61" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD61" s="65"/>
-      <c r="BE61" s="65"/>
-      <c r="BF61" s="65"/>
-      <c r="BG61" s="65"/>
-      <c r="BH61" s="65"/>
-      <c r="BI61" s="65"/>
-      <c r="BJ61" s="65"/>
-      <c r="BK61" s="65"/>
-      <c r="BL61" s="65"/>
-      <c r="BM61" s="65"/>
-      <c r="BN61" s="65"/>
-      <c r="BO61" s="65"/>
-      <c r="BP61" s="65"/>
-      <c r="BQ61" s="65"/>
-      <c r="BR61" s="65"/>
-      <c r="BS61" s="65"/>
-      <c r="BT61" s="65"/>
-      <c r="BU61" s="65"/>
-      <c r="BV61" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW61" s="65"/>
-      <c r="BX61" s="65"/>
-      <c r="BY61" s="65"/>
-      <c r="BZ61" s="65"/>
-      <c r="CA61" s="65"/>
-      <c r="CB61" s="65"/>
-      <c r="CC61" s="65"/>
-      <c r="CD61" s="65"/>
-      <c r="CE61" s="65"/>
-      <c r="CF61" s="65"/>
-      <c r="CG61" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH61" s="44"/>
-      <c r="CI61" s="44"/>
-      <c r="CJ61" s="44"/>
-      <c r="CK61" s="44"/>
-      <c r="CL61" s="44"/>
-      <c r="CM61" s="44"/>
-      <c r="CN61" s="44"/>
-      <c r="CO61" s="44"/>
-      <c r="CP61" s="44"/>
-      <c r="CQ61" s="44"/>
-      <c r="CR61" s="44"/>
-      <c r="CS61" s="45"/>
-      <c r="CT61" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="CU61" s="90"/>
-      <c r="CV61" s="90"/>
-      <c r="CW61" s="90"/>
-      <c r="CX61" s="90"/>
-      <c r="CY61" s="90"/>
-      <c r="CZ61" s="90"/>
-      <c r="DA61" s="90"/>
-      <c r="DB61" s="90"/>
-      <c r="DC61" s="90"/>
-      <c r="DD61" s="90"/>
-      <c r="DE61" s="90"/>
-      <c r="DF61" s="90"/>
-      <c r="DG61" s="90"/>
-      <c r="DH61" s="90"/>
-      <c r="DI61" s="90"/>
-      <c r="DJ61" s="90"/>
-      <c r="DK61" s="90"/>
-      <c r="DL61" s="90"/>
-      <c r="DM61" s="90"/>
-      <c r="DN61" s="90"/>
-      <c r="DO61" s="90"/>
-      <c r="DP61" s="90"/>
-      <c r="DQ61" s="90"/>
-      <c r="DR61" s="90"/>
-      <c r="DS61" s="90"/>
-      <c r="DT61" s="90"/>
-      <c r="DU61" s="90"/>
-      <c r="DY61" s="25"/>
-    </row>
-    <row r="62" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="88"/>
-      <c r="AI62" s="88"/>
-      <c r="AJ62" s="88"/>
-      <c r="AK62" s="88"/>
-      <c r="AL62" s="88"/>
-      <c r="AM62" s="88"/>
-      <c r="AN62" s="88"/>
-      <c r="AO62" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP62" s="92"/>
-      <c r="AQ62" s="92"/>
-      <c r="AR62" s="92"/>
-      <c r="AS62" s="92"/>
-      <c r="AT62" s="92"/>
-      <c r="AU62" s="92"/>
-      <c r="AV62" s="92"/>
-      <c r="AW62" s="92"/>
-      <c r="AX62" s="92"/>
-      <c r="AY62" s="92"/>
-      <c r="AZ62" s="92"/>
-      <c r="BA62" s="92"/>
-      <c r="BB62" s="92"/>
-      <c r="BC62" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD62" s="88"/>
-      <c r="BE62" s="88"/>
-      <c r="BF62" s="88"/>
-      <c r="BG62" s="88"/>
-      <c r="BH62" s="88"/>
-      <c r="BI62" s="88"/>
-      <c r="BJ62" s="88"/>
-      <c r="BK62" s="88"/>
-      <c r="BL62" s="88"/>
-      <c r="BM62" s="88"/>
-      <c r="BN62" s="88"/>
-      <c r="BO62" s="88"/>
-      <c r="BP62" s="88"/>
-      <c r="BQ62" s="88"/>
-      <c r="BR62" s="88"/>
-      <c r="BS62" s="88"/>
-      <c r="BT62" s="88"/>
-      <c r="BU62" s="88"/>
-      <c r="BV62" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW62" s="88"/>
-      <c r="BX62" s="88"/>
-      <c r="BY62" s="88"/>
-      <c r="BZ62" s="88"/>
-      <c r="CA62" s="88"/>
-      <c r="CB62" s="88"/>
-      <c r="CC62" s="88"/>
-      <c r="CD62" s="88"/>
-      <c r="CE62" s="88"/>
-      <c r="CF62" s="88"/>
-      <c r="CG62" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH62" s="103"/>
-      <c r="CI62" s="103"/>
-      <c r="CJ62" s="103"/>
-      <c r="CK62" s="103"/>
-      <c r="CL62" s="103"/>
-      <c r="CM62" s="103"/>
-      <c r="CN62" s="103"/>
-      <c r="CO62" s="103"/>
-      <c r="CP62" s="103"/>
-      <c r="CQ62" s="103"/>
-      <c r="CR62" s="103"/>
-      <c r="CS62" s="104"/>
-      <c r="CT62" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU62" s="88"/>
-      <c r="CV62" s="88"/>
-      <c r="CW62" s="88"/>
-      <c r="CX62" s="88"/>
-      <c r="CY62" s="88"/>
-      <c r="CZ62" s="88"/>
-      <c r="DA62" s="88"/>
-      <c r="DB62" s="88"/>
-      <c r="DC62" s="88"/>
-      <c r="DD62" s="88"/>
-      <c r="DE62" s="88"/>
-      <c r="DF62" s="88"/>
-      <c r="DG62" s="88"/>
-      <c r="DH62" s="88"/>
-      <c r="DI62" s="88"/>
-      <c r="DJ62" s="88"/>
-      <c r="DK62" s="88"/>
-      <c r="DL62" s="88"/>
-      <c r="DM62" s="88"/>
-      <c r="DN62" s="88"/>
-      <c r="DO62" s="88"/>
-      <c r="DP62" s="88"/>
-      <c r="DQ62" s="88"/>
-      <c r="DR62" s="88"/>
-      <c r="DS62" s="88"/>
-      <c r="DT62" s="88"/>
-      <c r="DU62" s="88"/>
-      <c r="DY62" s="25"/>
-    </row>
-    <row r="63" spans="5:129" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="100"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="101"/>
-      <c r="Q63" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="65"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="65"/>
-      <c r="AA63" s="65"/>
-      <c r="AB63" s="65"/>
-      <c r="AC63" s="65"/>
-      <c r="AD63" s="65"/>
-      <c r="AE63" s="65"/>
-      <c r="AF63" s="65"/>
-      <c r="AG63" s="65"/>
-      <c r="AH63" s="65"/>
-      <c r="AI63" s="65"/>
-      <c r="AJ63" s="65"/>
-      <c r="AK63" s="65"/>
-      <c r="AL63" s="65"/>
-      <c r="AM63" s="65"/>
-      <c r="AN63" s="65"/>
-      <c r="AO63" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP63" s="89"/>
-      <c r="AQ63" s="89"/>
-      <c r="AR63" s="89"/>
-      <c r="AS63" s="89"/>
-      <c r="AT63" s="89"/>
-      <c r="AU63" s="89"/>
-      <c r="AV63" s="89"/>
-      <c r="AW63" s="89"/>
-      <c r="AX63" s="89"/>
-      <c r="AY63" s="89"/>
-      <c r="AZ63" s="89"/>
-      <c r="BA63" s="89"/>
-      <c r="BB63" s="89"/>
-      <c r="BC63" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD63" s="65"/>
-      <c r="BE63" s="65"/>
-      <c r="BF63" s="65"/>
-      <c r="BG63" s="65"/>
-      <c r="BH63" s="65"/>
-      <c r="BI63" s="65"/>
-      <c r="BJ63" s="65"/>
-      <c r="BK63" s="65"/>
-      <c r="BL63" s="65"/>
-      <c r="BM63" s="65"/>
-      <c r="BN63" s="65"/>
-      <c r="BO63" s="65"/>
-      <c r="BP63" s="65"/>
-      <c r="BQ63" s="65"/>
-      <c r="BR63" s="65"/>
-      <c r="BS63" s="65"/>
-      <c r="BT63" s="65"/>
-      <c r="BU63" s="65"/>
-      <c r="BV63" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW63" s="65"/>
-      <c r="BX63" s="65"/>
-      <c r="BY63" s="65"/>
-      <c r="BZ63" s="65"/>
-      <c r="CA63" s="65"/>
-      <c r="CB63" s="65"/>
-      <c r="CC63" s="65"/>
-      <c r="CD63" s="65"/>
-      <c r="CE63" s="65"/>
-      <c r="CF63" s="65"/>
-      <c r="CG63" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH63" s="44"/>
-      <c r="CI63" s="44"/>
-      <c r="CJ63" s="44"/>
-      <c r="CK63" s="44"/>
-      <c r="CL63" s="44"/>
-      <c r="CM63" s="44"/>
-      <c r="CN63" s="44"/>
-      <c r="CO63" s="44"/>
-      <c r="CP63" s="44"/>
-      <c r="CQ63" s="44"/>
-      <c r="CR63" s="44"/>
-      <c r="CS63" s="45"/>
-      <c r="CT63" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="CU63" s="65"/>
-      <c r="CV63" s="65"/>
-      <c r="CW63" s="65"/>
-      <c r="CX63" s="65"/>
-      <c r="CY63" s="65"/>
-      <c r="CZ63" s="65"/>
-      <c r="DA63" s="65"/>
-      <c r="DB63" s="65"/>
-      <c r="DC63" s="65"/>
-      <c r="DD63" s="65"/>
-      <c r="DE63" s="65"/>
-      <c r="DF63" s="65"/>
-      <c r="DG63" s="65"/>
-      <c r="DH63" s="65"/>
-      <c r="DI63" s="65"/>
-      <c r="DJ63" s="65"/>
-      <c r="DK63" s="65"/>
-      <c r="DL63" s="65"/>
-      <c r="DM63" s="65"/>
-      <c r="DN63" s="65"/>
-      <c r="DO63" s="65"/>
-      <c r="DP63" s="65"/>
-      <c r="DQ63" s="65"/>
-      <c r="DR63" s="65"/>
-      <c r="DS63" s="65"/>
-      <c r="DT63" s="65"/>
-      <c r="DU63" s="65"/>
-      <c r="DY63" s="25"/>
-    </row>
-    <row r="64" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="DY64" s="25"/>
-    </row>
-    <row r="65" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F65" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="67"/>
       <c r="DY65" s="25"/>
     </row>
     <row r="66" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E66" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="S66" s="77"/>
-      <c r="T66" s="77"/>
-      <c r="U66" s="77"/>
-      <c r="V66" s="77"/>
-      <c r="W66" s="78"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="85"/>
       <c r="DY66" s="25"/>
     </row>
-    <row r="67" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E67" s="91"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="81"/>
+    <row r="67" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="80"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="82"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="70"/>
       <c r="DY67" s="25"/>
     </row>
-    <row r="68" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E68" s="91"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="83"/>
-      <c r="T68" s="83"/>
-      <c r="U68" s="83"/>
-      <c r="V68" s="83"/>
-      <c r="W68" s="84"/>
+    <row r="68" spans="4:129" x14ac:dyDescent="0.35">
+      <c r="G68" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="DY68" s="25"/>
     </row>
     <row r="69" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F69" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="78"/>
-      <c r="R69" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="48"/>
       <c r="DY69" s="25"/>
     </row>
-    <row r="70" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F70" s="85"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
-      <c r="P70" s="80"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="86"/>
-      <c r="T70" s="86"/>
-      <c r="U70" s="86"/>
-      <c r="V70" s="86"/>
-      <c r="W70" s="87"/>
+    <row r="70" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="DY70" s="25"/>
     </row>
     <row r="71" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="51"/>
       <c r="DY71" s="25"/>
     </row>
     <row r="72" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F72" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="M72" s="77"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="48"/>
       <c r="DY72" s="25"/>
     </row>
-    <row r="73" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F73" s="79"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="86"/>
-      <c r="T73" s="86"/>
-      <c r="U73" s="86"/>
-      <c r="V73" s="86"/>
-      <c r="W73" s="87"/>
+    <row r="73" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="DY73" s="25"/>
     </row>
-    <row r="74" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F74" s="82"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="51"/>
+    <row r="74" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY74" s="25"/>
     </row>
-    <row r="75" spans="4:129" x14ac:dyDescent="0.35">
-      <c r="G75" s="5" t="s">
-        <v>116</v>
-      </c>
+    <row r="75" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY75" s="25"/>
     </row>
     <row r="76" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY76" s="25"/>
     </row>
-    <row r="77" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="6" t="s">
-        <v>161</v>
-      </c>
+    <row r="77" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY77" s="25"/>
     </row>
     <row r="78" spans="4:129" x14ac:dyDescent="0.15">
@@ -9918,19 +9443,28 @@
     <row r="79" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY79" s="25"/>
     </row>
-    <row r="80" spans="4:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY80" s="25"/>
     </row>
     <row r="81" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V81" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="DY81" s="25"/>
     </row>
     <row r="82" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY82" s="25"/>
     </row>
     <row r="83" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V83" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY83" s="25"/>
     </row>
     <row r="84" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT84" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="DY84" s="25"/>
     </row>
     <row r="85" spans="22:129" x14ac:dyDescent="0.15">
@@ -9940,27 +9474,21 @@
       <c r="DY86" s="25"/>
     </row>
     <row r="87" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT87" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY87" s="25"/>
     </row>
     <row r="88" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V88" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="DY88" s="25"/>
     </row>
     <row r="89" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY89" s="25"/>
     </row>
     <row r="90" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V90" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="DY90" s="25"/>
     </row>
     <row r="91" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT91" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="DY91" s="25"/>
     </row>
     <row r="92" spans="22:129" x14ac:dyDescent="0.15">
@@ -9970,9 +9498,6 @@
       <c r="DY93" s="25"/>
     </row>
     <row r="94" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT94" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="DY94" s="25"/>
     </row>
     <row r="95" spans="22:129" x14ac:dyDescent="0.15">
@@ -9982,18 +9507,27 @@
       <c r="DY96" s="25"/>
     </row>
     <row r="97" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="X97" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="DY97" s="25"/>
     </row>
     <row r="98" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY98" s="25"/>
     </row>
     <row r="99" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V99" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="DY99" s="25"/>
     </row>
     <row r="100" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY100" s="25"/>
     </row>
     <row r="101" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V101" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY101" s="25"/>
     </row>
     <row r="102" spans="22:129" x14ac:dyDescent="0.15">
@@ -10003,17 +9537,14 @@
       <c r="DY103" s="25"/>
     </row>
     <row r="104" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="X104" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="DY104" s="25"/>
     </row>
-    <row r="105" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="105" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="DY105" s="25"/>
     </row>
-    <row r="106" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="106" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V106" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="DY106" s="25"/>
     </row>
@@ -10022,7 +9553,7 @@
     </row>
     <row r="108" spans="22:129" x14ac:dyDescent="0.15">
       <c r="V108" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="DY108" s="25"/>
     </row>
@@ -10035,81 +9566,78 @@
     <row r="111" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY111" s="25"/>
     </row>
-    <row r="112" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="BB112" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="DY112" s="25"/>
     </row>
-    <row r="113" spans="22:129" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V113" s="2" t="s">
-        <v>167</v>
-      </c>
+    <row r="113" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY113" s="25"/>
     </row>
-    <row r="114" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="114" spans="46:129" x14ac:dyDescent="0.15">
+      <c r="AT114" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="DY114" s="25"/>
     </row>
-    <row r="115" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V115" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="115" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY115" s="25"/>
     </row>
-    <row r="116" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="116" spans="46:129" x14ac:dyDescent="0.15">
+      <c r="AT116" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY116" s="25"/>
     </row>
-    <row r="117" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="117" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY117" s="25"/>
     </row>
-    <row r="118" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="118" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY118" s="25"/>
     </row>
-    <row r="119" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="BB119" s="2" t="s">
-        <v>174</v>
-      </c>
+    <row r="119" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY119" s="25"/>
     </row>
-    <row r="120" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="120" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY120" s="25"/>
     </row>
-    <row r="121" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT121" s="2" t="s">
-        <v>172</v>
+    <row r="121" spans="46:129" x14ac:dyDescent="0.15">
+      <c r="AV121" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="DY121" s="25"/>
     </row>
-    <row r="122" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="122" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY122" s="25"/>
     </row>
-    <row r="123" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT123" s="2" t="s">
-        <v>162</v>
+    <row r="123" spans="46:129" x14ac:dyDescent="0.15">
+      <c r="AW123" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="DY123" s="25"/>
     </row>
-    <row r="124" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="124" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY124" s="25"/>
     </row>
-    <row r="125" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="125" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY125" s="25"/>
     </row>
-    <row r="126" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="126" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY126" s="25"/>
     </row>
-    <row r="127" spans="22:129" x14ac:dyDescent="0.15">
+    <row r="127" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY127" s="25"/>
     </row>
-    <row r="128" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AV128" s="2" t="s">
-        <v>167</v>
-      </c>
+    <row r="128" spans="46:129" x14ac:dyDescent="0.15">
       <c r="DY128" s="25"/>
     </row>
     <row r="129" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY129" s="25"/>
     </row>
     <row r="130" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AW130" s="2" t="s">
-        <v>162</v>
+      <c r="V130" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="DY130" s="25"/>
     </row>
@@ -10120,347 +9648,311 @@
       <c r="DY132" s="25"/>
     </row>
     <row r="133" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V133" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="DY133" s="25"/>
     </row>
     <row r="134" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY134" s="25"/>
     </row>
     <row r="135" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="V135" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY135" s="25"/>
     </row>
     <row r="136" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT136" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="DY136" s="25"/>
     </row>
     <row r="137" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V137" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="DY137" s="25"/>
     </row>
     <row r="138" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY138" s="25"/>
     </row>
     <row r="139" spans="22:129" x14ac:dyDescent="0.15">
+      <c r="AT139" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="DY139" s="25"/>
     </row>
     <row r="140" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V140" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="DY140" s="25"/>
     </row>
     <row r="141" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY141" s="25"/>
     </row>
     <row r="142" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="V142" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="DY142" s="25"/>
     </row>
     <row r="143" spans="22:129" x14ac:dyDescent="0.15">
-      <c r="AT143" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="DY143" s="25"/>
     </row>
     <row r="144" spans="22:129" x14ac:dyDescent="0.15">
       <c r="DY144" s="25"/>
     </row>
-    <row r="145" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY145" s="25"/>
     </row>
-    <row r="146" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="AT146" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="146" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY146" s="25"/>
     </row>
-    <row r="147" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY147" s="25"/>
     </row>
-    <row r="148" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY148" s="25"/>
     </row>
-    <row r="149" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY149" s="25"/>
     </row>
-    <row r="150" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="150" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY150" s="25"/>
     </row>
-    <row r="151" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY151" s="25"/>
     </row>
-    <row r="152" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="152" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E152" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="DY152" s="25"/>
     </row>
-    <row r="153" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="153" spans="4:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="DY153" s="25"/>
     </row>
-    <row r="154" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="D154" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="DY154" s="25"/>
     </row>
-    <row r="155" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="155" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY155" s="25"/>
     </row>
-    <row r="156" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E156" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="DY156" s="25"/>
     </row>
-    <row r="157" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F157" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="DY157" s="25"/>
     </row>
-    <row r="158" spans="5:129" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="F158" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="DY158" s="25"/>
     </row>
-    <row r="159" spans="5:129" x14ac:dyDescent="0.15">
-      <c r="E159" s="2" t="s">
-        <v>165</v>
-      </c>
+    <row r="159" spans="4:129" x14ac:dyDescent="0.15">
       <c r="DY159" s="25"/>
     </row>
-    <row r="160" spans="5:129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:129" x14ac:dyDescent="0.15">
+      <c r="E160" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="DY160" s="25"/>
     </row>
-    <row r="161" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="D161" s="2" t="s">
-        <v>136</v>
+    <row r="161" spans="1:129" x14ac:dyDescent="0.15">
+      <c r="F161" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="DY161" s="25"/>
     </row>
-    <row r="162" spans="4:129" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:129" x14ac:dyDescent="0.15">
       <c r="DY162" s="25"/>
     </row>
-    <row r="163" spans="4:129" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:129" x14ac:dyDescent="0.15">
       <c r="E163" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="DY163" s="25"/>
     </row>
-    <row r="164" spans="4:129" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:129" x14ac:dyDescent="0.15">
       <c r="F164" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="DY164" s="25"/>
     </row>
-    <row r="165" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F165" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="165" spans="1:129" x14ac:dyDescent="0.15">
       <c r="DY165" s="25"/>
     </row>
-    <row r="166" spans="4:129" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:129" x14ac:dyDescent="0.15">
+      <c r="E166" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="DY166" s="25"/>
     </row>
-    <row r="167" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E167" s="2" t="s">
-        <v>149</v>
+    <row r="167" spans="1:129" x14ac:dyDescent="0.15">
+      <c r="F167" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="DY167" s="25"/>
     </row>
-    <row r="168" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F168" s="2" t="s">
-        <v>154</v>
-      </c>
+    <row r="168" spans="1:129" x14ac:dyDescent="0.15">
+      <c r="E168" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168" s="6"/>
       <c r="DY168" s="25"/>
     </row>
-    <row r="169" spans="4:129" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:129" x14ac:dyDescent="0.15">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="DY169" s="25"/>
     </row>
-    <row r="170" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E170" s="2" t="s">
-        <v>150</v>
-      </c>
+    <row r="170" spans="1:129" x14ac:dyDescent="0.15">
       <c r="DY170" s="25"/>
     </row>
-    <row r="171" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F171" s="2" t="s">
-        <v>153</v>
-      </c>
+    <row r="171" spans="1:129" x14ac:dyDescent="0.15">
       <c r="DY171" s="25"/>
     </row>
-    <row r="172" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY172" s="25"/>
-    </row>
-    <row r="173" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="E173" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DY173" s="25"/>
-    </row>
-    <row r="174" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="F174" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY174" s="25"/>
-    </row>
-    <row r="175" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY175" s="25"/>
-    </row>
-    <row r="176" spans="4:129" x14ac:dyDescent="0.15">
-      <c r="DY176" s="25"/>
-    </row>
-    <row r="177" spans="1:129" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="27"/>
-      <c r="DY177" s="29"/>
+    <row r="172" spans="1:129" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="27"/>
+      <c r="DY172" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="CG59:CS59"/>
-    <mergeCell ref="CG60:CS60"/>
-    <mergeCell ref="CG35:CS35"/>
-    <mergeCell ref="CG36:CS36"/>
-    <mergeCell ref="CG37:CS37"/>
-    <mergeCell ref="CG40:CS40"/>
-    <mergeCell ref="CG41:CS41"/>
-    <mergeCell ref="CG44:CS44"/>
-    <mergeCell ref="CG54:CS54"/>
-    <mergeCell ref="CG55:CS55"/>
-    <mergeCell ref="CG56:CS56"/>
-    <mergeCell ref="CT60:DU60"/>
-    <mergeCell ref="CT61:DU61"/>
-    <mergeCell ref="F60:P63"/>
-    <mergeCell ref="BV35:CF35"/>
-    <mergeCell ref="BV36:CF36"/>
-    <mergeCell ref="BV37:CF37"/>
-    <mergeCell ref="BV40:CF40"/>
-    <mergeCell ref="BV41:CF41"/>
-    <mergeCell ref="BV44:CF44"/>
-    <mergeCell ref="BV45:CF45"/>
-    <mergeCell ref="BV51:CF51"/>
-    <mergeCell ref="BV52:CF52"/>
-    <mergeCell ref="BV53:CF53"/>
-    <mergeCell ref="BV54:CF54"/>
-    <mergeCell ref="BV55:CF55"/>
-    <mergeCell ref="BV56:CF56"/>
-    <mergeCell ref="BV59:CF59"/>
-    <mergeCell ref="BV60:CF60"/>
-    <mergeCell ref="BV61:CF61"/>
-    <mergeCell ref="BV62:CF62"/>
-    <mergeCell ref="BV63:CF63"/>
-    <mergeCell ref="CG61:CS61"/>
-    <mergeCell ref="CG62:CS62"/>
-    <mergeCell ref="CG63:CS63"/>
-    <mergeCell ref="BC60:BU60"/>
-    <mergeCell ref="AO54:BB54"/>
-    <mergeCell ref="Q54:AN54"/>
-    <mergeCell ref="BC61:BU61"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F35:P35"/>
-    <mergeCell ref="F36:P37"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="F44:P44"/>
-    <mergeCell ref="F45:P45"/>
-    <mergeCell ref="F51:P51"/>
-    <mergeCell ref="F52:P56"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="AO44:BB44"/>
-    <mergeCell ref="BC44:BU44"/>
-    <mergeCell ref="Q44:AN44"/>
-    <mergeCell ref="AO55:BB55"/>
-    <mergeCell ref="AO62:BB62"/>
-    <mergeCell ref="BC62:BU62"/>
-    <mergeCell ref="AO63:BB63"/>
-    <mergeCell ref="BC63:BU63"/>
-    <mergeCell ref="BC37:BU37"/>
-    <mergeCell ref="AO35:BB35"/>
-    <mergeCell ref="CT44:DU44"/>
-    <mergeCell ref="AO45:BB45"/>
-    <mergeCell ref="BC45:BU45"/>
-    <mergeCell ref="Q45:AN45"/>
-    <mergeCell ref="CT45:DU45"/>
-    <mergeCell ref="CG45:CS45"/>
-    <mergeCell ref="CG51:CS51"/>
-    <mergeCell ref="CG52:CS52"/>
-    <mergeCell ref="CG53:CS53"/>
-    <mergeCell ref="AO51:BB51"/>
-    <mergeCell ref="BC51:BU51"/>
-    <mergeCell ref="AO52:BB52"/>
-    <mergeCell ref="BC52:BU52"/>
-    <mergeCell ref="AO53:BB53"/>
-    <mergeCell ref="Q53:AN53"/>
-    <mergeCell ref="CT53:DU53"/>
-    <mergeCell ref="CT31:DU31"/>
-    <mergeCell ref="CT32:DU32"/>
-    <mergeCell ref="Q59:AN59"/>
-    <mergeCell ref="AO32:BB32"/>
-    <mergeCell ref="BC32:BU32"/>
-    <mergeCell ref="AO59:BB59"/>
-    <mergeCell ref="BC59:BU59"/>
-    <mergeCell ref="CT35:DU35"/>
-    <mergeCell ref="CT59:DU59"/>
-    <mergeCell ref="Q55:AN55"/>
-    <mergeCell ref="CT55:DU55"/>
-    <mergeCell ref="BC53:BU53"/>
-    <mergeCell ref="CT37:DU37"/>
-    <mergeCell ref="AO41:BB41"/>
-    <mergeCell ref="BC41:BU41"/>
-    <mergeCell ref="CT41:DU41"/>
-    <mergeCell ref="Q36:AN36"/>
-    <mergeCell ref="Q37:AN37"/>
-    <mergeCell ref="AO40:BB40"/>
-    <mergeCell ref="BC40:BU40"/>
-    <mergeCell ref="CT40:DU40"/>
-    <mergeCell ref="AO36:BB36"/>
-    <mergeCell ref="BC36:BU36"/>
-    <mergeCell ref="AO37:BB37"/>
-    <mergeCell ref="CT54:DU54"/>
-    <mergeCell ref="BC54:BU54"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="L72:Q74"/>
-    <mergeCell ref="R72:W74"/>
-    <mergeCell ref="F66:K68"/>
-    <mergeCell ref="L66:Q68"/>
-    <mergeCell ref="R66:W68"/>
-    <mergeCell ref="F69:K71"/>
-    <mergeCell ref="L69:Q71"/>
-    <mergeCell ref="R69:W71"/>
-    <mergeCell ref="CT62:DU62"/>
-    <mergeCell ref="Q62:AN62"/>
-    <mergeCell ref="AO56:BB56"/>
-    <mergeCell ref="BC56:BU56"/>
-    <mergeCell ref="Q56:AN56"/>
-    <mergeCell ref="CT56:DU56"/>
-    <mergeCell ref="CT63:DU63"/>
-    <mergeCell ref="Q63:AN63"/>
-    <mergeCell ref="BC55:BU55"/>
-    <mergeCell ref="Q60:AN60"/>
-    <mergeCell ref="Q61:AN61"/>
-    <mergeCell ref="AO60:BB60"/>
-    <mergeCell ref="AO61:BB61"/>
+  <mergeCells count="130">
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:AF2"/>
     <mergeCell ref="AG1:BU2"/>
-    <mergeCell ref="AO30:BB30"/>
-    <mergeCell ref="Q52:AN52"/>
-    <mergeCell ref="Q30:AN30"/>
-    <mergeCell ref="Q51:AN51"/>
-    <mergeCell ref="CT51:DU51"/>
-    <mergeCell ref="CT52:DU52"/>
-    <mergeCell ref="CT30:DU30"/>
-    <mergeCell ref="BC35:BU35"/>
+    <mergeCell ref="Q46:AN46"/>
+    <mergeCell ref="Q45:AN45"/>
+    <mergeCell ref="CT45:DU45"/>
+    <mergeCell ref="CT46:DU46"/>
+    <mergeCell ref="BC29:BU29"/>
+    <mergeCell ref="Q29:AN29"/>
+    <mergeCell ref="Q34:AN34"/>
     <mergeCell ref="Q35:AN35"/>
-    <mergeCell ref="Q40:AN40"/>
-    <mergeCell ref="Q41:AN41"/>
     <mergeCell ref="BV1:DD2"/>
     <mergeCell ref="A3:O4"/>
     <mergeCell ref="P3:AF4"/>
     <mergeCell ref="AG3:BU4"/>
     <mergeCell ref="BV3:DD4"/>
-    <mergeCell ref="CT36:DU36"/>
+    <mergeCell ref="CT30:DU30"/>
+    <mergeCell ref="CT48:DU48"/>
+    <mergeCell ref="BC48:BU48"/>
+    <mergeCell ref="F65:K67"/>
+    <mergeCell ref="L65:Q67"/>
+    <mergeCell ref="R65:W67"/>
+    <mergeCell ref="F59:K61"/>
+    <mergeCell ref="L59:Q61"/>
+    <mergeCell ref="R59:W61"/>
+    <mergeCell ref="F62:K64"/>
+    <mergeCell ref="L62:Q64"/>
+    <mergeCell ref="R62:W64"/>
+    <mergeCell ref="AO50:BB50"/>
+    <mergeCell ref="BC50:BU50"/>
+    <mergeCell ref="Q50:AN50"/>
+    <mergeCell ref="CT50:DU50"/>
+    <mergeCell ref="CT56:DU56"/>
+    <mergeCell ref="Q56:AN56"/>
+    <mergeCell ref="BC49:BU49"/>
+    <mergeCell ref="Q54:AN54"/>
+    <mergeCell ref="Q55:AN55"/>
+    <mergeCell ref="AO54:BB54"/>
+    <mergeCell ref="AO55:BB55"/>
+    <mergeCell ref="Q53:AN53"/>
+    <mergeCell ref="AO53:BB53"/>
+    <mergeCell ref="BC53:BU53"/>
+    <mergeCell ref="CT29:DU29"/>
+    <mergeCell ref="CT53:DU53"/>
+    <mergeCell ref="Q49:AN49"/>
+    <mergeCell ref="CT49:DU49"/>
+    <mergeCell ref="BC47:BU47"/>
+    <mergeCell ref="CT31:DU31"/>
+    <mergeCell ref="AO35:BB35"/>
+    <mergeCell ref="BC35:BU35"/>
+    <mergeCell ref="CT35:DU35"/>
+    <mergeCell ref="Q30:AN30"/>
+    <mergeCell ref="Q31:AN31"/>
+    <mergeCell ref="AO34:BB34"/>
+    <mergeCell ref="BC34:BU34"/>
+    <mergeCell ref="CT34:DU34"/>
+    <mergeCell ref="AO30:BB30"/>
     <mergeCell ref="BC30:BU30"/>
-    <mergeCell ref="Q32:AN32"/>
-    <mergeCell ref="CG32:CS32"/>
-    <mergeCell ref="BV32:CF32"/>
+    <mergeCell ref="AO31:BB31"/>
+    <mergeCell ref="CT38:DU38"/>
+    <mergeCell ref="AO39:BB39"/>
+    <mergeCell ref="BC39:BU39"/>
+    <mergeCell ref="Q39:AN39"/>
+    <mergeCell ref="CT39:DU39"/>
+    <mergeCell ref="CG39:CS39"/>
+    <mergeCell ref="CG45:CS45"/>
+    <mergeCell ref="CG46:CS46"/>
+    <mergeCell ref="CG47:CS47"/>
+    <mergeCell ref="AO45:BB45"/>
+    <mergeCell ref="BC45:BU45"/>
+    <mergeCell ref="AO46:BB46"/>
+    <mergeCell ref="BC46:BU46"/>
+    <mergeCell ref="AO47:BB47"/>
+    <mergeCell ref="Q47:AN47"/>
+    <mergeCell ref="CT47:DU47"/>
+    <mergeCell ref="BC54:BU54"/>
+    <mergeCell ref="AO48:BB48"/>
+    <mergeCell ref="Q48:AN48"/>
+    <mergeCell ref="BC55:BU55"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F29:P29"/>
+    <mergeCell ref="F30:P31"/>
+    <mergeCell ref="F34:P34"/>
+    <mergeCell ref="F35:P35"/>
+    <mergeCell ref="F38:P38"/>
+    <mergeCell ref="F39:P39"/>
+    <mergeCell ref="F45:P45"/>
+    <mergeCell ref="F46:P50"/>
+    <mergeCell ref="F53:P53"/>
+    <mergeCell ref="AO38:BB38"/>
+    <mergeCell ref="BC38:BU38"/>
+    <mergeCell ref="Q38:AN38"/>
+    <mergeCell ref="AO49:BB49"/>
+    <mergeCell ref="AO56:BB56"/>
+    <mergeCell ref="BC56:BU56"/>
+    <mergeCell ref="BC31:BU31"/>
+    <mergeCell ref="AO29:BB29"/>
+    <mergeCell ref="CT54:DU54"/>
+    <mergeCell ref="CT55:DU55"/>
+    <mergeCell ref="F54:P56"/>
+    <mergeCell ref="BV29:CF29"/>
+    <mergeCell ref="BV30:CF30"/>
+    <mergeCell ref="BV31:CF31"/>
+    <mergeCell ref="BV34:CF34"/>
+    <mergeCell ref="BV35:CF35"/>
+    <mergeCell ref="BV38:CF38"/>
+    <mergeCell ref="BV39:CF39"/>
+    <mergeCell ref="BV45:CF45"/>
+    <mergeCell ref="BV46:CF46"/>
+    <mergeCell ref="BV47:CF47"/>
+    <mergeCell ref="BV48:CF48"/>
+    <mergeCell ref="BV49:CF49"/>
+    <mergeCell ref="BV50:CF50"/>
+    <mergeCell ref="BV53:CF53"/>
+    <mergeCell ref="BV54:CF54"/>
+    <mergeCell ref="BV55:CF55"/>
+    <mergeCell ref="BV56:CF56"/>
+    <mergeCell ref="CG55:CS55"/>
+    <mergeCell ref="CG56:CS56"/>
+    <mergeCell ref="CG53:CS53"/>
+    <mergeCell ref="CG54:CS54"/>
+    <mergeCell ref="CG29:CS29"/>
+    <mergeCell ref="CG30:CS30"/>
     <mergeCell ref="CG31:CS31"/>
-    <mergeCell ref="BV31:CF31"/>
-    <mergeCell ref="Q31:AN31"/>
-    <mergeCell ref="F31:P32"/>
-    <mergeCell ref="CG30:CS30"/>
-    <mergeCell ref="BV30:CF30"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="AO31:BB31"/>
-    <mergeCell ref="BC31:BU31"/>
+    <mergeCell ref="CG34:CS34"/>
+    <mergeCell ref="CG35:CS35"/>
+    <mergeCell ref="CG38:CS38"/>
+    <mergeCell ref="CG48:CS48"/>
+    <mergeCell ref="CG49:CS49"/>
+    <mergeCell ref="CG50:CS50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10470,9 +9962,9 @@
     <oddFooter>&amp;C&amp;"メイリオ,レギュラー"&amp;9&amp;P/&amp;N&amp;R&amp;D</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="128" man="1"/>
-    <brk id="76" max="128" man="1"/>
-    <brk id="159" max="128" man="1"/>
+    <brk id="40" max="128" man="1"/>
+    <brk id="69" max="128" man="1"/>
+    <brk id="152" max="128" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
